--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,39 +463,501 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>European stocks fall as upbeat economic data hints at further rate rises</t>
+          <t>Investors increase bets on ECB lifting rates to all-time high</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>/content/fba2101e-aa62-4f73-ad8a-958e442234a9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Investors are betting the European Central Bank will raise interest rates to all-time highs, spurred on by the eurozone economy’s resilience and signs that inflation could prove tougher to rein in than expected.
+The Frankfurt-based central bank, widely seen as one of the world’s most dovish during its eight-year experiment with negative borrowing costs, is now expected to raise rates substantially this year.
+Swap markets are pricing in a jump in the ECB’s deposit rate to 3.75 per cent by September, up from the current 2.5 per cent. That would match the benchmark’s 2001 peak, when the ECB was still trying to shore up the value of the newly launched euro.
+“It is really surprising to see the ECB now looking like the most hawkish of the big central banks,” said Sandra Phlippen, chief economist at Dutch bank ABN Amro.
+Markets have revised forecasts of interest rates upwards after recent eurozone data on buoyant service-sector activity and wage demands.
+ECB president Christine Lagarde said on Tuesday that the bank was “looking at wages and negotiated wages very, very closely” — an indication of concern a sharp rise in salaries this year will maintain pressure on prices as companies pass costs on to consumers.
+The yield on German two-year bonds, which are highly sensitive to changes in interest rate expectations, hit a 14-year high of 2.95 per cent on Tuesday after the S&amp;P Global purchasing managers’ index outstripped forecasts.
+The prospect of further substantial rate rises in the eurozone contrasts with the US and the UK, which are widely considered to be closer to the end of their interest rate rise cycles, having already increased borrowing costs earlier and by more than the ECB.
+However, US stock markets fell sharply on Tuesday as upbeat economic data prompted investors to re-evaluate how much further the Federal Reserve may raise rates.
+Eurozone inflation of 8.5 per cent in January compares with 6.4 per cent in the US. While UK inflation remains in double digits, it has fallen faster than expected and the country’s anaemic growth outlook has diminished pressure on the Bank of England to increase rates.
+In the past week Goldman Sachs, Barclays and Berenberg have raised to 3.5 per cent their forecasts for how much further the ECB will raise rates. Deutsche Bank on Wednesday raised its forecast to 3.75 per cent.
+“There is a risk that inflation proves to be more persistent than is currently priced by financial markets,” Isabel Schnabel, an ECB executive board member, told Bloomberg this week.
+Frederik Ducrozet, head of macroeconomic research at Pictet Wealth Management, forecast ECB rates would peak at 3.5 per cent but added the central bank could “still be in tightening mode by September and that takes you close to a deposit rate of 4 per cent”.
+The ECB has already raised rates by an unprecedented 3 percentage points since last summer and this month signalled plans for another half percentage point move in March.
+Wages in the 20-country bloc have been growing at close to 5 per cent in recent months, according to a tracker published by the Irish central bank and jobs website Indeed.
+Unions are responding to last year’s record inflation by demanding even higher pay rises. FNV, the biggest Dutch union, is calling for a 16.9 per cent pay rise for transport workers, while Germany’s Verdi union wants 10 per cent pay rises for 2.5mn public sector workers.
+Although eurozone inflation has fallen for three consecutive months, core inflation — stripping out energy and food prices to show underlying price pressures — was unchanged at a record 5.2 per cent in January.
+“The performance of the economy is obviously good news in the short term for the eurozone, but for the ECB . . . it could suggest they may have more work to do on policy rates,” said Konstantin Veit, portfolio manager at bond investor Pimco. He added that the ECB had made clear that inflation fighting was its “absolute top priority”.
+Ducrozet at Pictet added: “Even the most moderate doves [in the ECB] are talking about a series of rate rises and not stopping anytime soon.”
+Resilient economic data across advanced economies this month has led economists and financial experts to bet that interest rates will stay higher for longer than they previously considered.
+“There has been a repricing in major developed rates markets,” said Silvia Ardagna, an economist at UK bank Barclays. “The fact that US core inflation was a bit stronger than expected last month has made everyone think that maybe it hasn’t peaked yet.”</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Les investisseurs parient que la Banque Centrale Européenne augmentera ses taux d'intérêt à des niveaux record, encouragés par la résistance de l'économie de la zone euro et des signes que l'inflation pourrait être plus difficile à maîtriser que prévu. Les marchés swap anticipent une hausse du taux de dépôt de la BCE à 3,75 % d'ici septembre, contre 2,5 % actuellement. Ceci équivaudrait au pic de 2001, lorsque la BCE était encore en train de soutenir la valeur de l'euro nouvellement lancé. Les marchés ont révisé à la hausse leurs prévisions de taux d'intérêt suite à des données récentes sur l'activité du secteur des services et les salaires. La Banque Centrale Européenne a déclaré qu'elle surveille de près les salaires et les négociations salariales. Les obligations allemandes à deux ans, très sensibles aux changements des prévisions de taux d'intérêt, ont atteint des niveaux records de 2,95 % mardi après que l'indice des directeurs d'achat de S&amp;P Global ait dépassé les prévisions. Les prévisions d'augmentation des taux d'intérêt à long terme dans la zone euro contrastent avec celles des États-Unis et du Royaume-Uni, qui sont considérés comme étant plus proches de la fin de leur cycle de hausse des taux d'intérêt, ayant déjà augmenté les taux d'emprunt plus tôt et davantage que la BCE. Les données économiques encourageantes de ce mois ont amené les économistes et les experts financiers à parier que les taux d'intérêt resteront plus élevés plus longtemps qu'ils ne le pensaient auparavant.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les investisseurs augmentent leurs paris sur la hausse des taux de la BCE à un niveau record.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Europe and Asia stocks fall further after Wall Street sell-off</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>/content/a03cc685-63be-4c62-8dd6-0c63321d31db</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>European and Asian stocks were hit with further declines on Wednesday after Wall Street suffered its worst day since December, as the prospect of further substantial rises in interest rates from major central banks unnerved investors.
+The recent sell-off has been driven by stronger than expected economic data in the US and Europe, which has cemented expectations that borrowing costs on both sides of the Atlantic will need to rise further — and remain high for longer — to tame inflation. Investors on Wednesday will look towards the release of the minutes of the latest US Federal Reserve meeting, at which the benchmark rate was raised by 0.25 percentage points.
+In Europe on Wednesday, the region-wide Stoxx 600 and France’s CAC 40 fell 0.8 per cent, while Germany’s Dax dropped 0.7 per cent. London’s FTSE 100 dropped 1 per cent.
+“It’s no great surprise” that the strong surveys of business activity in the US and eurozone this week have dented equities, said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics. “We’re in this world where good news is bad news, so strong PMIs have prompted investors to expect a higher peak in interest rates.”
+On Tuesday, the S&amp;P Global Eurozone Composite purchasing managers’ index came in at 52.3, above expectations of 50.7, while the equivalent US index registered a reading of 50.2, an eight-month high that beat market expectations of 47.5.
+US stocks recorded their worst day in two months in the aftermath. Wall Street’s blue-chip S&amp;P 500 index closed down 2 per cent, with pullbacks in every sector, while the tech-focused Nasdaq Composite shed 2.5 per cent. They marked the steepest daily losses for both indices since December 15.
+Futures markets indicated a slowdown in the sell-off at Wednesday’s US market open. Futures tracking the S&amp;P 500 and the tech-heavy Nasdaq were down 0.1 per cent.
+Stephen Innes, managing partner at SPI Asset Management, said the strong data pointed to “considerable momentum behind the growing consensus that the Fed will hold rates higher for longer in a more robust economic environment”.
+In currency markets, the euro was down 0.2 per cent against the dollar on Wednesday, while the dollar index, which measures the greenback against six peer currencies, was up 0.1 per cent.
+Earlier, Asian shares followed Wall Street lower. Japan’s benchmark Topix index fell 1.1 per cent, while China’s CSI 300 index of Shanghai- and Shenzhen-listed stocks fell 0.9 per cent and Australia’s S&amp;P/ASX 200 fell 0.3 per cent on Wednesday.
+In Hong Kong, the benchmark Hang Seng index gained after a sharp early fall to end 0.5 per cent down after the government announced it would give out consumption vouchers worth HK$5,000 (US$640) to all adult residents to support the city’s recovery from an economic slump.
+In sovereign debt markets, yields on benchmark 10-year US Treasuries were down 0.01 percentage points at 3.94 per cent, but they remained near the highest levels since November on expectations that the Fed would be forced to continue raising interest rates.
+Yields on interest rate-sensitive two-year notes fell 0.02 percentage points to 4.68 per cent after touching a three-month high on Tuesday.
+“If you compare sentiment to one month ago, people were expecting the Fed might only have a little room left to hike,” said Dickie Wong, head of research at Kingston Securities. “But now it looks like inflation may not ease up and the Fed will have to raise rates repeatedly.”
+Brent crude fell 1 per cent to $82.17 a barrel, while WTI, the US equivalent, dropped 1.1 per cent to $75.50.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Les marchés boursiers européens et asiatiques ont subi de nouvelles baisses mercredi après que Wall Street ait enregistré sa pire journée depuis décembre, car la perspective d'une hausse supplémentaire considérable des taux d'intérêt des principales banques centrales a mis les investisseurs mal à l'aise. La vente récente a été motivée par des données économiques plus fortes que prévu aux États-Unis et en Europe, ce qui a consacré les attentes selon lesquelles les coûts d'emprunt des deux côtés de l'Atlantique devront augmenter davantage et rester élevés plus longtemps pour maîtriser l'inflation. Les investisseurs se tourneront mercredi vers la publication des minutes de la dernière réunion de la Réserve fédérale américaine, à laquelle le taux de référence a été augmenté de 0,25 point de pourcentage. \
+Dans les marchés des devises, l'euro était en baisse de 0,2% contre le dollar mercredi, tandis que l'indice dollar, qui mesure le dollar américain contre six devises de pairs, était en hausse de 0,1%. Les prix du Brent ont chuté de 1% à 82,17 $ le baril, tandis que le WTI, son équivalent américain, a reculé de 1,1% à 75,50 $. Les investisseurs s'attendent à ce que la Réserve fédérale américaine maintienne les taux d'intérêt plus hauts et plus longtemps, ce qui explique la baisse des actions et des devises.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Les actions européennes et asiatiques s'effondrent encore après la baisse de Wall Street.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chinese lithium prices fall 30% as demand for electric vehicles weakens</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>/content/ab5d74d9-a229-4d7a-8542-74124b782306</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lithium prices in China have slumped by almost a third in the past three months after weaker demand in the world’s largest market for electric vehicles has punctured a two-year rally for the key battery component.
+Prices have dropped 29 per cent from November highs to Rmb425,000 ($61,795) per tonne, according to pricing agency Fastmarkets, driven by concerns over the strength of EV demand in Asia’s largest economy.
+“There has been persistent weakness in China,” said Jordan Roberts, lithium analyst at Fastmarkets. “The market is waiting to see the impact from the reduced new energy vehicle subsidies and is concerned by low household confidence, which is tied to the country’s property crisis.”
+Lithium prices rocketed from mid-2021 as breakneck growth in EV sales prompted a scramble among automakers and battery manufacturers for the metal nicknamed “white gold” for its importance to the clean energy industry. But waning Chinese demand has raised doubts over how tight the lithium market will be this year, dragging down prices elsewhere in the world as well as shares of lithium producers.
+Even so, Chinese lithium prices still remain eight times the level of two years ago and have significantly further to fall before they get close to the cost of production at even the most expensive mines.
+Adding to the bearish sentiment, CATL, the Chinese company that is the world’s largest battery producer, was reported by local media and Reuters last week to have signed battery contracts with Chinese EV manufacturers at discounted prices.
+It reportedly agreed to offer EV batteries based on the production cost of its self-made lithium carbonate capped at Rmb200,000 per tonne together with commitments from its automotive customers to buy 80 per cent of their battery needs from it in a bid to boost market share.
+BTR, CATL’s battery materials supplier that reportedly slashed the prices of key materials at the industry leader’s request, declined to comment.
+The falling lithium prices and bearish CATL reports lopped almost 10 per cent off of the share prices of large lithium miners and processors such as US-based Albemarle and Chile’s SQM on Friday. They fell a further 6.2 per cent and 2.5 per cent respectively on Tuesday.
+Chinese electric car sales suffered a weak start to the year, although lunar new year, when sales tend to dip, fell on January. New energy vehicles, which include fully electric cars and plug-in hybrids, dropped 6.3 per cent to 408,000 units in January compared with the same month in 2021, according to data from the China Passenger Car Association.
+Put together with lower EV sales in Germany and Norway following subsidy cuts, Abhishek Murali, electric vehicles analyst at Rystad, a consultancy, said that “within the automotive industry there is some consensus that the rapid growth observed in 2021 and 2022 may not be seen this year”.
+However, lithium for delivery to the US and Europe has fallen far less, only dropping 10 per cent to $70,500 per tonne over the same period, according to Fastmarkets.
+Mathias Miedreich, chief executive of Umicore, a Belgian battery materials producer and large buyer of lithium, said that the Chinese market had always been relatively separate from the rest of the world.
+“I do not believe there is a structural reason why the lithium price is dropping in China. I think the Chinese lithium market was always a bit decoupled from the rest of the world,” he said, adding that western and Chinese lithium pricing would continue to diverge as supply chains deglobalise.
+Albemarle, the world’s largest lithium producer, has stuck by its bullish view on EV sales and lithium prices, saying last week that China’s EV demand would grow 40 per cent this year over last, equivalent to an increase of 3mn vehicles.
+Recommended
+Batteries
+World’s biggest lithium producer bets on prices staying high despite supply rush
+Kent Masters, chief executive of the North Carolina-based company, said on an earnings call that “as China reopens, we expect moderation in EV demand to be shortlived with medium and long-term demand remaining robust”.
+Scotiabank, which started coverage of the lithium market last month, said the recent sell-off for lithium equities was mostly unjustified because there would not be enough new supply even as lithium demand eased from “super-growth” to “high-growth”.
+“While the year ahead has a slight chance to see temporary softness in lithium spot prices, beyond 2024 we are stumped as to where supply will come from to satisfy demand,” it said.
+Climate Capital
+Where climate change meets business, markets and politics. Explore the FT’s coverage here.
+Are you curious about the FT’s environmental sustainability commitments? Find out more about our science-based targets here</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Les prix du lithium en Chine ont chuté de près de la moitié au cours des trois derniers mois, car la demande plus faible sur le plus grand marché mondial de véhicules électriques a freiné la hausse des prix du composant clé des batteries qui durait depuis deux ans. Les prix ont été poussés à la baisse par des inquiétudes sur la force de la demande des véhicules électriques dans l'économie la plus importante d'Asie. Les prix du lithium avaient explosé à partir de mi-2021, en raison de la croissance rapide des ventes de véhicules électriques, ce qui a entraîné une ruée des constructeurs automobiles et des fabricants de batteries vers le métal surnommé «l'or blanc». Les prix du lithium à l'échelle mondiale ont également chuté, entraînant une baisse des actions des producteurs de lithium. CATL, le plus grand producteur de batteries au monde, a récemment conclu des contrats de batterie avec des constructeurs chinois à des prix réduits, ce qui a contribué à alimenter le sentiment baissier. Albemarle, le plus grand producteur mondial de lithium, a maintenu sa vision haussière sur les ventes de VE et les prix du lithium, déclarant que la demande de VE en Chine augmenterait de 40% cette année par rapport à l'année précédente.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les prix du lithium chinois chutent de 30% en raison de la faiblesse de la demande pour les véhicules électriques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>US stocks record worst day in two months on rate rise worries</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>/content/4af75a1f-cdef-487d-88ac-7f2ea108aa0a</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>European stocks fell on Tuesday following the latest indications that the eurozone’s economy is in better health than expected, giving central banks scope for further monetary tightening.
-The Europe-wide Stoxx 600 fell 0.25 per cent, while Germany’s Dax and France’s Cac lost 0.55 per cent. The FTSE 100 was down 0.15 per cent.
-The declines came after closely watched surveys of private sector activity in the eurozone showed faster than expected expansion. Market players believe that signs of economic resilience could encourage the European Central Bank to lift interest rates further as it seeks to contain high inflation. That would probably boost the euro but could weigh on eurozone stock markets.
-Investors are now more focused on interest rates than the prospect of stronger profits because of robust economic activity, according to Neil Birrell, chief investment officer at asset manager Premier Miton. “People thought the end was in sight and there was some certainty, but every time we get a number like this it worries investors,” he said.
-The ZEW economic sentiment index, which measures expert opinions on the strength of the German economy over the next six months, came in at 28.1, compared with last month’s 16.9 rating.
-“If we see confirmation that there is growth improvement, it will help the euro,” said Francesco Pesole, forex strategist at ING. “At the same time, there are concerns on the geopolitical side holding back risk appetite, like the anniversary of the Ukraine invasion and speculation about a new offensive from Russia.”
-ECB governing council member Olli Rehn said on Monday that rates would peak during the summer, but that inflation was “excessively high”.
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>US stocks recorded their worst day in two months on Tuesday, as investors were unnerved by economic data suggesting interest rates have further to rise after months of increases by the Federal Reserve.
+The blue-chip S&amp;P 500 index ended down 2 per cent, with declines in every sector. The tech-heavy Nasdaq Composite slid 2.5 per cent. Both indices had their steepest daily losses since December 15.
+The Vix index, a measure of stock market volatility and often dubbed Wall Street’s “fear gauge”, rose above 23, its second highest level of the year.
+Markets have wobbled in recent days as investors gird for further interest rate rises from the Fed to combat inflation in the US economy. Yields on benchmark Treasury bonds reached three-month highs on Tuesday.
+“The reason for the sell-off in the stock market is a reassessment of the [US Federal Reserve’s] path and the stark rise in Treasury rates,” said Lou Brien, strategist at DRW Trading. “The move higher in Treasury yields reinforces the Fed being tighter for longer.”
+Benchmark 10-year Treasuries slid, pushing yields up to 3.95 per cent — their highest since early November. Interest rate-sensitive two-year notes yielded 4.73 per cent, approaching levels last hit in November, which were the highest since 2007.
+S&amp;P Global’s US composite purchasing managers’ index registered a reading of 50.2, an eight-month high that beat market expectations of 47.5, according to data released on Tuesday. That was mirrored by other bullish readings in the eurozone earlier in the day. A level above 50 indicates industry growth.
+The data followed strong US payrolls and retail sales figures in recent weeks.
+“Expectations of rate cuts later in the year were never very realistic,” said Michael Metcalfe, head of macro strategy at State Street Global Markets. “There was an assumption that tightening would start to limit growth, and now people seem to have flipped from expecting a recession to a boom in a short period of time, based on a few releases which, granted, all say the same thing.”
+In Europe, the benchmark Stoxx 600 closed down 0.2 per cent and Germany’s Dax shed 0.5 per cent after the S&amp;P surveys for the eurozone also indicated private sector activity in the bloc was better than expected.
+Investors were now more focused on interest rates than the prospect of stronger profits because of robust economic activity, said Neil Birrell, chief investment officer at asset manager Premier Miton. “People thought the end was in sight and there was some certainty, but every time we get a number like [the European PMI] it worries investors.”
+Olli Rehn, a governing council member of the European Central Bank, on Monday said rates would peak during the summer, but that inflation was “excessively high”.
 “With inflation so high, further rate hikes beyond March seem likely, logical and appropriate . . . I assume that we will reach the ‘terminal rate’ in the course of the summer,” he said.
-The data also dragged down bond markets, pushing German 10-year yields up 0.04 percentage points to 2.5 per cent. Yields on 10-year US Treasuries rose 0.05 percentage points to 3.88 per cent.
-Futures tracking the US blue-chip S&amp;P 500 slipped 0.7 per cent, and the technology-heavy Nasdaq 100 fell 0.9 per cent, indicating further losses at Tuesday’s open following last week’s declines. US markets were closed on Monday for Presidents’ Day.
-The dollar index, which measures the greenback against a basket of six peer currencies, gained 0.2 per cent.
-Brent crude fell 0.4 per cent to $83.76 a barrel, while the US equivalent WTI rose 0.9 per cent to $77.06.
-In Asia, the Hang Seng index fell 1.7 per cent, while China’s CSI 300 gained 0.3 per cent after rising 2.45 per cent on Monday — its best one-day performance since late November. The index has risen 6.6 per cent this year.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Les marchés boursiers européens ont chuté mardi après des indicateurs montrant une santé économique de la zone euro meilleure que prévu, offrant aux banques centrales une marge de manœuvre pour augmenter encore les taux d'intérêt. Les indices boursiers européens ont reculé de 0,25 %, tandis que le Dax allemand et le Cac français ont chuté de 0,55 % et le FTSE 100 de 0,15 %. Les sondages montrant une expansion plus forte que prévu ont incité les joueurs du marché à croire que des signes de résistance économique pourraient encourager la BCE à relever encore les taux pour contenir l'inflation élevée. Cela pourrait soutenir l'euro mais peser sur les marchés boursiers de la zone euro. Les taux d'intérêt sont plus importants que la perspective de bénéfices plus élevés en raison d'une activité économique robuste, selon Neil Birrell, chef de l'investissement chez Premier Miton. Les taux d'intérêt pourraient atteindre leur niveau final cet été, selon le membre du conseil de la BCE Olli Rehn. Les données ont également fait baisser les marchés obligataires, faisant augmenter les rendements des obligations allemandes à 10 ans de 0,04 points de pourcentage à 2,5 %. Les contrats à terme sur l'indice S&amp;P 500 américain ont reculé de 0,7 % et l'indice technologique Nasdaq 100 de 0,9 %, indiquant une nouvelle baisse à l'ouverture mardi. L'indice du dollar, qui mesure le dollar contre un panier de six devises de pair, a gagné 0,2 %. Le Brent a baissé de 0,4 % à 83,76 dollars le baril, tandis que son équivalent américain, le WTI, a augmenté de 0,9 % à 77,06 dollars le baril. En Asie, l'indice Hang Seng a reculé de 1,7 %, alors que le CSI 300 chinois a progressé de 0,3 % après une hausse de 2,45 % lundi, sa meilleure performance en une seule journée depuis fin novembre.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Les actions européennes reculent alors que des données économiques optimistes suggèrent des hausses supplémentaires des taux d'intérêt.</t>
+The yield on the 10-year German Bund rose as much as 0.01 percentage points to 2.56 per cent, closing at its highest point since the eurozone debt crisis in the summer of 2011.
+Brent crude settled 1.2 per cent lower to $83.05 a barrel, while the US equivalent WTI lost 0.2 per cent to $76.16, with both benchmarks falling further after making slight losses last week.
+In Asia, the Hang Seng index fell 1.7 per cent, while China’s CSI 300 gained 0.3 per cent after rising 2.45 per cent on Monday, its best one-day performance since late November. The index has risen 6.6 per cent this year.
+Additional reporting by Jennifer Hughes in New York</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Les marchés boursiers américains ont enregistré leur plus mauvaise journée depuis deux mois mardi, les investisseurs étant inquiets des données économiques indiquant que les taux d'intérêt ont encore à augmenter après des mois d'augmentations de la Réserve fédérale. L'indice S&amp;P 500 a fini en baisse de 2 % avec des baisses dans chaque secteur et le Nasdaq Composite a chuté de 2,5%. Le Vix, un indicateur de la volatilité des marchés boursiers et souvent appelé «jauge de la peur» de Wall Street, a grimpé au-dessus de 23, son deuxième plus haut niveau de l'année. Les marchés ont été perturbés ces derniers jours alors que les investisseurs se préparent à des hausses des taux d'intérêt supplémentaires de la Fed pour lutter contre l'inflation dans l'économie américaine. Les données sur les PMI S&amp;P Global des États-Unis ont enregistré un score de 50,2, le plus haut depuis huit mois, dépassant les attentes des marchés de 47,5, ce qui a été confirmé par d'autres données favorables en zone euro plus tôt dans la journée. Les rendements des bons du Trésor de référence ont atteint des sommets de trois mois mardi. En Europe, l'indice Stoxx 600 a terminé en baisse de 0,2 % et le Dax allemand a perdu 0,5 % après que les enquêtes S&amp;P pour la zone euro aient également indiqué une activité du secteur privé meilleure que prévu. Les rendements des bons du Trésor à 10 ans ont baissé, faisant grimper les rendements à 3,95 %, leur plus haut niveau depuis début novembre. Les obligations à taux d'intérêt à court terme à deux ans ont produit un rendement de 4,73 %, approchant les niveaux atteints en novembre, qui étaient les plus élevés depuis 2007. Les rendements des bons allemands à 10 ans ont grimpé jusqu'à 0,01 point de pourcentage à 2,56 %, leur plus haut niveau depuis la crise de la dette de la zone euro en été 2011. Le brut Brent s'est établi à 1,2 % à 83,05 $ le baril, tandis que le brut WTI aux États-Unis a perdu 0,2 % à 76,16 $, les deux benchmarks ayant encore reculé après des légères pertes la semaine dernière. En Asie, l'indice Hang Seng a chuté de 1,7 %, tandis que le CSI 300 de Chine a progressé de 0,3 % après avoir grimpé de 2,45 % lundi, sa meilleure performance journalière depuis fin novembre. Les marchés boursiers américains et européens sont maintenant plus concentrés sur les taux d'intérêt que sur les perspectives de bénéfices plus forts en raison d'une activité économique robuste. Olli Rehn, membre du conseil de la Banque centrale européenne, a déclaré lundi que les taux atteindraient leur «taux terminal» au cours de l'été et qu'il était «logique et approprié» d'envisager des hausses de taux supplémentaires au-delà de mars, étant donné que l'inflation est «excessivement élevée». Les marchés boursiers américains et européens ont subi une forte volatilité mardi en raison des données économiques, des hausses de taux et de l'inflation. Les investisseurs s'inquiètent des hausses des taux d'intérêt à plus long terme et se demandent si la croissance économique peut résister à la hausse des taux.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les actions américaines enregistrent leur pire jour en deux mois à cause des inquiétudes liées à l'augmentation des taux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vanguard chief defends decision to pull asset manager out of climate alliance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>/content/9dab65dd-64c8-40c0-ae6e-fac4689dcc77</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The chief executive of Vanguard has defended his decision to pull the world’s second largest asset manager out of an industry-wide alliance to tackle climate change, saying the group’s “voice was being drowned out”.
+In December, Vanguard resigned from the Net Zero Asset Managers initiative, a coalition of 301 asset managers committed to reducing greenhouse gas emissions.
+“We felt that our voice was being drowned out or confused,” said Tim Buckley in an interview with the Financial Times.
+Buckley added that Vanguard’s approach to managing climate change risks, which is focused primarily on company disclosure standards, “has not changed”.
+“We don’t believe that we should dictate company strategy,” he said, in his first public comments about the decision. “It would be hubris to presume that we know the right strategy for the thousands of companies that Vanguard invests with. We just want to make sure that risks are being appropriately disclosed and that every company is playing by the rules.”
+Vanguard has found itself caught between the two sides of the climate change debate.
+The decision to withdraw from the coalition has sparked fury among environmental activists already angered by the Pennsylvania-based asset manager’s refusal to rule out new investments in fossil fuels.
+Campaigners say it should use its influence to press companies to accelerate the decarbonisation of their operations, while US Republican politicians accuse it of failing to support fossil fuel industries.
+Buckley, however, said that Vanguard was “not in the game of politics”. 
+“Politicians and regulators have a central role to play in setting the ground rules to achieve a just transition to a lower carbon economy,” he said, when asked about the increasing politicisation of ESG investing.
+The Vanguard boss also warned investors not to expect superior returns from ploughing money into ESG funds and alternative assets — two of the fastest growing parts of the asset management industry — rather than the index-trackers championed by his firm.
+“We cannot state that [environmental, social and governance] investing is better performance wise than broad index-based investing,” said Buckley. “Our research indicates that ESG investing does not have any advantage over broad-based investing.”
+Vanguard has more than 30mn clients worldwide and has built a business with $7.2tn in assets under management by championing low-cost tracker funds that follow an index such as the S&amp;P 500 or FTSE 100.
+Owned by the investors in its funds, Vanguard does not pay dividends to external shareholders. This structure has helped it become the investment industry’s most aggressive price competitor with continual reductions in its fund fees since it was founded in 1975.
+Assets managed by ESG funds have soared to $2.5tn from just $0.6tn at the start of 2018. But Russia’s invasion of Ukraine has led to significant gains for energy and defence stocks, heralding soul-searching for ESG focused investors in a tough environment for returns.
+Vanguard sells just 28 sustainable funds with global assets of $33.9bn. That is well behind its closest rival BlackRock, which has a far bigger range of 282 sustainable funds with assets of $270bn, according to data provider Morningstar.
+Recommended
+ETF HubLatest news on ETFs
+Vanguard fires fresh salvo in asset management fee war
+The firm offers ESG index funds that exclude certain companies, which “allow investors to express their values and preferences” but this “has to be an individual investor’s choice”, said Buckley.
+Buckley, who started his career at Vanguard in 1991 as a research assistant to its founder Jack Bogle, is also sceptical about the prospects for so-called alternative strategies, such as private equity and private credit. He warned that alternative strategies are “not a panacea to the challenges facing investors”. 
+“Overall portfolio returns are not automatically improved by allocations to private equity or private credit as good manager selection is essential,” he said. “Alternatives might provide a great revenue stream for a fund manager but they might not be a great solution for an investor.” 
+Buckley now wants to drive more price competition into the financial advice industry to lure more clients into Vanguard’s own advisory business, which is growing by 15 to 20 per cent a year. He has set a target of bringing advice to 1mn clients by the end of 2025. The group currently provides advice to about 650,000 retail clients that together account for $350bn in assets.
+Climate Capital
+Where climate change meets business, markets and politics. Explore the FT’s coverage here.
+Are you curious about the FT’s environmental sustainability commitments? Find out more about our science-based targets here</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Le PDG de Vanguard, Tim Buckley, a défendu sa décision de retirer le deuxième plus grand gestionnaire d'actifs du monde d'une alliance industrielle visant à lutter contre le changement climatique, déclarant que la voix de l'entreprise était étouffée. La stratégie de Vanguard pour gérer les risques liés au changement climatique se concentre principalement sur les normes de divulgation des entreprises et "n'a pas changé". Buckley a ajouté que Vanguard n'essaie pas de dicter la stratégie des entreprises et que la présomption qu'ils savent quelle est la bonne stratégie pour les milliers de sociétés qu'ils investissent serait une présomption. Vanguard offre des fonds indices ESG qui excluent certaines entreprises, ce qui permet aux investisseurs d'exprimer leurs valeurs et leurs préférences. Buckley a également averti les investisseurs de ne pas s'attendre à des rendements supérieurs en investissant dans des fonds ESG ou des actifs alternatifs plutôt que dans les index-trackers prônés par sa firme. Il a également averti que les stratégies alternatives ne sont pas une panacée aux défis auxquels les investisseurs sont confrontés.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le chef de Vanguard défend sa décision de retirer le gestionnaire d'actifs de l'alliance climatique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Derivatives market still hit by fallout from Ion Markets cyber attack</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/content/445ec6b7-50b6-4e8d-939b-6c321f4dc4ea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Business has yet to return to normal in global derivatives trading, three weeks after a cyber attack on Ion Markets, underlining the financial technology group’s significant role in the plumbing of the $1tn market.
+Little-known Ion was targeted by attackers at the end of January, who disabled part of its derivatives systems and forced many trading desks to manually keep track of their data on spreadsheets.
+The Dublin-based company is aiming to restore business as usual and transfer all clients to clean systems this week, according to a person familiar with the matter. Ion declined to comment.
+The disruption has rattled the global futures market, which has relied on automated software produced by companies such as Ion to process trades ever since the boisterous paper-littered trading pits gave way to electronic systems.
+Ion is one of the few companies that handles the complex but critical job of matching and reconciling brokers’ trades.
+The hack has left exchanges and markets regulators unable to compile weekly reports of derivatives trading activity and scrambling for workarounds to log their daily activity in one of the world’s biggest financial markets. There were just over $1tn of equity, commodity and interest rate futures open in December, according to data from the Futures Industry Association.
+“This was a high-profile attack,” said John Rapa, chief executive of derivatives industry consultancy Tellefsen. “This is a large, critical vendor, who many participants in the business use.”
+As Ion rebuilds its software on to new hardware and moves customers to clean systems, the three-week delay has resulted in trading firms and regulators paying greater attention to the risks to daily trading operations of a single point of failure.
+Ion was founded in 1999 and has built an empire by scooping up dozens of specialist trading technology groups through a series of debt-fuelled acquisitions. Its founder and chief executive, Andrea Pignataro, a former bond trader at Salomon Brothers, avoids the spotlight.
+On January 31, Ion confirmed market rumours that it had suffered a cyber attack in a part of its business where futures trades are matched and margin is calculated — the insurance that backs a derivatives trade — according to people familiar with the matter.
+“It’s made things a lot more manual . . . checking everything line by line,” said one person familiar with the situatIon.
+RBC, UBS and Macquarie were among the firms affected, according to people familiar with the matter. RBC declined to comment. UBS and Macquarie did not respond to requests for comment.
+“The impact is huge because the recovery time is usually not quick,” said Martin Greenfield, chief executive of cyber security company Quod Orbis. “In most banking terms that is a complete nightmare scenario,” he said, adding that “the whole supply chain and third-party risk element is quite difficult to be dealt with”.
+The disruption has rippled out to regulators too. The Commodity Futures Trading Commission, the main US derivatives regulator, has been unable to publish its weekly Commitments of Traders report, which shows the contracts that customers have been buying and selling. While it expects to resume on Friday, the report will be three weeks in arrears.
+Atlanta-based Intercontinental Exchange has been unable to produce its weekly report on futures positions, as required by European rules. European exchange operator Euronext has resumed publishing its weekly commodity derivatives report, but it is also in arrears.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Le commerce des produits dérivés mondiaux n'est toujours pas revenu à la normale trois semaines après une cyberattaque contre Ion Markets, soulignant le rôle important de la fintech dans le marché de 1 000 milliards de dollars. Ion, peu connu, a été ciblé par des attaquants à la fin janvier, qui ont désactivé une partie de ses systèmes de dérivés et obligé de nombreux bureaux de trading à suivre manuellement leurs données sur des feuilles de calcul. Ion se donne pour objectif de rétablir le cours normal des affaires et de transférer tous ses clients vers des systèmes propres cette semaine. La perturbation a secoué le marché des futures mondiales, qui s'est depuis longtemps appuyé sur des logiciels automatisés produits par des sociétés comme Ion pour traiter les transactions. Ion est l'un des rares fournisseurs à prendre en charge le travail complexe et critique de mise en correspondance et de rapprochement des transactions des courtiers. La cyberattaque a laissé les bourses et les régulateurs des marchés incapables de compiler des rapports hebdomadaires sur l'activité des dérivés et à la recherche de solutions de rechange pour enregistrer leur activité quotidienne dans l'un des plus grands marchés financiers du monde. La perturbation s'est répercutée sur les régulateurs également. La CFTC, le principal régulateur des dérivés américains, n'a pas pu publier son rapport hebdomadaire sur les engagements des traders, qui montre les contrats que les clients achètent et vendent.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le marché des dérivés est toujours frappé par les conséquences de l'attaque informatique Ion Markets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The other source of US strength</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>/content/e389d08f-c7b5-416f-81b4-ada82d163d09</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>This article is an on-site version of our Unhedged newsletter. Sign up here to get the newsletter sent straight to your inbox every weekday
+Good morning. Ethan here; Rob’s away this week.
+By 2022 standards, yesterday would’ve been just another day of bear-market selling. But after a euphoric January, a 2 per cent down day for the S&amp;P 500 feels sombre. The clearest cause is the return of interest rate volatility, as markets start to believe the Federal Reserve really will raise rates to high heaven. The S&amp;P peaked on February 2, a day after the Move index, a measure of rate volatility, bottomed. The Fed is still the biggest story in markets, and it isn’t close. Email me: ethan.wu@ft.com.
+Corporate America is still investing
+Answer this with one word: why has the US economy stayed strong? Our pick would be “consumers”. Buoyed by a structurally tight labour market and a still-intact pandemic savings cushion, consumers, who make up some 70 per cent of nominal gross domestic product, are powering through rate rises.
+But a good runner-up might be “corporations”. Business investment (something like a fifth of GDP) has likewise withstood higher interest rates. In the fourth quarter, S&amp;P 500 companies grew capital expenditure 10 per cent year-on-year after adjusting for inflation, estimates Spencer Hill at Goldman Sachs. The nominal figure is a rollicking 17 per cent. There is talk of a “capex supercycle”.
+The backstory is that companies used the Covid stimulus to tidy up their finances, leaving behind a nice cash pile. Pantheon Macroeconomics puts the leftover cash buffer at about $400bn, compared to the pre-Covid trend. Meanwhile, balance sheets have gotten cleaned up and debt maturities pushed out well into the future. Many think this is blunting the immediate impact of rate increases on businesses.
+Higher rates still do bite, however. As we’ve written before, revenue growth is slowing and margins are compressing. But looking across the universe of US companies, Goldman’s Hill sees most cost cuts coming from a less-discussed source:
+So far, companies appear to be responding to lower margins and higher financing costs by cutting share buybacks — which fell 12 per cent in the [fourth] quarter — as opposed to reducing investment or employment.
+After months of news about job cuts and cost reductions, this explanation feels unintuitive, but it may better match the macro picture of steady capex growth and rock-bottom unemployment.
+Yet unless margin pressure abates, it’s hard to see investment being insulated for ever. If it gets cut, is the economy in trouble?
+The 2015-17 default cycle offers a useful comparison. Driven by a commodity downturn, it’s not a precise analogy (it rarely is). But it is a good example of a non-recessionary contraction in capex. Here’s what business fixed investment did during that period:
+A sector-specific bust created four quarters of contracting investment. But since (real) consumption spending kept chugging along at a 2.8 per cent rate, a recession was avoided.
+Maybe the fact that investment can shrink without causing a recession makes you more willing to believe in a soft landing. Or maybe it makes you think inflation is pretty darn entrenched (we’re sympathetic). The point is that despite real signs of slowdown building on the margins, the Fed faces an economy that isn’t just being pulled along by consumers. At its core, strength abounds.
+Will the Fed stick to 2 per cent?
+A few readers have recently written in to voice their suspicion about the Fed’s commitment to a 2 per cent inflation target — which Unhedged has often taken as a given. They think the US central bank is going to abandon the target the moment it is expedient to do so.
+Markets don’t discount the possibility. The five-year break-even, a proxy for market inflation expectations, sits at 2.6 per cent, compared with a 2003-19 average of 1.8 per cent. Survey measures aren’t much different; the New York Fed’s five-year expected inflation rate is 2.5 per cent.
+This looks consistent with the Fed reaching 3ish per cent inflation and deciding, well, close enough. It’s not hard to see why. As we’ve written before, the first leg of disinflation is probably going to be easier than what comes after. Consider that core inflation has taken a big step down — from a 0.6 per cent monthly pace in mid-2022 to 0.4 per cent in January — with no increase in unemployment. But it may get uglier. In a recent note, Don Rissmiller and Brandon Fontaine at Strategas write:
+Elevated job openings &amp; consumer cash holdings are providing cushions now. But the last -1 per cent reduction in inflation (from 3 per cent [headline consumer price index] to 2 per cent) could be very expensive in terms of job loss. Perhaps a 6-7 per cent unemployment rate is needed (more consistent with historical US recessions).
+As job losses, and political pressure, mount for the Fed, Rissmiller and Fontaine think it will consider lowering the bar:
+Pushing all the way down to a 2 per cent number, which is chosen arbitrarily anyway, may not be credible. Declaring mission accomplished in the neighbourhood of 2 per cent provides the best hope of a “soft-ish” landing for the economy that we see going forward. The Fed declaring victory at 3 per cent, as long as 3 per cent looks anchored, would mean short rates could have a 3-handle in 2024 (as policy moves back towards neutral).
+This account seems plausible enough, especially since prominent voices are already calling for the 2 per cent target to go.
+But it also assumes the Fed knows at what level interest rates become restrictive, and thus has precise control over inflation and unemployment. It seems more likely to us that the Fed is feeling around in the dark. Yes, the central bank can always cut if it goes too far, but easy monetary policy exhibits long and variable lags, too. We would humbly offer up another scenario: by the time the central bank realises it has overtightened, it’s already too late.
+One good read
+Scott Alexander revisits his predictions about 2023, made in 2018.
+Recommended newsletters for you
+Cryptofinance — Scott Chipolina filters out the noise of the global cryptocurrency industry. Sign up here
+Swamp Notes — Expert insight on the intersection of money and power in US politics. Sign up here</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Le marché boursier américain a connu une journée baisse de 2 % hier, ce qui serait considéré comme une journée normale selon les normes de 2022. C'est en grande partie dû à la volatilité des taux d'intérêt, car les marchés commencent à croire que la Réserve fédérale va réellement augmenter les taux. Les entreprises américaines ont investi dans l'économie malgré les taux d'intérêt plus élevés, grâce à une période de chômage structurellement faible et à une épargne pandémique toujours intacte. Les entreprises ont utilisé le stimulus Covid pour nettoyer leurs finances et ont laissé un bon matelas de trésorerie. Cependant, les marges se rétrécissent et les entreprises répondent en réduisant leurs rachats d'actions, plutôt que d'investissement ou d'emploi. La Réserve fédérale peut toujours réduire les taux si elle va trop loin, mais elle risque de se retrouver prise au piège avant de s'en rendre compte. La contraction de l'investissement ne provoquera pas nécessairement une récession, ce qui suggère que l'économie est soutenue par plus que les consommateurs.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+L'autre source de la force des États-Unis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>China has its eye on overseas listings</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>/content/cba55a82-1809-4266-af54-9c7d621bd21e</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Craig Coben is a former senior investment banker at Bank of America and now a managing director at Seda Experts, an expert witness firm specialising in financial services.
+“Don’t forget it’s me who put you where you are now,” sings Philip Oakey in Human League’s 1981 hit Don’t You Want Me. “And I can put you back down too.”
+The lyrics occurred to me when I read last Friday about the long-awaited new rules issued by the Chinese Security Regulatory Commission. These relate to overseas listings of companies incorporated outside the People’s Republic of China (PRC) but whose main operations are on the mainland.
+Heralded as “reopening the avenue of fundraising after a 20-month obstruction,” the package of measures starkly reminds companies and banks just who the ultimate gatekeeper is. The CSRC announcement gives multiple government watchdogs much leeway to decide which companies can access foreign markets and under what conditions. And it piles on extra procedures and approvals that hadn’t been required before. Unlike China’s December pivot from zero Covid, the CSRC is not letting overseas IPOs “rip” without tight control and surveillance.
+In other words, this is less a U-turn and more a reassertion of state power.
+Until 2021 China had enjoyed an active period of blockbuster IPOs in the US and Hong Kong. In July 2021, however, Chinese authorities clamped down on foreign listings purportedly to strengthen data security and ordered ride-hailing firm Didi to take down its app just days after its $4.4bn Nasdaq IPO, eventually forcing it to delist from the NYSE. Overseas IPOs screeched to a halt, with amounts raised by Chinese companies from US listings collapsing by 98 per cent from 2021 to 2022. Hong Kong IPOs from mainland-operating companies tumbled by over 70 per cent in the same period.
+But recently China has shown signs of opening up again to foreign capital. In a major concession aimed at avoiding delistings, China agreed last December to allow the US Public Company Accounting Oversight Board “complete access” to the audit papers of US-listed Chinese companies. And now the CSRC has created a road map for listing abroad.
+Under the new rules, non-PRC companies operating primarily in China must file with the CSRC to list offshore. The rules apply to so-called “red chip” offerings in Hong Kong and the “variable interest entities” (VIEs) that have been widely used to list tech companies in the US and Hong Kong. Foreign listings will also need the approval of other supervisory agencies, such as the Cybersecurity Administration of China, especially if they implicate such areas as national security or data management. Companies already listed abroad now have to register with the CSRC, too.
+This marks a change from earlier practice. Before the government froze foreign listings in mid-2021, only PRC-incorporated companies had been required to file with the Chinese regulator CSRC to list overseas (known as “H shares” on the Hong Kong Stock Exchange). If a mainland company created an overseas entity, it was largely free to list abroad without needing to apply for domestic approvals.
+The CSRC announcement now means that Xi Jinping’s China has gone from turning a blind eye to foreign listings to placing them “under his eye”.
+The new regime means stricter scrutiny for bankers as well. Underwriters will now be required to report every year to the CSRC their activities on Chinese overseas listings.
+In sum, there is a path to resume foreign listings. But it’s more arduous than before. No one knows how smoothly the process of securing approvals from different regulatory bodies will operate in practice. Some companies are rumoured to be quietly exploring whether — like fast-fashion retailer Shein — they can move their headquarters and a critical mass of operations to Singapore and thus bypass these rules altogether to list overseas.
+The big news for global investors is that the rules don’t ban offshore listings of so-called variable interest entities. A VIE is an overseas (usually Cayman) holding company that enters into a complex web of contracts with a mainland operating company to replicate the economics of a shareholding. Ever since the Nasdaq IPO of Sina.com in 2000, VIEs have been used by hundreds of Chinese companies to sidestep foreign investment restrictions in sensitive sectors such as ecommerce, media and telecoms. Household Chinese internet firms such as Alibaba, JD.com and Baidu have all gone public via VIEs.
+The legality of VIEs has never been made clear. This strategic ambiguity gives wriggle room for authorities and still allows foreign capital to flow to growth sectors. When regulators started cracking down on tech companies, it reawakened latent fears about their legitimacy.
+No one expected China to invalidate VIEs, but the “existential risk” couldn’t be entirely disregarded. In late 2021 Bloomberg reported that China was planning to ban companies from going public abroad via VIEs, while the SEC started warning that VIE owners could lose everything:
+Further, the Chinese government could determine that the agreements establishing the VIE structure do not comply with Chinese law and regulations, including those related to restrictions on foreign ownership, which could subject a China-based Issuer to penalties, revocation of business and operating licenses, or forfeiture of ownership interests.
+The new package mostly allays these fears. The CSRC says it will support VIE listings if they “stay compliant with local regulations”. VIEs will be allowed to offer shares abroad “under consultation with departments in charge.” That is at least implicit recognition of the VIE structure.
+Nevertheless, authorities could sanction VIE entities in future if they fall afoul of whatever official policy is later interpreted as being. And now that VIEs need approval for the first time, it’s unclear how that process will work in practice. In short, Chinese regulators “can put [VIEs] back down too”.
+Even with the semi-reassurance around legality, Chinese IPOs on offshore exchanges are a hard sell right now. Geopolitical tensions with the US weigh on sentiment, notwithstanding the recent recovery, and the carnage resulting from China’s crackdown on tech companies is still seared into the collective investor memory. Unexplained disappearances of prominent Chinese business figures such as Bao Fan also rattle investor nerves more than they used to.
+The market isn’t closed. But absent a very compelling equity story and valuation, investors may shoot down a Chinese company IPO in New York faster than the Air Force did to a Chinese spy/weather [delete as appropriate] balloon drifting over the US. Overall, it’s not back to business as usual.
+It used to be straightforward to list overseas, but companies and advisers now have to first navigate a route through different Chinese government departments. The bottom line is that China wants its companies to have access to foreign capital, but on its own terms, with strict controls on who raises what and under what conditions.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Craig Coben est un ancien banquier d'investissement senior de Bank of America et maintenant un directeur général de Seda Experts, une entreprise d'experts-témoins spécialisée dans les services financiers. La Commission de réglementation des valeurs mobilières chinoises (CSRC) a récemment annoncé un nouveau package de mesures qui donne aux divers organismes de surveillance du gouvernement la possibilité de décider quelles entreprises peuvent accéder aux marchés étrangers et sous quelles conditions. Les nouvelles règles s'appliquent aux offres "red chip" à Hong Kong et aux entités à intérêt variable (VIE) utilisées pour lister des entreprises de technologie aux États-Unis et à Hong Kong. Les entreprises déjà cotées à l'étranger doivent également s'enregistrer auprès de la CSRC. Auparavant, seules les entreprises établies en RPC étaient tenues de déposer une demande auprès de la CSRC pour des introductions à l'étranger. Les conseillers doivent maintenant naviguer dans différents départements gouvernementaux chinois avant de pouvoir présenter des introductions à l'étranger. La Chine veut donner à ses entreprises un accès au capital étranger, mais selon ses propres termes et avec des contrôles stricts sur qui peut lever des fonds et dans quelles conditions.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La Chine a jeté un oeil aux cotations à l'étranger.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A neglected tool of central banks shows its worth</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>/content/aa991a72-f91b-4eec-bad9-9571360d2a4e</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Money supply numbers have long been an orphan in the tool kit of the big central banks. This is unfortunate because the numbers have been sending important signals before and during the pandemic.
+Economists at the Bank for International Settlements have found a statistically and economically significant correlation across a range of countries between excess money growth in 2020 and average inflation in 2021 and 2020. And you do not have to be an out and out devotee of the quantity theory of money to see that the buoyancy of US house prices and equities last year was substantially about too much money chasing too few assets.
+There is, of course, a reason for this central bankerly neglect of money. In the heyday of monetary targeting in the 1980s central bankers — most notably Paul Volcker at the US Federal Reserve — were remarkably successful in bringing down inflation from record postwar levels after successive oil price shocks, although this came at the cost of savage recessions. Subsequently the link between money supply and inflation weakened.
+This was down to velocity, the measure of how often money changes hands. When this happened at a predictable pace, money and output grew together. At the same time there was a clear relationship between inflation and excess money growth — the difference between money growth and growth in real gross domestic product.
+But as inflation came down in the 1980s and 1990s velocity became highly unstable, in part because of financial innovation and changes in banking regulation. So the link between money supply and nominal GDP broke down and the information content of money supply numbers became a less helpful guide for policy. As trying to fathom the numbers became more complicated monetarism went out of fashion. The exception was when central bankers confronted financial crises, where they reserved the right to turn on the monetary hosepipe.
+Interpreting money numbers was once again conspicuously difficult after the financial crisis of 2007-09. Monetarists warned that the stimulus from the Fed’s asset buying would lead to rapid inflation. Yet velocity dropped sharply and the outcome was a strange combination of asset price inflation and the threat of deflation in prices of goods and services. Why, then, are the figures now telling a clearer story?
+In the recent BIS study, Claudio Borio, Boris Hofmann and Egon Zakrajšek found that the strength of the link between money growth and inflation across a large sample of advanced and emerging market countries depended on whether there was a high inflation regime or a low one. In a high inflation regime the link was one to one; in a low regime it was virtually non-existent.
+The BIS authors point out that the recent flare-up in inflation was preceded by an upsurge in money growth. Countries with stronger money growth saw markedly higher inflation. Yet they caution against assuming causality, arguing that the debate on this has not been fully settled. But, they add, money growth figures can still have useful information content for inflation.
+There are many other reasons why central banks failed to foresee the inflation flare-up. Their economic models often relied heavily on extrapolations of the recent past and assumptions about the economic cycle. Clearly the pandemic and the war in Ukraine were exceptional events that had nothing to do with any cycle.
+At the same time the central banks’ asset purchasing programmes have distorted market expectations. Otmar Issing, former chief economist and board member of the European Central Bank, now at Goethe University in Frankfurt, argues that investors with higher inflation expectations have tended to sell their bonds to central banks at prices they regarded as high. As a result these inflation pessimists have been absent from financial markets, causing the thermometer of inflation expectations to read lower than the actual temperature. A more obvious point is that central bankers badly underestimated the second-round effects of oil and food price hikes in labour and other markets.
+The risk of not looking at money now lies in the other direction. The Fed has been tightening, as have others. Steve Hanke and Caleb Hofmann of Johns Hopkins University say that by December last year the three-month annualised growth rate of broad money (M2) in the US had sunk to a stunning minus 5.4 per cent pushing the year-on-year growth rate into negative territory. One conclusion: the equity market is currently too sanguine about avoiding a recession. Another: time for a rethink about money.
+john.plender@ft.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Le générateur TLDR permet de résumer rapidement des articles de finance en 3 paragraphes de 100 mots. Il est bien connu que les grandes banques centrales ont longtemps été à l'écart des chiffres de l'offre monétaire. Cependant, des économistes de la Banque des Règlements Internationaux ont trouvé une corrélation significative entre l'excès de croissance monétaire en 2020 et l'inflation moyenne en 2021 et 2020. La raison de cet abandon est que la vitesse à laquelle l'argent changeait de mains était imprévisible, ce qui a signifié que le lien entre l'offre monétaire et le PIB nominal s'est effondré. De plus, les banques centrales ont sous-estimé les effets secondaires des hausses des prix des produits alimentaires et du pétrole. Cela signifie qu'il est important que les banques centrales tiennent compte des chiffres de l'offre monétaire pour éviter une récession.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Une outil négligé des banques centrales montre sa valeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The stock market’s $150bn trade in energy-to-waste</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>/content/d4baa456-2ff4-478b-9720-4b4a16891e2f</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What explains the 2023 year-to-date dash for trash? It’s a question we’ve kicked around already on these pixels and the simplest answer — risk-on positioning for the pivot as inflation cools and China reopens — remains the most plausible.
+Here’s a footnote:
+The above chart, from Bank of America, shows record cash returns from European and US oil companies in 2022. European cashbacks were nearly double the 2014 level, when Brent crude last averaged $100 a barrel.
+This is being funded at the expense of capex. Having been seen to panic in the early pandemic with dividend cuts, global oil companies have been leaning aggressively in the other direction:
+A decade ago, balance sheets were destroyed as oilco dividend policies set in boom times were held for too long, in spite of Brent sliding from over $100 to under $30. Lessons have been learned, maybe. This time around, 40 per cent of the European returns have been via one-off buybacks (versus about 5 per cent in 2014):
+So, for example, Shell’s up more than 30 per cent since the end of January 2022 and the company has bought back nearly 10 per cent of its shares:
+BP’s similar, having risen 46 per cent and bought back approximately 8 per cent of its shares:
+Investors approve. The most recent BoA global fund manager survey shows investor appetite for buybacks at a five-year high:
+At risk of inviting a tedious argument about whether and/or when share buybacks can add value, it seems reasonable to imagine that some trash buyers have also been the sellers of oil stocks at their artificially jacked valuations. Selling last year’s consensus-long sector has been a natural pivot trade.
+So, to some unknown and probably immeasurable degree, a $150bn-plus wealth transfer from fuel cost inflation has probably been recycled into 2023’s dreck dash.
+Cash returns might be helping stuff like Tesla to double in the year to date, but is there any lasting consequence to all this capital discipline?
+The companies say no. Goldman Sachs says maybe, with its commodities team noting signs of stress in refined product markets such as physical jet fuel, where shortages last month meant the price per barrel spiked from $100 to nearly $250.
+Consumer oil prices have fallen from last year’s peak by about $60 per barrel in tandem with Brent, as well as on a weakening of record-high refining margins and a softer dollar. But as shown by the tight market for jet fuel, relief will be short-lived as “underinvestment, shale constraints and Opec discipline ensure supply does not meet demand”, Goldman says.
+Tight refining capacity will likely mean gasoline shortages this summer, warns Goldman, which adds “relief is temporary, underinvestment is permanent”:
+© Goldman Sachs
+© Goldman Sachs
+© Goldman Sachs
+But then, who’ll need petrol when we can have perpetual meme-stocks.
+Further reading:
+FT.com/Energy-Source</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Le rush vers les mauvais investissements de l'année 2023 peut s'expliquer par la réduction des risques après le ralentissement de l'inflation et la réouverture de la Chine. Les compagnies pétrolières européennes et américaines ont réalisé des retours en espèces records en 2022 et ont financé leurs dividendes et leurs rachats d'actions à la dépense de leurs capex. Les investisseurs approuvent, ce qui a conduit à une forte demande de rachats d'actions. Cependant, cette discipline de capital peut causer des pénuries de carburant cet été. Les résultats sont temporaires et l'absence d'investissement est permanente, mais qui aura besoin de carburant lorsque nous pourrons avoir des actions permanentes?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le marché boursier d'un commerce de 150 milliards de dollars dans l'énergie à la déchets</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Private equity payouts: higher rates do not halt dividend recapitalisations</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>/content/9ba95459-02e0-43c4-a5a8-90098f6a6ab6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>If a window opens up to make money, expect private equity to breeze in quickly. Reduced nervousness about inflation and a US recession has enabled a credit market thaw in 2023 after a brutal freeze last year. Both high grade and high yield issuers have sold debt, even if the coupons have climbed sharply.
+No matter, private equity groups have taken the opportunity to have their portfolio companies issue leveraged loans. When these proceeds fund cash payments to their owners, this transaction structure is known as a “dividend recapitalisation”. In February, firms such as Cerberus and Dragoneer have benefited from nearly $2bn of total dividend recap volume. These types of payouts disappeared last year, according to figures from Leveraged Commentary and Data.
+Critics of private equity do not like dividend recaps. The deals allow owners to pay themselves early on while re-levering a company, potentially made more susceptible to bankruptcy. Still, investors have willingly supported this structure in bull markets. In 2021, of a total $800bn of leverage loan volume, more than a tenth funded payouts to private equity firms.
+One recent dividend recap involved a telecom equipment maker, SubCom, purchased by Cerberus Capital Management in 2018. The $470mn floating rate loan SubCom issued this month to fund the payout bears an initial interest rate of around 10 per cent. SubCom had already borrowed money in 2021, $730mn, to fund a dividend. Back then, though, interest rates were much lower.
+SubCom is private but those dividend amounts already suggest that Cerberus will profit handsomely on its initial equity outlay. As it still owns SubCom, Cerberus could reap even more cash should it ever sell the company outright.
+Recent US employment and inflation data hint that US rates will not fall soon. As a result credit markets have trembled and debt markets to pay for dividends may clam up again. But for sure nimble private equity owners will be ready sellers of debt for more dividend recaps should opportunities arise.
+If you are a subscriber and would like to receive alerts when Lex articles are published, just click the button “Add to myFT”, which appears at the top of this page above the headline.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Les marchés de la dette ont récemment thawé, ce qui a donné aux groupes de capital-investissement privé l'opportunité d'utiliser des prêts levés pour leur payer des dividendes. En février, des entreprises comme Cerberus et Dragoneer ont bénéficié de près de 2 milliards de dollars de volume total de dividendes. Toutefois, les critiques du capital-investissement privé n'aiment pas cette structure, car elle permet aux propriétaires de se payer avant tout le monde et de rendre la société plus vulnérable à la faillite. La société SubCom, achetée par Cerberus Capital Management en 2018, a récemment émis un prêt flottant pour le paiement d'un dividende à taux d'intérêt initial d'environ 10%. Les données de l'emploi et de l'inflation aux États-Unis suggèrent que les taux ne baisseront pas de sitôt, ce qui pourrait entraîner un nouveau ralentissement des marchés de la dette. Malgré cela, les propriétaires de capital-investissement privé seront prêts à profiter des opportunités qui se présenteront si des dividendes devaient être payés.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les rémunérations du capital-investissement : des taux plus élevés n'arrêtent pas les récapitalisations des dividendes.</t>
         </is>
       </c>
     </row>

--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,466 +498,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Les investisseurs parient que la Banque Centrale Européenne augmentera ses taux d'intérêt à des niveaux record, encouragés par la résistance de l'économie de la zone euro et des signes que l'inflation pourrait être plus difficile à maîtriser que prévu. Les marchés swap anticipent une hausse du taux de dépôt de la BCE à 3,75 % d'ici septembre, contre 2,5 % actuellement. Ceci équivaudrait au pic de 2001, lorsque la BCE était encore en train de soutenir la valeur de l'euro nouvellement lancé. Les marchés ont révisé à la hausse leurs prévisions de taux d'intérêt suite à des données récentes sur l'activité du secteur des services et les salaires. La Banque Centrale Européenne a déclaré qu'elle surveille de près les salaires et les négociations salariales. Les obligations allemandes à deux ans, très sensibles aux changements des prévisions de taux d'intérêt, ont atteint des niveaux records de 2,95 % mardi après que l'indice des directeurs d'achat de S&amp;P Global ait dépassé les prévisions. Les prévisions d'augmentation des taux d'intérêt à long terme dans la zone euro contrastent avec celles des États-Unis et du Royaume-Uni, qui sont considérés comme étant plus proches de la fin de leur cycle de hausse des taux d'intérêt, ayant déjà augmenté les taux d'emprunt plus tôt et davantage que la BCE. Les données économiques encourageantes de ce mois ont amené les économistes et les experts financiers à parier que les taux d'intérêt resteront plus élevés plus longtemps qu'ils ne le pensaient auparavant.</t>
+          <t xml:space="preserve">
+Les investisseurs misent sur une hausse des taux d'intérêt de la Banque centrale européenne (BCE) à des niveaux records, encouragés par la résistance de l'économie de la zone euro et des signes que l'inflation pourrait se révéler plus difficile à maîtriser que prévu. Les marchés des swaps anticipent un bond du taux de dépôt de la BCE à 3,75 % d'ici septembre, contre 2,5 % actuellement, ce qui équivaudrait au pic de 2001 de ce benchmark, lorsque la BCE tentait encore de soutenir la valeur de l'euro tout juste lancé. La présidente de la BCE, Christine Lagarde, a souligné mardi que la banque surveillait « très, très attentivement » les salaires et les salaires négociés, ce qui laisse entendre qu'elle craint une hausse marquée des salaires cette année qui maintiendra la pression sur les prix.
+Les données récentes sur l'activité dynamique des services et les demandes de salaire ont poussé les marchés à réviser à la hausse leurs prévisions des taux d'intérêt. Les perspectives de hausses de taux substantielles supplémentaires dans la zone euro contrastent avec celles des États-Unis et du Royaume-Uni, considérés comme plus proches de la fin de leurs cycles de hausse des taux d'intérêt, ayant déjà augmenté les coûts d'emprunt plus tôt et plus que la BCE. Les marchés boursiers américains ont cependant chuté mardi, les données économiques encourageantes incitant les investisseurs à revoir à la hausse leurs prévisions de la hausse des taux de la Réserve fédérale.
+L'inflation dans la zone euro s'établissait à 8,5 % en janvier, contre 6,4 % aux États-Unis. Goldman Sachs, Barclays et Berenberg ont tous relevé à 3,5 % leurs prévisions de la hausse des taux de la BCE, alors que la Deutsche Bank a relevé la sienne à 3,75 %. La BCE a déjà relevé ses taux d'un record de 3 points de pourcentage depuis l'été dernier et elle a signalé ce mois-ci des plans pour un autre mouvement de demi-point de pourcentage en mars. Les syndicats répondent à l'inflation record de l'année dernière en demandant des augmentations de salaire encore plus élevées.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les investisseurs augmentent leurs paris sur la hausse des taux de la BCE à un niveau record.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Europe and Asia stocks fall further after Wall Street sell-off</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>/content/a03cc685-63be-4c62-8dd6-0c63321d31db</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>European and Asian stocks were hit with further declines on Wednesday after Wall Street suffered its worst day since December, as the prospect of further substantial rises in interest rates from major central banks unnerved investors.
-The recent sell-off has been driven by stronger than expected economic data in the US and Europe, which has cemented expectations that borrowing costs on both sides of the Atlantic will need to rise further — and remain high for longer — to tame inflation. Investors on Wednesday will look towards the release of the minutes of the latest US Federal Reserve meeting, at which the benchmark rate was raised by 0.25 percentage points.
-In Europe on Wednesday, the region-wide Stoxx 600 and France’s CAC 40 fell 0.8 per cent, while Germany’s Dax dropped 0.7 per cent. London’s FTSE 100 dropped 1 per cent.
-“It’s no great surprise” that the strong surveys of business activity in the US and eurozone this week have dented equities, said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics. “We’re in this world where good news is bad news, so strong PMIs have prompted investors to expect a higher peak in interest rates.”
-On Tuesday, the S&amp;P Global Eurozone Composite purchasing managers’ index came in at 52.3, above expectations of 50.7, while the equivalent US index registered a reading of 50.2, an eight-month high that beat market expectations of 47.5.
-US stocks recorded their worst day in two months in the aftermath. Wall Street’s blue-chip S&amp;P 500 index closed down 2 per cent, with pullbacks in every sector, while the tech-focused Nasdaq Composite shed 2.5 per cent. They marked the steepest daily losses for both indices since December 15.
-Futures markets indicated a slowdown in the sell-off at Wednesday’s US market open. Futures tracking the S&amp;P 500 and the tech-heavy Nasdaq were down 0.1 per cent.
-Stephen Innes, managing partner at SPI Asset Management, said the strong data pointed to “considerable momentum behind the growing consensus that the Fed will hold rates higher for longer in a more robust economic environment”.
-In currency markets, the euro was down 0.2 per cent against the dollar on Wednesday, while the dollar index, which measures the greenback against six peer currencies, was up 0.1 per cent.
-Earlier, Asian shares followed Wall Street lower. Japan’s benchmark Topix index fell 1.1 per cent, while China’s CSI 300 index of Shanghai- and Shenzhen-listed stocks fell 0.9 per cent and Australia’s S&amp;P/ASX 200 fell 0.3 per cent on Wednesday.
-In Hong Kong, the benchmark Hang Seng index gained after a sharp early fall to end 0.5 per cent down after the government announced it would give out consumption vouchers worth HK$5,000 (US$640) to all adult residents to support the city’s recovery from an economic slump.
-In sovereign debt markets, yields on benchmark 10-year US Treasuries were down 0.01 percentage points at 3.94 per cent, but they remained near the highest levels since November on expectations that the Fed would be forced to continue raising interest rates.
-Yields on interest rate-sensitive two-year notes fell 0.02 percentage points to 4.68 per cent after touching a three-month high on Tuesday.
-“If you compare sentiment to one month ago, people were expecting the Fed might only have a little room left to hike,” said Dickie Wong, head of research at Kingston Securities. “But now it looks like inflation may not ease up and the Fed will have to raise rates repeatedly.”
-Brent crude fell 1 per cent to $82.17 a barrel, while WTI, the US equivalent, dropped 1.1 per cent to $75.50.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Les marchés boursiers européens et asiatiques ont subi de nouvelles baisses mercredi après que Wall Street ait enregistré sa pire journée depuis décembre, car la perspective d'une hausse supplémentaire considérable des taux d'intérêt des principales banques centrales a mis les investisseurs mal à l'aise. La vente récente a été motivée par des données économiques plus fortes que prévu aux États-Unis et en Europe, ce qui a consacré les attentes selon lesquelles les coûts d'emprunt des deux côtés de l'Atlantique devront augmenter davantage et rester élevés plus longtemps pour maîtriser l'inflation. Les investisseurs se tourneront mercredi vers la publication des minutes de la dernière réunion de la Réserve fédérale américaine, à laquelle le taux de référence a été augmenté de 0,25 point de pourcentage. \
-Dans les marchés des devises, l'euro était en baisse de 0,2% contre le dollar mercredi, tandis que l'indice dollar, qui mesure le dollar américain contre six devises de pairs, était en hausse de 0,1%. Les prix du Brent ont chuté de 1% à 82,17 $ le baril, tandis que le WTI, son équivalent américain, a reculé de 1,1% à 75,50 $. Les investisseurs s'attendent à ce que la Réserve fédérale américaine maintienne les taux d'intérêt plus hauts et plus longtemps, ce qui explique la baisse des actions et des devises.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Les actions européennes et asiatiques s'effondrent encore après la baisse de Wall Street.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chinese lithium prices fall 30% as demand for electric vehicles weakens</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>/content/ab5d74d9-a229-4d7a-8542-74124b782306</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lithium prices in China have slumped by almost a third in the past three months after weaker demand in the world’s largest market for electric vehicles has punctured a two-year rally for the key battery component.
-Prices have dropped 29 per cent from November highs to Rmb425,000 ($61,795) per tonne, according to pricing agency Fastmarkets, driven by concerns over the strength of EV demand in Asia’s largest economy.
-“There has been persistent weakness in China,” said Jordan Roberts, lithium analyst at Fastmarkets. “The market is waiting to see the impact from the reduced new energy vehicle subsidies and is concerned by low household confidence, which is tied to the country’s property crisis.”
-Lithium prices rocketed from mid-2021 as breakneck growth in EV sales prompted a scramble among automakers and battery manufacturers for the metal nicknamed “white gold” for its importance to the clean energy industry. But waning Chinese demand has raised doubts over how tight the lithium market will be this year, dragging down prices elsewhere in the world as well as shares of lithium producers.
-Even so, Chinese lithium prices still remain eight times the level of two years ago and have significantly further to fall before they get close to the cost of production at even the most expensive mines.
-Adding to the bearish sentiment, CATL, the Chinese company that is the world’s largest battery producer, was reported by local media and Reuters last week to have signed battery contracts with Chinese EV manufacturers at discounted prices.
-It reportedly agreed to offer EV batteries based on the production cost of its self-made lithium carbonate capped at Rmb200,000 per tonne together with commitments from its automotive customers to buy 80 per cent of their battery needs from it in a bid to boost market share.
-BTR, CATL’s battery materials supplier that reportedly slashed the prices of key materials at the industry leader’s request, declined to comment.
-The falling lithium prices and bearish CATL reports lopped almost 10 per cent off of the share prices of large lithium miners and processors such as US-based Albemarle and Chile’s SQM on Friday. They fell a further 6.2 per cent and 2.5 per cent respectively on Tuesday.
-Chinese electric car sales suffered a weak start to the year, although lunar new year, when sales tend to dip, fell on January. New energy vehicles, which include fully electric cars and plug-in hybrids, dropped 6.3 per cent to 408,000 units in January compared with the same month in 2021, according to data from the China Passenger Car Association.
-Put together with lower EV sales in Germany and Norway following subsidy cuts, Abhishek Murali, electric vehicles analyst at Rystad, a consultancy, said that “within the automotive industry there is some consensus that the rapid growth observed in 2021 and 2022 may not be seen this year”.
-However, lithium for delivery to the US and Europe has fallen far less, only dropping 10 per cent to $70,500 per tonne over the same period, according to Fastmarkets.
-Mathias Miedreich, chief executive of Umicore, a Belgian battery materials producer and large buyer of lithium, said that the Chinese market had always been relatively separate from the rest of the world.
-“I do not believe there is a structural reason why the lithium price is dropping in China. I think the Chinese lithium market was always a bit decoupled from the rest of the world,” he said, adding that western and Chinese lithium pricing would continue to diverge as supply chains deglobalise.
-Albemarle, the world’s largest lithium producer, has stuck by its bullish view on EV sales and lithium prices, saying last week that China’s EV demand would grow 40 per cent this year over last, equivalent to an increase of 3mn vehicles.
-Recommended
-Batteries
-World’s biggest lithium producer bets on prices staying high despite supply rush
-Kent Masters, chief executive of the North Carolina-based company, said on an earnings call that “as China reopens, we expect moderation in EV demand to be shortlived with medium and long-term demand remaining robust”.
-Scotiabank, which started coverage of the lithium market last month, said the recent sell-off for lithium equities was mostly unjustified because there would not be enough new supply even as lithium demand eased from “super-growth” to “high-growth”.
-“While the year ahead has a slight chance to see temporary softness in lithium spot prices, beyond 2024 we are stumped as to where supply will come from to satisfy demand,” it said.
-Climate Capital
-Where climate change meets business, markets and politics. Explore the FT’s coverage here.
-Are you curious about the FT’s environmental sustainability commitments? Find out more about our science-based targets here</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Les prix du lithium en Chine ont chuté de près de la moitié au cours des trois derniers mois, car la demande plus faible sur le plus grand marché mondial de véhicules électriques a freiné la hausse des prix du composant clé des batteries qui durait depuis deux ans. Les prix ont été poussés à la baisse par des inquiétudes sur la force de la demande des véhicules électriques dans l'économie la plus importante d'Asie. Les prix du lithium avaient explosé à partir de mi-2021, en raison de la croissance rapide des ventes de véhicules électriques, ce qui a entraîné une ruée des constructeurs automobiles et des fabricants de batteries vers le métal surnommé «l'or blanc». Les prix du lithium à l'échelle mondiale ont également chuté, entraînant une baisse des actions des producteurs de lithium. CATL, le plus grand producteur de batteries au monde, a récemment conclu des contrats de batterie avec des constructeurs chinois à des prix réduits, ce qui a contribué à alimenter le sentiment baissier. Albemarle, le plus grand producteur mondial de lithium, a maintenu sa vision haussière sur les ventes de VE et les prix du lithium, déclarant que la demande de VE en Chine augmenterait de 40% cette année par rapport à l'année précédente.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Les prix du lithium chinois chutent de 30% en raison de la faiblesse de la demande pour les véhicules électriques.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>US stocks record worst day in two months on rate rise worries</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>/content/4af75a1f-cdef-487d-88ac-7f2ea108aa0a</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>US stocks recorded their worst day in two months on Tuesday, as investors were unnerved by economic data suggesting interest rates have further to rise after months of increases by the Federal Reserve.
-The blue-chip S&amp;P 500 index ended down 2 per cent, with declines in every sector. The tech-heavy Nasdaq Composite slid 2.5 per cent. Both indices had their steepest daily losses since December 15.
-The Vix index, a measure of stock market volatility and often dubbed Wall Street’s “fear gauge”, rose above 23, its second highest level of the year.
-Markets have wobbled in recent days as investors gird for further interest rate rises from the Fed to combat inflation in the US economy. Yields on benchmark Treasury bonds reached three-month highs on Tuesday.
-“The reason for the sell-off in the stock market is a reassessment of the [US Federal Reserve’s] path and the stark rise in Treasury rates,” said Lou Brien, strategist at DRW Trading. “The move higher in Treasury yields reinforces the Fed being tighter for longer.”
-Benchmark 10-year Treasuries slid, pushing yields up to 3.95 per cent — their highest since early November. Interest rate-sensitive two-year notes yielded 4.73 per cent, approaching levels last hit in November, which were the highest since 2007.
-S&amp;P Global’s US composite purchasing managers’ index registered a reading of 50.2, an eight-month high that beat market expectations of 47.5, according to data released on Tuesday. That was mirrored by other bullish readings in the eurozone earlier in the day. A level above 50 indicates industry growth.
-The data followed strong US payrolls and retail sales figures in recent weeks.
-“Expectations of rate cuts later in the year were never very realistic,” said Michael Metcalfe, head of macro strategy at State Street Global Markets. “There was an assumption that tightening would start to limit growth, and now people seem to have flipped from expecting a recession to a boom in a short period of time, based on a few releases which, granted, all say the same thing.”
-In Europe, the benchmark Stoxx 600 closed down 0.2 per cent and Germany’s Dax shed 0.5 per cent after the S&amp;P surveys for the eurozone also indicated private sector activity in the bloc was better than expected.
-Investors were now more focused on interest rates than the prospect of stronger profits because of robust economic activity, said Neil Birrell, chief investment officer at asset manager Premier Miton. “People thought the end was in sight and there was some certainty, but every time we get a number like [the European PMI] it worries investors.”
-Olli Rehn, a governing council member of the European Central Bank, on Monday said rates would peak during the summer, but that inflation was “excessively high”.
-“With inflation so high, further rate hikes beyond March seem likely, logical and appropriate . . . I assume that we will reach the ‘terminal rate’ in the course of the summer,” he said.
-The yield on the 10-year German Bund rose as much as 0.01 percentage points to 2.56 per cent, closing at its highest point since the eurozone debt crisis in the summer of 2011.
-Brent crude settled 1.2 per cent lower to $83.05 a barrel, while the US equivalent WTI lost 0.2 per cent to $76.16, with both benchmarks falling further after making slight losses last week.
-In Asia, the Hang Seng index fell 1.7 per cent, while China’s CSI 300 gained 0.3 per cent after rising 2.45 per cent on Monday, its best one-day performance since late November. The index has risen 6.6 per cent this year.
-Additional reporting by Jennifer Hughes in New York</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Les marchés boursiers américains ont enregistré leur plus mauvaise journée depuis deux mois mardi, les investisseurs étant inquiets des données économiques indiquant que les taux d'intérêt ont encore à augmenter après des mois d'augmentations de la Réserve fédérale. L'indice S&amp;P 500 a fini en baisse de 2 % avec des baisses dans chaque secteur et le Nasdaq Composite a chuté de 2,5%. Le Vix, un indicateur de la volatilité des marchés boursiers et souvent appelé «jauge de la peur» de Wall Street, a grimpé au-dessus de 23, son deuxième plus haut niveau de l'année. Les marchés ont été perturbés ces derniers jours alors que les investisseurs se préparent à des hausses des taux d'intérêt supplémentaires de la Fed pour lutter contre l'inflation dans l'économie américaine. Les données sur les PMI S&amp;P Global des États-Unis ont enregistré un score de 50,2, le plus haut depuis huit mois, dépassant les attentes des marchés de 47,5, ce qui a été confirmé par d'autres données favorables en zone euro plus tôt dans la journée. Les rendements des bons du Trésor de référence ont atteint des sommets de trois mois mardi. En Europe, l'indice Stoxx 600 a terminé en baisse de 0,2 % et le Dax allemand a perdu 0,5 % après que les enquêtes S&amp;P pour la zone euro aient également indiqué une activité du secteur privé meilleure que prévu. Les rendements des bons du Trésor à 10 ans ont baissé, faisant grimper les rendements à 3,95 %, leur plus haut niveau depuis début novembre. Les obligations à taux d'intérêt à court terme à deux ans ont produit un rendement de 4,73 %, approchant les niveaux atteints en novembre, qui étaient les plus élevés depuis 2007. Les rendements des bons allemands à 10 ans ont grimpé jusqu'à 0,01 point de pourcentage à 2,56 %, leur plus haut niveau depuis la crise de la dette de la zone euro en été 2011. Le brut Brent s'est établi à 1,2 % à 83,05 $ le baril, tandis que le brut WTI aux États-Unis a perdu 0,2 % à 76,16 $, les deux benchmarks ayant encore reculé après des légères pertes la semaine dernière. En Asie, l'indice Hang Seng a chuté de 1,7 %, tandis que le CSI 300 de Chine a progressé de 0,3 % après avoir grimpé de 2,45 % lundi, sa meilleure performance journalière depuis fin novembre. Les marchés boursiers américains et européens sont maintenant plus concentrés sur les taux d'intérêt que sur les perspectives de bénéfices plus forts en raison d'une activité économique robuste. Olli Rehn, membre du conseil de la Banque centrale européenne, a déclaré lundi que les taux atteindraient leur «taux terminal» au cours de l'été et qu'il était «logique et approprié» d'envisager des hausses de taux supplémentaires au-delà de mars, étant donné que l'inflation est «excessivement élevée». Les marchés boursiers américains et européens ont subi une forte volatilité mardi en raison des données économiques, des hausses de taux et de l'inflation. Les investisseurs s'inquiètent des hausses des taux d'intérêt à plus long terme et se demandent si la croissance économique peut résister à la hausse des taux.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Les actions américaines enregistrent leur pire jour en deux mois à cause des inquiétudes liées à l'augmentation des taux.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Vanguard chief defends decision to pull asset manager out of climate alliance</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>/content/9dab65dd-64c8-40c0-ae6e-fac4689dcc77</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The chief executive of Vanguard has defended his decision to pull the world’s second largest asset manager out of an industry-wide alliance to tackle climate change, saying the group’s “voice was being drowned out”.
-In December, Vanguard resigned from the Net Zero Asset Managers initiative, a coalition of 301 asset managers committed to reducing greenhouse gas emissions.
-“We felt that our voice was being drowned out or confused,” said Tim Buckley in an interview with the Financial Times.
-Buckley added that Vanguard’s approach to managing climate change risks, which is focused primarily on company disclosure standards, “has not changed”.
-“We don’t believe that we should dictate company strategy,” he said, in his first public comments about the decision. “It would be hubris to presume that we know the right strategy for the thousands of companies that Vanguard invests with. We just want to make sure that risks are being appropriately disclosed and that every company is playing by the rules.”
-Vanguard has found itself caught between the two sides of the climate change debate.
-The decision to withdraw from the coalition has sparked fury among environmental activists already angered by the Pennsylvania-based asset manager’s refusal to rule out new investments in fossil fuels.
-Campaigners say it should use its influence to press companies to accelerate the decarbonisation of their operations, while US Republican politicians accuse it of failing to support fossil fuel industries.
-Buckley, however, said that Vanguard was “not in the game of politics”. 
-“Politicians and regulators have a central role to play in setting the ground rules to achieve a just transition to a lower carbon economy,” he said, when asked about the increasing politicisation of ESG investing.
-The Vanguard boss also warned investors not to expect superior returns from ploughing money into ESG funds and alternative assets — two of the fastest growing parts of the asset management industry — rather than the index-trackers championed by his firm.
-“We cannot state that [environmental, social and governance] investing is better performance wise than broad index-based investing,” said Buckley. “Our research indicates that ESG investing does not have any advantage over broad-based investing.”
-Vanguard has more than 30mn clients worldwide and has built a business with $7.2tn in assets under management by championing low-cost tracker funds that follow an index such as the S&amp;P 500 or FTSE 100.
-Owned by the investors in its funds, Vanguard does not pay dividends to external shareholders. This structure has helped it become the investment industry’s most aggressive price competitor with continual reductions in its fund fees since it was founded in 1975.
-Assets managed by ESG funds have soared to $2.5tn from just $0.6tn at the start of 2018. But Russia’s invasion of Ukraine has led to significant gains for energy and defence stocks, heralding soul-searching for ESG focused investors in a tough environment for returns.
-Vanguard sells just 28 sustainable funds with global assets of $33.9bn. That is well behind its closest rival BlackRock, which has a far bigger range of 282 sustainable funds with assets of $270bn, according to data provider Morningstar.
-Recommended
-ETF HubLatest news on ETFs
-Vanguard fires fresh salvo in asset management fee war
-The firm offers ESG index funds that exclude certain companies, which “allow investors to express their values and preferences” but this “has to be an individual investor’s choice”, said Buckley.
-Buckley, who started his career at Vanguard in 1991 as a research assistant to its founder Jack Bogle, is also sceptical about the prospects for so-called alternative strategies, such as private equity and private credit. He warned that alternative strategies are “not a panacea to the challenges facing investors”. 
-“Overall portfolio returns are not automatically improved by allocations to private equity or private credit as good manager selection is essential,” he said. “Alternatives might provide a great revenue stream for a fund manager but they might not be a great solution for an investor.” 
-Buckley now wants to drive more price competition into the financial advice industry to lure more clients into Vanguard’s own advisory business, which is growing by 15 to 20 per cent a year. He has set a target of bringing advice to 1mn clients by the end of 2025. The group currently provides advice to about 650,000 retail clients that together account for $350bn in assets.
-Climate Capital
-Where climate change meets business, markets and politics. Explore the FT’s coverage here.
-Are you curious about the FT’s environmental sustainability commitments? Find out more about our science-based targets here</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Le PDG de Vanguard, Tim Buckley, a défendu sa décision de retirer le deuxième plus grand gestionnaire d'actifs du monde d'une alliance industrielle visant à lutter contre le changement climatique, déclarant que la voix de l'entreprise était étouffée. La stratégie de Vanguard pour gérer les risques liés au changement climatique se concentre principalement sur les normes de divulgation des entreprises et "n'a pas changé". Buckley a ajouté que Vanguard n'essaie pas de dicter la stratégie des entreprises et que la présomption qu'ils savent quelle est la bonne stratégie pour les milliers de sociétés qu'ils investissent serait une présomption. Vanguard offre des fonds indices ESG qui excluent certaines entreprises, ce qui permet aux investisseurs d'exprimer leurs valeurs et leurs préférences. Buckley a également averti les investisseurs de ne pas s'attendre à des rendements supérieurs en investissant dans des fonds ESG ou des actifs alternatifs plutôt que dans les index-trackers prônés par sa firme. Il a également averti que les stratégies alternatives ne sont pas une panacée aux défis auxquels les investisseurs sont confrontés.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Le chef de Vanguard défend sa décision de retirer le gestionnaire d'actifs de l'alliance climatique.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Derivatives market still hit by fallout from Ion Markets cyber attack</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>/content/445ec6b7-50b6-4e8d-939b-6c321f4dc4ea</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Business has yet to return to normal in global derivatives trading, three weeks after a cyber attack on Ion Markets, underlining the financial technology group’s significant role in the plumbing of the $1tn market.
-Little-known Ion was targeted by attackers at the end of January, who disabled part of its derivatives systems and forced many trading desks to manually keep track of their data on spreadsheets.
-The Dublin-based company is aiming to restore business as usual and transfer all clients to clean systems this week, according to a person familiar with the matter. Ion declined to comment.
-The disruption has rattled the global futures market, which has relied on automated software produced by companies such as Ion to process trades ever since the boisterous paper-littered trading pits gave way to electronic systems.
-Ion is one of the few companies that handles the complex but critical job of matching and reconciling brokers’ trades.
-The hack has left exchanges and markets regulators unable to compile weekly reports of derivatives trading activity and scrambling for workarounds to log their daily activity in one of the world’s biggest financial markets. There were just over $1tn of equity, commodity and interest rate futures open in December, according to data from the Futures Industry Association.
-“This was a high-profile attack,” said John Rapa, chief executive of derivatives industry consultancy Tellefsen. “This is a large, critical vendor, who many participants in the business use.”
-As Ion rebuilds its software on to new hardware and moves customers to clean systems, the three-week delay has resulted in trading firms and regulators paying greater attention to the risks to daily trading operations of a single point of failure.
-Ion was founded in 1999 and has built an empire by scooping up dozens of specialist trading technology groups through a series of debt-fuelled acquisitions. Its founder and chief executive, Andrea Pignataro, a former bond trader at Salomon Brothers, avoids the spotlight.
-On January 31, Ion confirmed market rumours that it had suffered a cyber attack in a part of its business where futures trades are matched and margin is calculated — the insurance that backs a derivatives trade — according to people familiar with the matter.
-“It’s made things a lot more manual . . . checking everything line by line,” said one person familiar with the situatIon.
-RBC, UBS and Macquarie were among the firms affected, according to people familiar with the matter. RBC declined to comment. UBS and Macquarie did not respond to requests for comment.
-“The impact is huge because the recovery time is usually not quick,” said Martin Greenfield, chief executive of cyber security company Quod Orbis. “In most banking terms that is a complete nightmare scenario,” he said, adding that “the whole supply chain and third-party risk element is quite difficult to be dealt with”.
-The disruption has rippled out to regulators too. The Commodity Futures Trading Commission, the main US derivatives regulator, has been unable to publish its weekly Commitments of Traders report, which shows the contracts that customers have been buying and selling. While it expects to resume on Friday, the report will be three weeks in arrears.
-Atlanta-based Intercontinental Exchange has been unable to produce its weekly report on futures positions, as required by European rules. European exchange operator Euronext has resumed publishing its weekly commodity derivatives report, but it is also in arrears.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Le commerce des produits dérivés mondiaux n'est toujours pas revenu à la normale trois semaines après une cyberattaque contre Ion Markets, soulignant le rôle important de la fintech dans le marché de 1 000 milliards de dollars. Ion, peu connu, a été ciblé par des attaquants à la fin janvier, qui ont désactivé une partie de ses systèmes de dérivés et obligé de nombreux bureaux de trading à suivre manuellement leurs données sur des feuilles de calcul. Ion se donne pour objectif de rétablir le cours normal des affaires et de transférer tous ses clients vers des systèmes propres cette semaine. La perturbation a secoué le marché des futures mondiales, qui s'est depuis longtemps appuyé sur des logiciels automatisés produits par des sociétés comme Ion pour traiter les transactions. Ion est l'un des rares fournisseurs à prendre en charge le travail complexe et critique de mise en correspondance et de rapprochement des transactions des courtiers. La cyberattaque a laissé les bourses et les régulateurs des marchés incapables de compiler des rapports hebdomadaires sur l'activité des dérivés et à la recherche de solutions de rechange pour enregistrer leur activité quotidienne dans l'un des plus grands marchés financiers du monde. La perturbation s'est répercutée sur les régulateurs également. La CFTC, le principal régulateur des dérivés américains, n'a pas pu publier son rapport hebdomadaire sur les engagements des traders, qui montre les contrats que les clients achètent et vendent.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Le marché des dérivés est toujours frappé par les conséquences de l'attaque informatique Ion Markets.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>The other source of US strength</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>/content/e389d08f-c7b5-416f-81b4-ada82d163d09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>This article is an on-site version of our Unhedged newsletter. Sign up here to get the newsletter sent straight to your inbox every weekday
-Good morning. Ethan here; Rob’s away this week.
-By 2022 standards, yesterday would’ve been just another day of bear-market selling. But after a euphoric January, a 2 per cent down day for the S&amp;P 500 feels sombre. The clearest cause is the return of interest rate volatility, as markets start to believe the Federal Reserve really will raise rates to high heaven. The S&amp;P peaked on February 2, a day after the Move index, a measure of rate volatility, bottomed. The Fed is still the biggest story in markets, and it isn’t close. Email me: ethan.wu@ft.com.
-Corporate America is still investing
-Answer this with one word: why has the US economy stayed strong? Our pick would be “consumers”. Buoyed by a structurally tight labour market and a still-intact pandemic savings cushion, consumers, who make up some 70 per cent of nominal gross domestic product, are powering through rate rises.
-But a good runner-up might be “corporations”. Business investment (something like a fifth of GDP) has likewise withstood higher interest rates. In the fourth quarter, S&amp;P 500 companies grew capital expenditure 10 per cent year-on-year after adjusting for inflation, estimates Spencer Hill at Goldman Sachs. The nominal figure is a rollicking 17 per cent. There is talk of a “capex supercycle”.
-The backstory is that companies used the Covid stimulus to tidy up their finances, leaving behind a nice cash pile. Pantheon Macroeconomics puts the leftover cash buffer at about $400bn, compared to the pre-Covid trend. Meanwhile, balance sheets have gotten cleaned up and debt maturities pushed out well into the future. Many think this is blunting the immediate impact of rate increases on businesses.
-Higher rates still do bite, however. As we’ve written before, revenue growth is slowing and margins are compressing. But looking across the universe of US companies, Goldman’s Hill sees most cost cuts coming from a less-discussed source:
-So far, companies appear to be responding to lower margins and higher financing costs by cutting share buybacks — which fell 12 per cent in the [fourth] quarter — as opposed to reducing investment or employment.
-After months of news about job cuts and cost reductions, this explanation feels unintuitive, but it may better match the macro picture of steady capex growth and rock-bottom unemployment.
-Yet unless margin pressure abates, it’s hard to see investment being insulated for ever. If it gets cut, is the economy in trouble?
-The 2015-17 default cycle offers a useful comparison. Driven by a commodity downturn, it’s not a precise analogy (it rarely is). But it is a good example of a non-recessionary contraction in capex. Here’s what business fixed investment did during that period:
-A sector-specific bust created four quarters of contracting investment. But since (real) consumption spending kept chugging along at a 2.8 per cent rate, a recession was avoided.
-Maybe the fact that investment can shrink without causing a recession makes you more willing to believe in a soft landing. Or maybe it makes you think inflation is pretty darn entrenched (we’re sympathetic). The point is that despite real signs of slowdown building on the margins, the Fed faces an economy that isn’t just being pulled along by consumers. At its core, strength abounds.
-Will the Fed stick to 2 per cent?
-A few readers have recently written in to voice their suspicion about the Fed’s commitment to a 2 per cent inflation target — which Unhedged has often taken as a given. They think the US central bank is going to abandon the target the moment it is expedient to do so.
-Markets don’t discount the possibility. The five-year break-even, a proxy for market inflation expectations, sits at 2.6 per cent, compared with a 2003-19 average of 1.8 per cent. Survey measures aren’t much different; the New York Fed’s five-year expected inflation rate is 2.5 per cent.
-This looks consistent with the Fed reaching 3ish per cent inflation and deciding, well, close enough. It’s not hard to see why. As we’ve written before, the first leg of disinflation is probably going to be easier than what comes after. Consider that core inflation has taken a big step down — from a 0.6 per cent monthly pace in mid-2022 to 0.4 per cent in January — with no increase in unemployment. But it may get uglier. In a recent note, Don Rissmiller and Brandon Fontaine at Strategas write:
-Elevated job openings &amp; consumer cash holdings are providing cushions now. But the last -1 per cent reduction in inflation (from 3 per cent [headline consumer price index] to 2 per cent) could be very expensive in terms of job loss. Perhaps a 6-7 per cent unemployment rate is needed (more consistent with historical US recessions).
-As job losses, and political pressure, mount for the Fed, Rissmiller and Fontaine think it will consider lowering the bar:
-Pushing all the way down to a 2 per cent number, which is chosen arbitrarily anyway, may not be credible. Declaring mission accomplished in the neighbourhood of 2 per cent provides the best hope of a “soft-ish” landing for the economy that we see going forward. The Fed declaring victory at 3 per cent, as long as 3 per cent looks anchored, would mean short rates could have a 3-handle in 2024 (as policy moves back towards neutral).
-This account seems plausible enough, especially since prominent voices are already calling for the 2 per cent target to go.
-But it also assumes the Fed knows at what level interest rates become restrictive, and thus has precise control over inflation and unemployment. It seems more likely to us that the Fed is feeling around in the dark. Yes, the central bank can always cut if it goes too far, but easy monetary policy exhibits long and variable lags, too. We would humbly offer up another scenario: by the time the central bank realises it has overtightened, it’s already too late.
-One good read
-Scott Alexander revisits his predictions about 2023, made in 2018.
-Recommended newsletters for you
-Cryptofinance — Scott Chipolina filters out the noise of the global cryptocurrency industry. Sign up here
-Swamp Notes — Expert insight on the intersection of money and power in US politics. Sign up here</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Le marché boursier américain a connu une journée baisse de 2 % hier, ce qui serait considéré comme une journée normale selon les normes de 2022. C'est en grande partie dû à la volatilité des taux d'intérêt, car les marchés commencent à croire que la Réserve fédérale va réellement augmenter les taux. Les entreprises américaines ont investi dans l'économie malgré les taux d'intérêt plus élevés, grâce à une période de chômage structurellement faible et à une épargne pandémique toujours intacte. Les entreprises ont utilisé le stimulus Covid pour nettoyer leurs finances et ont laissé un bon matelas de trésorerie. Cependant, les marges se rétrécissent et les entreprises répondent en réduisant leurs rachats d'actions, plutôt que d'investissement ou d'emploi. La Réserve fédérale peut toujours réduire les taux si elle va trop loin, mais elle risque de se retrouver prise au piège avant de s'en rendre compte. La contraction de l'investissement ne provoquera pas nécessairement une récession, ce qui suggère que l'économie est soutenue par plus que les consommateurs.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-L'autre source de la force des États-Unis</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>China has its eye on overseas listings</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>/content/cba55a82-1809-4266-af54-9c7d621bd21e</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Craig Coben is a former senior investment banker at Bank of America and now a managing director at Seda Experts, an expert witness firm specialising in financial services.
-“Don’t forget it’s me who put you where you are now,” sings Philip Oakey in Human League’s 1981 hit Don’t You Want Me. “And I can put you back down too.”
-The lyrics occurred to me when I read last Friday about the long-awaited new rules issued by the Chinese Security Regulatory Commission. These relate to overseas listings of companies incorporated outside the People’s Republic of China (PRC) but whose main operations are on the mainland.
-Heralded as “reopening the avenue of fundraising after a 20-month obstruction,” the package of measures starkly reminds companies and banks just who the ultimate gatekeeper is. The CSRC announcement gives multiple government watchdogs much leeway to decide which companies can access foreign markets and under what conditions. And it piles on extra procedures and approvals that hadn’t been required before. Unlike China’s December pivot from zero Covid, the CSRC is not letting overseas IPOs “rip” without tight control and surveillance.
-In other words, this is less a U-turn and more a reassertion of state power.
-Until 2021 China had enjoyed an active period of blockbuster IPOs in the US and Hong Kong. In July 2021, however, Chinese authorities clamped down on foreign listings purportedly to strengthen data security and ordered ride-hailing firm Didi to take down its app just days after its $4.4bn Nasdaq IPO, eventually forcing it to delist from the NYSE. Overseas IPOs screeched to a halt, with amounts raised by Chinese companies from US listings collapsing by 98 per cent from 2021 to 2022. Hong Kong IPOs from mainland-operating companies tumbled by over 70 per cent in the same period.
-But recently China has shown signs of opening up again to foreign capital. In a major concession aimed at avoiding delistings, China agreed last December to allow the US Public Company Accounting Oversight Board “complete access” to the audit papers of US-listed Chinese companies. And now the CSRC has created a road map for listing abroad.
-Under the new rules, non-PRC companies operating primarily in China must file with the CSRC to list offshore. The rules apply to so-called “red chip” offerings in Hong Kong and the “variable interest entities” (VIEs) that have been widely used to list tech companies in the US and Hong Kong. Foreign listings will also need the approval of other supervisory agencies, such as the Cybersecurity Administration of China, especially if they implicate such areas as national security or data management. Companies already listed abroad now have to register with the CSRC, too.
-This marks a change from earlier practice. Before the government froze foreign listings in mid-2021, only PRC-incorporated companies had been required to file with the Chinese regulator CSRC to list overseas (known as “H shares” on the Hong Kong Stock Exchange). If a mainland company created an overseas entity, it was largely free to list abroad without needing to apply for domestic approvals.
-The CSRC announcement now means that Xi Jinping’s China has gone from turning a blind eye to foreign listings to placing them “under his eye”.
-The new regime means stricter scrutiny for bankers as well. Underwriters will now be required to report every year to the CSRC their activities on Chinese overseas listings.
-In sum, there is a path to resume foreign listings. But it’s more arduous than before. No one knows how smoothly the process of securing approvals from different regulatory bodies will operate in practice. Some companies are rumoured to be quietly exploring whether — like fast-fashion retailer Shein — they can move their headquarters and a critical mass of operations to Singapore and thus bypass these rules altogether to list overseas.
-The big news for global investors is that the rules don’t ban offshore listings of so-called variable interest entities. A VIE is an overseas (usually Cayman) holding company that enters into a complex web of contracts with a mainland operating company to replicate the economics of a shareholding. Ever since the Nasdaq IPO of Sina.com in 2000, VIEs have been used by hundreds of Chinese companies to sidestep foreign investment restrictions in sensitive sectors such as ecommerce, media and telecoms. Household Chinese internet firms such as Alibaba, JD.com and Baidu have all gone public via VIEs.
-The legality of VIEs has never been made clear. This strategic ambiguity gives wriggle room for authorities and still allows foreign capital to flow to growth sectors. When regulators started cracking down on tech companies, it reawakened latent fears about their legitimacy.
-No one expected China to invalidate VIEs, but the “existential risk” couldn’t be entirely disregarded. In late 2021 Bloomberg reported that China was planning to ban companies from going public abroad via VIEs, while the SEC started warning that VIE owners could lose everything:
-Further, the Chinese government could determine that the agreements establishing the VIE structure do not comply with Chinese law and regulations, including those related to restrictions on foreign ownership, which could subject a China-based Issuer to penalties, revocation of business and operating licenses, or forfeiture of ownership interests.
-The new package mostly allays these fears. The CSRC says it will support VIE listings if they “stay compliant with local regulations”. VIEs will be allowed to offer shares abroad “under consultation with departments in charge.” That is at least implicit recognition of the VIE structure.
-Nevertheless, authorities could sanction VIE entities in future if they fall afoul of whatever official policy is later interpreted as being. And now that VIEs need approval for the first time, it’s unclear how that process will work in practice. In short, Chinese regulators “can put [VIEs] back down too”.
-Even with the semi-reassurance around legality, Chinese IPOs on offshore exchanges are a hard sell right now. Geopolitical tensions with the US weigh on sentiment, notwithstanding the recent recovery, and the carnage resulting from China’s crackdown on tech companies is still seared into the collective investor memory. Unexplained disappearances of prominent Chinese business figures such as Bao Fan also rattle investor nerves more than they used to.
-The market isn’t closed. But absent a very compelling equity story and valuation, investors may shoot down a Chinese company IPO in New York faster than the Air Force did to a Chinese spy/weather [delete as appropriate] balloon drifting over the US. Overall, it’s not back to business as usual.
-It used to be straightforward to list overseas, but companies and advisers now have to first navigate a route through different Chinese government departments. The bottom line is that China wants its companies to have access to foreign capital, but on its own terms, with strict controls on who raises what and under what conditions.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Craig Coben est un ancien banquier d'investissement senior de Bank of America et maintenant un directeur général de Seda Experts, une entreprise d'experts-témoins spécialisée dans les services financiers. La Commission de réglementation des valeurs mobilières chinoises (CSRC) a récemment annoncé un nouveau package de mesures qui donne aux divers organismes de surveillance du gouvernement la possibilité de décider quelles entreprises peuvent accéder aux marchés étrangers et sous quelles conditions. Les nouvelles règles s'appliquent aux offres "red chip" à Hong Kong et aux entités à intérêt variable (VIE) utilisées pour lister des entreprises de technologie aux États-Unis et à Hong Kong. Les entreprises déjà cotées à l'étranger doivent également s'enregistrer auprès de la CSRC. Auparavant, seules les entreprises établies en RPC étaient tenues de déposer une demande auprès de la CSRC pour des introductions à l'étranger. Les conseillers doivent maintenant naviguer dans différents départements gouvernementaux chinois avant de pouvoir présenter des introductions à l'étranger. La Chine veut donner à ses entreprises un accès au capital étranger, mais selon ses propres termes et avec des contrôles stricts sur qui peut lever des fonds et dans quelles conditions.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-La Chine a jeté un oeil aux cotations à l'étranger.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A neglected tool of central banks shows its worth</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>/content/aa991a72-f91b-4eec-bad9-9571360d2a4e</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Money supply numbers have long been an orphan in the tool kit of the big central banks. This is unfortunate because the numbers have been sending important signals before and during the pandemic.
-Economists at the Bank for International Settlements have found a statistically and economically significant correlation across a range of countries between excess money growth in 2020 and average inflation in 2021 and 2020. And you do not have to be an out and out devotee of the quantity theory of money to see that the buoyancy of US house prices and equities last year was substantially about too much money chasing too few assets.
-There is, of course, a reason for this central bankerly neglect of money. In the heyday of monetary targeting in the 1980s central bankers — most notably Paul Volcker at the US Federal Reserve — were remarkably successful in bringing down inflation from record postwar levels after successive oil price shocks, although this came at the cost of savage recessions. Subsequently the link between money supply and inflation weakened.
-This was down to velocity, the measure of how often money changes hands. When this happened at a predictable pace, money and output grew together. At the same time there was a clear relationship between inflation and excess money growth — the difference between money growth and growth in real gross domestic product.
-But as inflation came down in the 1980s and 1990s velocity became highly unstable, in part because of financial innovation and changes in banking regulation. So the link between money supply and nominal GDP broke down and the information content of money supply numbers became a less helpful guide for policy. As trying to fathom the numbers became more complicated monetarism went out of fashion. The exception was when central bankers confronted financial crises, where they reserved the right to turn on the monetary hosepipe.
-Interpreting money numbers was once again conspicuously difficult after the financial crisis of 2007-09. Monetarists warned that the stimulus from the Fed’s asset buying would lead to rapid inflation. Yet velocity dropped sharply and the outcome was a strange combination of asset price inflation and the threat of deflation in prices of goods and services. Why, then, are the figures now telling a clearer story?
-In the recent BIS study, Claudio Borio, Boris Hofmann and Egon Zakrajšek found that the strength of the link between money growth and inflation across a large sample of advanced and emerging market countries depended on whether there was a high inflation regime or a low one. In a high inflation regime the link was one to one; in a low regime it was virtually non-existent.
-The BIS authors point out that the recent flare-up in inflation was preceded by an upsurge in money growth. Countries with stronger money growth saw markedly higher inflation. Yet they caution against assuming causality, arguing that the debate on this has not been fully settled. But, they add, money growth figures can still have useful information content for inflation.
-There are many other reasons why central banks failed to foresee the inflation flare-up. Their economic models often relied heavily on extrapolations of the recent past and assumptions about the economic cycle. Clearly the pandemic and the war in Ukraine were exceptional events that had nothing to do with any cycle.
-At the same time the central banks’ asset purchasing programmes have distorted market expectations. Otmar Issing, former chief economist and board member of the European Central Bank, now at Goethe University in Frankfurt, argues that investors with higher inflation expectations have tended to sell their bonds to central banks at prices they regarded as high. As a result these inflation pessimists have been absent from financial markets, causing the thermometer of inflation expectations to read lower than the actual temperature. A more obvious point is that central bankers badly underestimated the second-round effects of oil and food price hikes in labour and other markets.
-The risk of not looking at money now lies in the other direction. The Fed has been tightening, as have others. Steve Hanke and Caleb Hofmann of Johns Hopkins University say that by December last year the three-month annualised growth rate of broad money (M2) in the US had sunk to a stunning minus 5.4 per cent pushing the year-on-year growth rate into negative territory. One conclusion: the equity market is currently too sanguine about avoiding a recession. Another: time for a rethink about money.
-john.plender@ft.com</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Le générateur TLDR permet de résumer rapidement des articles de finance en 3 paragraphes de 100 mots. Il est bien connu que les grandes banques centrales ont longtemps été à l'écart des chiffres de l'offre monétaire. Cependant, des économistes de la Banque des Règlements Internationaux ont trouvé une corrélation significative entre l'excès de croissance monétaire en 2020 et l'inflation moyenne en 2021 et 2020. La raison de cet abandon est que la vitesse à laquelle l'argent changeait de mains était imprévisible, ce qui a signifié que le lien entre l'offre monétaire et le PIB nominal s'est effondré. De plus, les banques centrales ont sous-estimé les effets secondaires des hausses des prix des produits alimentaires et du pétrole. Cela signifie qu'il est important que les banques centrales tiennent compte des chiffres de l'offre monétaire pour éviter une récession.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Une outil négligé des banques centrales montre sa valeur</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The stock market’s $150bn trade in energy-to-waste</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>/content/d4baa456-2ff4-478b-9720-4b4a16891e2f</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>What explains the 2023 year-to-date dash for trash? It’s a question we’ve kicked around already on these pixels and the simplest answer — risk-on positioning for the pivot as inflation cools and China reopens — remains the most plausible.
-Here’s a footnote:
-The above chart, from Bank of America, shows record cash returns from European and US oil companies in 2022. European cashbacks were nearly double the 2014 level, when Brent crude last averaged $100 a barrel.
-This is being funded at the expense of capex. Having been seen to panic in the early pandemic with dividend cuts, global oil companies have been leaning aggressively in the other direction:
-A decade ago, balance sheets were destroyed as oilco dividend policies set in boom times were held for too long, in spite of Brent sliding from over $100 to under $30. Lessons have been learned, maybe. This time around, 40 per cent of the European returns have been via one-off buybacks (versus about 5 per cent in 2014):
-So, for example, Shell’s up more than 30 per cent since the end of January 2022 and the company has bought back nearly 10 per cent of its shares:
-BP’s similar, having risen 46 per cent and bought back approximately 8 per cent of its shares:
-Investors approve. The most recent BoA global fund manager survey shows investor appetite for buybacks at a five-year high:
-At risk of inviting a tedious argument about whether and/or when share buybacks can add value, it seems reasonable to imagine that some trash buyers have also been the sellers of oil stocks at their artificially jacked valuations. Selling last year’s consensus-long sector has been a natural pivot trade.
-So, to some unknown and probably immeasurable degree, a $150bn-plus wealth transfer from fuel cost inflation has probably been recycled into 2023’s dreck dash.
-Cash returns might be helping stuff like Tesla to double in the year to date, but is there any lasting consequence to all this capital discipline?
-The companies say no. Goldman Sachs says maybe, with its commodities team noting signs of stress in refined product markets such as physical jet fuel, where shortages last month meant the price per barrel spiked from $100 to nearly $250.
-Consumer oil prices have fallen from last year’s peak by about $60 per barrel in tandem with Brent, as well as on a weakening of record-high refining margins and a softer dollar. But as shown by the tight market for jet fuel, relief will be short-lived as “underinvestment, shale constraints and Opec discipline ensure supply does not meet demand”, Goldman says.
-Tight refining capacity will likely mean gasoline shortages this summer, warns Goldman, which adds “relief is temporary, underinvestment is permanent”:
-© Goldman Sachs
-© Goldman Sachs
-© Goldman Sachs
-But then, who’ll need petrol when we can have perpetual meme-stocks.
-Further reading:
-FT.com/Energy-Source</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Le rush vers les mauvais investissements de l'année 2023 peut s'expliquer par la réduction des risques après le ralentissement de l'inflation et la réouverture de la Chine. Les compagnies pétrolières européennes et américaines ont réalisé des retours en espèces records en 2022 et ont financé leurs dividendes et leurs rachats d'actions à la dépense de leurs capex. Les investisseurs approuvent, ce qui a conduit à une forte demande de rachats d'actions. Cependant, cette discipline de capital peut causer des pénuries de carburant cet été. Les résultats sont temporaires et l'absence d'investissement est permanente, mais qui aura besoin de carburant lorsque nous pourrons avoir des actions permanentes?</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Le marché boursier d'un commerce de 150 milliards de dollars dans l'énergie à la déchets</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Private equity payouts: higher rates do not halt dividend recapitalisations</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>/content/9ba95459-02e0-43c4-a5a8-90098f6a6ab6</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>If a window opens up to make money, expect private equity to breeze in quickly. Reduced nervousness about inflation and a US recession has enabled a credit market thaw in 2023 after a brutal freeze last year. Both high grade and high yield issuers have sold debt, even if the coupons have climbed sharply.
-No matter, private equity groups have taken the opportunity to have their portfolio companies issue leveraged loans. When these proceeds fund cash payments to their owners, this transaction structure is known as a “dividend recapitalisation”. In February, firms such as Cerberus and Dragoneer have benefited from nearly $2bn of total dividend recap volume. These types of payouts disappeared last year, according to figures from Leveraged Commentary and Data.
-Critics of private equity do not like dividend recaps. The deals allow owners to pay themselves early on while re-levering a company, potentially made more susceptible to bankruptcy. Still, investors have willingly supported this structure in bull markets. In 2021, of a total $800bn of leverage loan volume, more than a tenth funded payouts to private equity firms.
-One recent dividend recap involved a telecom equipment maker, SubCom, purchased by Cerberus Capital Management in 2018. The $470mn floating rate loan SubCom issued this month to fund the payout bears an initial interest rate of around 10 per cent. SubCom had already borrowed money in 2021, $730mn, to fund a dividend. Back then, though, interest rates were much lower.
-SubCom is private but those dividend amounts already suggest that Cerberus will profit handsomely on its initial equity outlay. As it still owns SubCom, Cerberus could reap even more cash should it ever sell the company outright.
-Recent US employment and inflation data hint that US rates will not fall soon. As a result credit markets have trembled and debt markets to pay for dividends may clam up again. But for sure nimble private equity owners will be ready sellers of debt for more dividend recaps should opportunities arise.
-If you are a subscriber and would like to receive alerts when Lex articles are published, just click the button “Add to myFT”, which appears at the top of this page above the headline.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Les marchés de la dette ont récemment thawé, ce qui a donné aux groupes de capital-investissement privé l'opportunité d'utiliser des prêts levés pour leur payer des dividendes. En février, des entreprises comme Cerberus et Dragoneer ont bénéficié de près de 2 milliards de dollars de volume total de dividendes. Toutefois, les critiques du capital-investissement privé n'aiment pas cette structure, car elle permet aux propriétaires de se payer avant tout le monde et de rendre la société plus vulnérable à la faillite. La société SubCom, achetée par Cerberus Capital Management en 2018, a récemment émis un prêt flottant pour le paiement d'un dividende à taux d'intérêt initial d'environ 10%. Les données de l'emploi et de l'inflation aux États-Unis suggèrent que les taux ne baisseront pas de sitôt, ce qui pourrait entraîner un nouveau ralentissement des marchés de la dette. Malgré cela, les propriétaires de capital-investissement privé seront prêts à profiter des opportunités qui se présenteront si des dividendes devaient être payés.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les rémunérations du capital-investissement : des taux plus élevés n'arrêtent pas les récapitalisations des dividendes.</t>
+Les investisseurs augmentent leurs paris sur une hausse des taux de la BCE à un niveau record.</t>
         </is>
       </c>
     </row>

--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,15 +463,208 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Wall Street set to lose out as China secures grip on IPO pipeline</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>/content/6cbfccb3-4241-4a04-9b04-dd48b4f3662e</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>China has secured its grip on proposed offshore listings with new rules that bankers and lawyers say will favour Hong Kong and domestic Chinese markets over Wall Street.
+The rules, which come into effect at the end of March, come nearly two years after Beijing slammed the brakes on lucrative initial public offerings in Hong Kong, New York and other offshore jurisdictions as part of a sweeping regulatory crackdown.
+“We might see some recovery in US IPOs from Chinese companies, but it’s hard to envision flows returning to their prime,” said Zhan Kai, a Shanghai-based senior counsel at Chinese law firm Yuanda. “The US capital market is irreplaceable in a way, but many Chinese companies haven’t fully healed from the trauma of geopolitical conflicts between China and the US.”
+The cost of that lost business is likely to be measured in billions of dollars. For the two years before the crackdown, foreign listings by fast-growing Chinese technology companies raised more than $40bn each year, delivering annual fees of more than $1bn to investment banks, including Goldman Sachs and Morgan Stanley.
+That all changed when ride-hailing group Didi Chuxing pushed ahead with a New York share sale in June 2021 despite Chinese regulators’ national security concerns. Days later, Beijing launched a crackdown on the tech sector that effectively halted all but a handful of offshore listings pending the publication of revamped regulations.
+Almost 90 per cent of the $76bn brought in by Chinese IPOs last year was raised in Shanghai and Shenzhen, with Hong Kong accounting for almost all the remainder.
+The new rules, published by the China Securities Regulatory Commission on Friday, provide the first unified regime for vetting and keeping tabs on companies that float abroad.
+Before the crackdown, Chinese issuers could simply set up an offshore structure known as a variable interest entity to sell shares offshore. This allowed them to avoid the lengthy vetting process for onshore IPOs and skirt restrictions on foreign investment in certain sectors.
+The new regime codifies the VIE structure, which now requires approval from the commission and other relevant regulators before the IPO process can begin.
+Jason Elder, a partner at law firm Mayer Brown in Hong Kong, said the new regulations were “expected to have a positive impact” on the pace of offshore IPOs and “should streamline the path to listing for PRC-based companies and provide greater certainty for companies considering an offshore listing”.
+But bankers said companies were still wary of testing just how safe it would be to sell shares abroad, especially in New York.
+“Everybody is still in wait-and-see mode when it comes to applying for a US listing,” said one IPO banker at a state brokerage in Beijing. “These are new rules, and people still need to wait for the reshuffle of personnel at financial regulators.”
+This is likely to happen after the annual meeting of China’s rubber-stamp legislature, which is scheduled to begin next month, he added.
+The shadow cast by US-China tensions — heightened most recently by China’s ties to Moscow and Washington accusing Beijing of flying a spy balloon over the US — also remains prominent for issuers. This is despite Beijing and Washington last year taking a major step towards resolving a stand-off over access to audit papers for Chinese companies listed on Wall Street.
+A senior executive at one freight logistics services provider in China planning to go public this year told the Financial Times that even with the new offshore listings regime in place, the group would “only consider Hong Kong and mainland listings” in order to avoid geopolitical risks.
+It might also be difficult to get large and more lucrative listings across the finish line, international asset managers said, because investor demand for Chinese equities had not fully recovered.
+“We haven’t seen big global institutional funds reassert their appetite for China investments yet, and that’s the exact type of investor you need for a large-scale IPO offshore,” said the head of institutional sales in Asia for one western asset manager. “Certainly appetite is recovering somewhat, but people are still very wary.”
+Chinese authorities have taken pains to indicate the long crackdown on tech groups is over, and in its announcement on Friday the commission said it “will support companies making use of both [onshore and offshore] markets . . . and unswervingly share the benefits of China’s economic growth with global investors”.
+Yet investors and analysts have been alarmed by the recent disappearance of Bao Fan, the head of investment bank China Renaissance, which served as a bookrunner on many offshore listings — including the ill-fated Didi Chuxing float.
+Andrew Collier, China country analyst at GlobalSource Partners, a consultancy, said the “Bao Fan [disappearance] shows this crackdown is not over”.
+Recommended
+Technology sector
+Dollar funding for Chinese start-ups dries up
+Bankers believe offshore listings by Chinese companies will probably concentrate in Hong Kong, where perceived risk from regulators in both the US and China is lower. That would deliver a welcome boost for the city’s stock exchange, which on Thursday reported annual equity fundraising had dropped by more than two-thirds in 2022 to just HK$254bn ($32bn).
+“Hong Kong is desperate for that business to come back,” said Fraser Howie, an independent expert on Chinese finance. “The fact it’s outside the [capital controls] gives it a huge advantage that no other city in China has . . . Hong Kong is in that sense a natural favourite, even if I don’t see it going back to the golden days.”
+“The US is definitely a no-go now and that will favour Hong Kong for sure,” said Federico Bazzoni, chief executive of investment banking at Vantage Capital Markets. But he added that reforms to streamline China’s onshore listings architecture, announced alongside the new offshore listings regime, could incentivise more issuers to choose a listing in the mainland over Hong Kong.
+“The real winner in all of this could be the A-share market in China,” Bazzoni said, referring to shares that trade domestically in Shanghai and Shenzhen.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les nouvelles règles de la Chine pour les offres publiques à l'étranger auront un impact positif sur le rythme des IPO à l'étranger, mais les entreprises chinoises sont encore prudentes à l'idée de tester la sécurité des ventes de parts à l'étranger, en particulier à Wall Street. De plus, les tensions entre la Chine et les États-Unis, ainsi que les contrôles des capitaux, font que Hong Kong est le favori pour les IPO à l'étranger. La Bourse de Hong Kong est désespérée de voir le business revenir, et les réformes pour faciliter les offres publiques à l'intérieur du pays pourraient inciter les entreprises à choisir une cotation en Chine plutôt qu'à Hong Kong.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Wall Street est sur le point de perdre sa prise sur le pipeline des introductions en bourse alors que la Chine s'assure une emprise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Defence industry shares soar on western backing for Ukraine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>/content/3723977b-c256-432b-a2bb-b4ff901858f7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Shares in defence companies have surged in recent months, eclipsing gains for wider stock markets, as investors bet on the promises of increased military spending by western governments to help Ukraine’s war effort against Russia.
+An MSCI global benchmark for the sector is up almost 30 per cent in dollar terms since the start of October, 15 percentage points more than the broader gauge of worldwide equities. Europe’s Stoxx aerospace and defence index has risen just over a third over the same period. 
+The gains reflect a growing conviction among investors that the conflict is unlikely to end quickly. A rally ahead of Vladimir Putin’s invasion of Ukraine last February had fizzled out in the early months of the war.
+“In the autumn there was a realisation that the war would take longer, that more ammunition would be needed,” said Sven Weier, an analyst at Swiss bank UBS. 
+US group Raytheon rose 21 per cent from the start of January until mid-April 2022 but gave up those gains over the next five months. Its shares have since risen 23 per cent. After surging ahead of the invasion and into March, shares in the UK’s BAE Systems fell 5 per cent in the months to November but have since also risen by just over a quarter.
+Following the rally in the final quarter, “we reckon that 2022 was the best year of defence stocks over the last 40 years”, said Robert Stallard, analyst at Vertical Research Partners, in a note on the sector. 
+US president Joe Biden underlined his support for Ukraine this week with a surprise visit to Kyiv. “The defence of freedom is not the work of a day or a year,” he said.
+Defence contractors are now waiting for governments to follow through and place new orders.
+The biggest investors in European defence stocks with exposure to events in Ukraine are mostly US companies. Eight of Rheinmetall’s top 10 shareholders are based in the US, as are seven of Italian defence group Leonardo’s and eight of BAE’s.
+European investors with a greater focus on environmental, social and governance issues were more lukewarm, Weier said. “Before the war, you could sense how people were disengaging because of ESG. Long-only European investors were saying defence was a non-starter. I do not sense that there has been a tremendous change there.”
+Some analysts said the defence sector’s strong performance over the past year was unlikely to be repeated, however. Stallard predicted that the coming 12 months would be a “tougher slog for the defence sector” given that “much of the good news is already baked into defence stocks”.
+“If the broader global economic outlook becomes less bad” then investors may turn their attention to sectors better positioned to benefit from the upturn, he added.
+Byron Callan, managing director of research group Capital Alpha Partners, said he expected the sector to come up against headwinds this year, including continuing constraints on their ability to source enough skilled workers and raw materials. 
+Many companies have warned that supply chain problems are hampering efforts to increase production. In the US, a brewing battle over the national debt ceiling could undermine defence spending, added Callan.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les actions des entreprises de défense ont connu une forte hausse ces derniers mois, dépassant les gains des marchés boursiers plus larges, alors que les investisseurs parient sur la promesse d'une augmentation des dépenses militaires des gouvernements occidentaux pour aider l'Ukraine dans sa guerre contre la Russie. Un indice MSCI global de la secteur a augmenté de près de 30 % en termes de dollars depuis le début d'octobre, soit 15 points de pourcentage de plus que la mesure plus large des actions mondiales. L'indice Stoxx européen de l'aérospatiale et de la défense a augmenté un peu plus d'un tiers sur la même période.
+Les gains reflètent une conviction croissante chez les investisseurs que le conflit ne se terminera pas rapidement. Une hausse avant l'invasion de Vladimir Poutine en Ukraine en février s'est effritée dans les premiers mois de la guerre. Les principaux investisseurs en actions européennes de défense exposés aux événements en Ukraine sont principalement des entreprises américaines. Le président américain Joe Biden a souligné cette semaine son soutien à l'Ukraine avec une visite surprise à Kyiv. Les entrepreneurs de la défense attendent maintenant que les gouvernements passent à l'action et passent de nouvelles commandes.
+Certains analystes ont cependant déclaré que les performances solides du secteur de la défense cette année étaient peu probables à être répétées. Les investisseurs pourraient se tourner vers des secteurs mieux positionnés pour bénéficier de la reprise, a-t-il ajouté. Byron Callan, directeur général du groupe de recherche Capital Alpha Partners, a déclaré qu'il s'attendait à ce que le secteur fasse face à des vents contraires cette année, notamment des contraintes persistantes sur leur capacité à trouver suffisamment de main-d'œuvre et de matières premières qualifiées.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Les actions de l'industrie de la défense montent en flèche avec le soutien de l'Ouest en faveur de l'Ukraine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Developing countries’ debts mount as pandemic and strong dollar hit finances </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>/content/107cd26b-7fb0-4ff6-b698-350b8d3bee7a</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Developing countries’ stockpile of debt hit a fresh record high last year, the Institute of International Finance said on Wednesday, adding to concerns of a wave of sovereign defaults this year.
+The combined government, household, corporate and financial sector debts of 30 large low and middle-income countries rose to $98tn at the end of December, as their currencies slumped against the dollar.
+The debt burden for the 30 countries was up from $96tn a year earlier and from $75tn in 2019, before the pandemic began, the IIF, a trade body for the global banking industry, said in the latest edition of its quarterly Global Debt Monitor.
+Government debts alone hit almost 65 per cent of gross domestic product by the end of 2022 — an increase of 10 percentage points over pre-pandemic levels and the highest-ever year-end total.
+The dollar soared against most emerging market and advanced economy currencies over the course of 2022, raising the cost of meeting existing debt obligations — many of which are denominated in the US currency.
+The dollar’s rise followed the US Federal Reserve’s aggressive interest rate increases to combat high inflation, which had a knock-on impact on global borrowing costs.
+The US currency has weakened since the autumn. However, Ed Parker, head of sovereign research at Fitch, the credit rating agency, on Wednesday warned 2023 would be “another challenging year” as the dollar remained strong by historical standards.
+Debts and deficits would “remain well above pre-Covid levels”, he said during an event organised by the IIF.
+Pakistan and Egypt — both included in the list of 30 — are among the countries considered at high risk of default. Both countries sharply devalued their currencies against the dollar in January, partly in an attempt to unlock emergency funding from the IMF.
+The strength of the dollar against most emerging market currencies last year led investors to dump emerging market stocks and bonds. This trend went into reverse last October after the dollar weakened. However, recent data on the US economy suggesting inflation and interest rates may remain high for longer than expected has led to a fresh bout of dollar strength.
+Emre Tiftik, an IIF economist, said the dollar’s strength had left low-income countries facing extra funding costs as many relied heavily on dollar-denominated funding to secure interest from global investors.
+Sri Lanka and Ghana both defaulted on external debts in 2022, following Zambia in 2020. The ratio of debt service costs to government revenues had risen to “exceptional levels”, Parker said.
+In advanced economies, total debt declined almost $6tn to just under $201tn, leaving the total global debt burden down slightly, from $303tn at the end of 2021, to below $300tn at the end of last year.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les pays en développement ont vu leur dette monter à un niveau record en 2022, selon l'Institut de financement international. La dette combinée des 30 grands pays à faible et à moyen revenu a atteint 98 000 milliards de dollars à la fin de l'année, en raison d'une faiblesse des devises par rapport au dollar. La dette des 30 pays a augmenté de 10 points de pourcentage par rapport aux niveaux pré-pandémiques et a atteint près de 65% du produit intérieur brut à la fin de 2022. La hausse du dollar contre la plupart des devises des pays émergents et avancés a augmenté le coût des obligations de dette existantes, dont beaucoup sont libellées en dollars.
+Le Pakistan et l'Égypte, qui font partie des 30 pays, sont considérés comme à haut risque de défaut. Les deux pays ont fortement dévalué leurs devises par rapport au dollar en janvier, en partie dans le but de débloquer des fonds d'urgence du FMI. La force du dollar contre la plupart des devises des pays émergents a entraîné un mouvement de vente de titres et d'obligations émergentes. Cependant, des données récentes sur l'économie américaine suggérant que l'inflation et les taux d'intérêt pourraient rester élevés plus longtemps que prévu ont entraîné une nouvelle vague de force du dollar.
+En ce qui concerne les pays avancés, la dette totale a diminué de presque 6 000 milliards de dollars à juste sous 201 000 milliards de dollars, ce qui a fait baisser le fardeau de la dette mondiale, passant de 303 000 milliards de dollars à la fin de 2021 à moins de 300 000 milliards de dollars à la fin de 2022. Les Sri Lanka et Ghana ont défauté sur leurs dettes extérieures en 2022, à la suite de la Zambie en 2020. Le ratio des coûts de service de la dette par rapport aux recettes du gouvernement était à des niveaux «exceptionnels», a déclaré Parker.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les dettes des pays en développement s'accumulent alors que la pandémie et le dollar fort frappent les finances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Europe’s energy war with Russia is not over, warns IEA chief</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>/content/a3649a57-122b-4418-a44e-f306c194ad74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The head of the International Energy Agency has warned that Europe has not yet won its energy war with Russia despite a big drop in gas prices, as he urged governments to remain focused on conserving and boosting supplies.
+Fatih Birol said that while the EU had largely avoided a full-blown energy crisis following Russia’s weaponisation of gas supplies, which had once sparked fears of widespread shortages and blackouts, next winter could prove a greater challenge if the continent suffered colder weather.
+“Russia played the energy card and it did not win . . . but it would be too strong to say that Europe has won the energy battle already,” Birol told the Financial Times.
+“I think Europe did a good job, [its strategy has] been a big success. But being overconfident for next winter is risky and it is time to continue and step up efforts for 2023.”
+European natural gas prices have fallen as much as 85 per cent since peaking above €300 per megawatt hour in August, as efforts to procure alternative sources, conservation of existing supplies and warmer weather have left ample gas in storage as the end of winter nears.
+That has led some industry figures to declare that Moscow has already lost the energy war it unleashed to try and weaken western support for Ukraine, as the first anniversary of Russia’s full-scale invasion approaches on February 24.
+Birol said that while Europe had “moved mountains” to ensure it could replace Russian energy and had cut Moscow’s revenues with retaliatory oil sanctions, it could not afford to lose focus on conservation or developing renewable energy sources.
+“Some of the achievements made on clean energy and reducing Russia’s revenues are good but it is not a permanent solution. We have had the help of mild weather. We gained some time, which is vital, but there is much more to do.”
+European Commission president Ursula von der Leyen, left, and Fatih Birol in Brussels on Wednesday © Olivier Hoslet/EPA-EFE/Shutterstock
+Birol has warned that Russia could cut the remaining 20 per cent of prewar gas supplies it still sends to Europe through pipelines via Ukraine and Turkey, while competition for seaborne liquefied natural gas supplies is likely to increase as China’s economy continues to reopen.
+That would make refilling European storage facilities over the summer months more challenging and test the continent’s ability to avoid shortages should next winter prove to be particularly cold.
+Birol warned in November that a cold winter could leave Europe struggling to refill its gas storage sites to even 65 per cent of capacity by October 2023. But as of Monday Europe’s gas storage levels were already at 64 per cent of capacity, far higher than usual for the time of year.
+Despite some European countries increasing their use of highly polluting coal for power generation — to conserve gas for heating and industry — EU emissions fell 2.5 per cent in 2022 because of lower gas usage and the warm start to winter, the IEA chief said.
+Birol has been pushing for a longer-term transformation that not only adds renewable energy sources but also ensures a larger proportion of wind turbines or batteries is manufactured in Europe. He has met European Commission president Ursula von der Leyen twice in the past week, arguing that the EU needs to ensure it never becomes too reliant on any one country for its energy supplies — or supply chains — again.
+“We are entering a new industrial age of clean energy technology manufacturing,” he said. “The two powers [in clean energy manufacturing] are China and the US — relying on one single country is always a bad idea. So if we want diversification Europe is a good candidate.”
+Recommended
+LexRenewable energy
+EU energy: strict rules on green hydrogen hurt nascent industry Premium
+ content
+European gas prices were still two to three times higher than before Russia’s supply cuts, leaving European industry at a disadvantage.
+“The European economy is still on its feet — it didn’t see a major economic recession even if they definitely took a big hit,” Birol said.
+“But prices are still seven times higher than in the US; electricity prices are three times higher than in China,” he added. “The lasting solution to energy security should be based on clean energy.”</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Le chef de l'Agence internationale de l'énergie a averti que l'Europe n'avait pas encore remporté sa guerre énergétique contre la Russie malgré une forte baisse des prix du gaz, et a exhorté les gouvernements à se concentrer sur la conservation et l'augmentation des approvisionnements. Fatih Birol a déclaré que, bien que l'UE ait évité une crise énergétique totale après la mise en œuvre par la Russie des armes, des pénuries et des coupures de courant généralisées, l'hiver prochain pourrait constituer un plus grand défi si le continent subissait des conditions météorologiques plus froides.
+Les prix européens du gaz naturel ont chuté de 85% depuis leur plus haut de 300 euros par mégawattheure en août, grâce aux efforts pour trouver des sources alternatives, à la conservation des approvisionnements existants et à la météo plus douce, ce qui a laissé un excédent de gaz en stock à l'approche de la fin de l'hiver. Cela a conduit certains acteurs de l'industrie à déclarer que Moscou avait déjà perdu la guerre énergétique qu'elle avait déclenchée pour essayer de réduire le soutien occidental à l'Ukraine, à l'approche du premier anniversaire de l'invasion à grande échelle de la Russie le 24 février.
+Birol a déclaré que, bien que l'Europe ait « bougé des montagnes » pour s'assurer qu'elle pouvait remplacer l'énergie russe et ait réduit les recettes de Moscou avec des sanctions pétrolières, elle ne pouvait pas se permettre de perdre de vue la conservation ou le développement de sources d'énergie renouvelables. Il a averti que la Russie pourrait couper les 20% restants des approvisionnements de gaz précédents qu'elle envoie encore en Europe par pipelines via l'Ukraine et la Turquie, tandis que la concurrence pour les approvisionnements en gaz naturel liquéfié par mer augmentera probablement à mesure que l'économie chinoise continuera à se réouvrir.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le chef de l'AIE met en garde : la guerre énergétique de l'Europe contre la Russie n'est pas terminée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Investors increase bets on ECB lifting rates to all-time high</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>/content/fba2101e-aa62-4f73-ad8a-958e442234a9</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Investors are betting the European Central Bank will raise interest rates to all-time highs, spurred on by the eurozone economy’s resilience and signs that inflation could prove tougher to rein in than expected.
 The Frankfurt-based central bank, widely seen as one of the world’s most dovish during its eight-year experiment with negative borrowing costs, is now expected to raise rates substantially this year.
@@ -496,18 +689,174 @@
 “There has been a repricing in major developed rates markets,” said Silvia Ardagna, an economist at UK bank Barclays. “The fact that US core inflation was a bit stronger than expected last month has made everyone think that maybe it hasn’t peaked yet.”</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les investisseurs misent sur une hausse des taux d'intérêt de la Banque centrale européenne (BCE) à des niveaux records, encouragés par la résistance de l'économie de la zone euro et des signes que l'inflation pourrait se révéler plus difficile à maîtriser que prévu. Les marchés des swaps anticipent un bond du taux de dépôt de la BCE à 3,75 % d'ici septembre, contre 2,5 % actuellement, ce qui équivaudrait au pic de 2001 de ce benchmark, lorsque la BCE tentait encore de soutenir la valeur de l'euro tout juste lancé. La présidente de la BCE, Christine Lagarde, a souligné mardi que la banque surveillait « très, très attentivement » les salaires et les salaires négociés, ce qui laisse entendre qu'elle craint une hausse marquée des salaires cette année qui maintiendra la pression sur les prix.
-Les données récentes sur l'activité dynamique des services et les demandes de salaire ont poussé les marchés à réviser à la hausse leurs prévisions des taux d'intérêt. Les perspectives de hausses de taux substantielles supplémentaires dans la zone euro contrastent avec celles des États-Unis et du Royaume-Uni, considérés comme plus proches de la fin de leurs cycles de hausse des taux d'intérêt, ayant déjà augmenté les coûts d'emprunt plus tôt et plus que la BCE. Les marchés boursiers américains ont cependant chuté mardi, les données économiques encourageantes incitant les investisseurs à revoir à la hausse leurs prévisions de la hausse des taux de la Réserve fédérale.
-L'inflation dans la zone euro s'établissait à 8,5 % en janvier, contre 6,4 % aux États-Unis. Goldman Sachs, Barclays et Berenberg ont tous relevé à 3,5 % leurs prévisions de la hausse des taux de la BCE, alors que la Deutsche Bank a relevé la sienne à 3,75 %. La BCE a déjà relevé ses taux d'un record de 3 points de pourcentage depuis l'été dernier et elle a signalé ce mois-ci des plans pour un autre mouvement de demi-point de pourcentage en mars. Les syndicats répondent à l'inflation record de l'année dernière en demandant des augmentations de salaire encore plus élevées.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les investisseurs augmentent leurs paris sur une hausse des taux de la BCE à un niveau record.</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les investisseurs parient que la Banque centrale européenne (BCE) va relever ses taux d'intérêt à des niveaux records, stimulée par la résistance de l'économie de la zone euro et des signes que l'inflation pourrait s'avérer plus difficile à maîtriser que prévu. Les marchés swaps anticipent un bond du taux de dépôt de la BCE à 3,75 % en septembre, contre 2,5 % actuellement. Cela équivaudrait au record de 2001, lorsque la BCE cherchait encore à soutenir la valeur de l'euro nouvellement lancé.
+Les données économiques récentes sur l'activité des secteurs des services dynamique et les demandes salariales ont fait remonter les prévisions des taux d'intérêt. La présidente de la BCE, Christine Lagarde, a déclaré mardi qu'elle « surveillait très étroitement les salaires et les salaires négociés », ce qui indique son inquiétude face à une forte augmentation des salaires cette année, qui pourrait maintenir la pression sur les prix lorsque les entreprises répercutent leurs coûts sur les consommateurs.
+Les marchés boursiers américains ont chuté mardi, car les données économiques optimistes ont incité les investisseurs à réévaluer la hausse des taux que la Réserve fédérale pourrait encore imposer. L'inflation dans la zone euro étant plus élevée que dans d'autres pays développés, des analystes tels que Goldman Sachs, Barclays et Berenberg ont relevé leurs prévisions des taux de la BCE à 3,5 %. La banque Deutsche a relevé sa prévision à 3,75 %. La BCE ayant déjà relevé ses taux de 3 points de pourcentage depuis l'été dernier, elle a indiqué ce mois-ci son intention d'effectuer une hausse supplémentaire d'un demi-point de pourcentage en mars.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les investisseurs augmentent leurs paris sur la hausse des taux de la BCE à un niveau record.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>US stocks fluctuate as investors assess rate rise talk in Fed minutes</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>/content/a03cc685-63be-4c62-8dd6-0c63321d31db</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>US stocks fell on Wednesday after investors pored over the minutes of the Federal Reserve’s last meeting, which indicated that most central bankers backed its recent quarter-point increase but some favoured a bigger rise.
+In New York, the blue-chip S&amp;P 500 index lost 0.2 per cent and the tech-heavy Nasdaq Composite gained 0.1 per cent, paring earlier gains from before the release of the minutes.
+The summary of the Fed’s latest policy meeting, which ended on February 1, revealed that almost all officials backed its decision to raise its benchmark interest rate by a quarter of a percentage point, but a few preferred a half-point increase. St Louis Fed president James Bullard has said in recent weeks that he favoured a larger increase as the central bank takes aim at inflation.
+“The participants favouring a 50-basis point increase noted that a larger increase would more quickly bring the target range close to the levels they believed would achieve a sufficiently restrictive stance,” the minutes said.
+In the weeks since the meeting, fresh data has indicated that the US economy may be running even hotter than central bankers believed three weeks ago.
+“The Fed minutes are a little out of date because there was a blowout jobs report and a robust consumer spending report after the Fed meeting, showing inflationary pressures are likely stronger than previously feared,” said Chris Zaccarelli, chief investment officer of Independent Advisor Alliance.
+The moves came a day after US stocks recorded their worst trading session in two months, as traders were unnerved by evidence of a resilient economy and the prospect of further interest rate rises.
+Yields on long- and short-dated Treasuries were lower after a slight rebound following the minutes. Benchmark 10-year US Treasuries fell to 3.92 per cent. Yields on interest rate-sensitive two-year notes fell to 4.70 per cent after touching a three-month high on Tuesday.
+“If you compare sentiment to one month ago, people were expecting the Fed might only have a little room left to hike,” said Dickie Wong, head of research at Kingston Securities. “But now it looks like inflation may not ease up and the Fed will have to raise rates repeatedly.”
+Earlier on Wednesday, European and Asian stocks weakened, dragged down by Tuesday’s falls in the US and signs of economic optimism in the eurozone.
+The Europe-wide Stoxx 600 declined 0.3 per cent and Germany’s Dax was flat. London’s FTSE 100 declined 0.6 per cent.
+“It’s no great surprise” that the strong surveys of business activity in the US and eurozone this week had dented equities, said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics. “We’re in this world where good news is bad news, so strong PMIs have prompted investors to expect a higher peak in interest rates.”
+In Asian markets, Japan’s benchmark Topix index fell 1.1 per cent, while China’s CSI 300 index of Shanghai- and Shenzhen-listed stocks slipped 0.9 per cent and Australia’s S&amp;P/ASX 200 fell 0.3 per cent.
+In currency markets, the dollar index, which measures the greenback against six peer currencies, rose 0.4 per cent. The euro fell 0.4 per cent against the dollar.
+The price of Brent crude oil fell 3 per cent to $80.60 a barrel, while WTI, the US equivalent, dropped 3.2 per cent to $73.95 a barrel.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les marchés boursiers américains ont reculé mercredi après que les investisseurs aient étudié les minutes de la dernière réunion de la Réserve Fédérale, qui indiquent que la plupart des banquiers centraux ont soutenu sa récente hausse d'un quart de point, mais certains préféraient une hausse plus importante.
+En Europe et en Asie, les actions ont reculé sous le poids des baisses de mardi aux États-Unis et des signes d'optimisme économique dans la zone euro.
+Les taux des bons du Trésor à long et à court terme ont été plus faibles après une légère reprise suite aux minutes.
+Les données récentes indiquent que l'économie américaine peut être plus chaude que ce que les banquiers centraux croyaient il y a trois semaines. Les investisseurs craignent que la Fed ait à relever les taux plusieurs fois.
+Dans les marchés des changes, l'indice du dollar, qui mesure le dollar contre six devises, a augmenté de 0,4%. L'euro a reculé de 0,4% contre le dollar.
+Le prix du Brent a chuté de 3% à 80,60 dollars le baril, tandis que le WTI, l'équivalent américain, a baissé de 3,2% à 73,95 dollars le baril.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les actions américaines fluctuent alors que les investisseurs évaluent les discussions sur la hausse des taux dans les minutes de la Fed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Fed alone cannot bring inflation down</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>/content/c4a030b0-45a2-4bb1-93ff-830e78f2bc6c</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The writer is the founder of Sahm Consulting and a former Federal Reserve and White House economist
+The Federal Reserve is the only institution in the US with an official mandate to maintain stable prices. Even so, the Fed is not the only institution we need to help fight inflation, especially given the supply disruptions from the pandemic and the war in Ukraine.
+The Fed, by raising interest rates, can push down demand, but it cannot push up supply. And Adam Shapiro, an economist at the San Francisco Fed, estimates that about 40 per cent of inflation is supply-driven, 40 per cent is demand-driven, and the other 20 per cent is ambiguous. Given that reality, the Fed alone cannot get inflation back to the 2 per cent target.
+The Fed’s primary tool to rein in inflation is the federal funds rate which influences the interest rates at which consumers and businesses borrow. The Fed rate rises work through financial markets and monetary policy is only one factor determining the price of debt, meaning that the central bank’s main tool is not a precise one.
+In addition, forward-looking markets incorporate expectations of future Fed decisions in today’s interest rates. Those expectations may or may not align with the Fed’s actual intentions. For example, overall financial conditions, measured by a Chicago Fed index, had become more restrictive since the Fed began raising rates last year. But in October, the index began falling, suggesting that financial conditions are becoming more supportive of demand. An even clearer example: mortgage rates have moved down about a percentage point from their peak of 7 per cent in November, even as the Fed continued to increase the federal funds by 0.75 percentage points.
+The finances of households also suggest that changes to the federal funds rate may not have as powerful an effect on demand. Households, including those with lower income, have substantially more savings than before the pandemic, which allows them to buffer the higher costs of borrowing. Plus, during the pandemic, many were able to pay down debt. In addition, many homeowners with 30-year fixed mortgages had locked in the low rates that prevailed before the recent rises. If interest rates are less relevant to spending, that means the Fed is less relevant too.
+Even so, the Fed is influencing demand in interest rate-sensitive sectors. Business fixed investment has contracted since the second quarter of last year and housing starts plunged by 20 per cent. However, the effects on the labour market are modest even in areas such as construction. Companies are likely holding on to workers because it has been so hard to rehire. If people keep their jobs, it’s hard to get demand down. And if the labour market is strong, it will be harder for the Fed to contain inflation.
+An important lesson is that supply is crucial to the economy. More workers ease the labour shortage and upward pressure on wages. Last year, 1mn more immigrants came to the US, continuing the rebound from pandemic lows. Julia Coronado, the founder of Macropolicy Perspectives, expects immigration to continue to rise in the coming years. That should help ease the labour shortages and push down on inflation, even though they will increase demand. Again, the Fed had no influence on immigration policy. The best way to solve a labour shortage is with more workers, not fewer customers. But the Fed can only give us less demand and fewer customers.
+Fortunately, Congress and the White House can influence supply. A key example is the Biden administration’s efforts to bring oil and gasoline down after Russia’s invasion of Ukraine. These included the opening of the Strategic Petroleum Reserve and guaranteeing producers a price to buy oil and refill the reserve. Oil production rose last year and the national price of gasoline is back below pre-invasion levels.
+An important advantage of fiscal policy is its ability to target certain sectors critical to restraining inflation, in contrast to the Fed’s imprecise tools. The US infrastructure bill, the Chips Act to boost domestic semiconductor production, and the Inflation Reduction Act all have elements that will help with inflation, especially in the future, by creating or fortifying supply.
+The Fed absolutely has a role to play and its rate rises are almost certainly contributing to the slowing of growth. At the same time, demand management is not an efficient way to deal with supply-driven inflation. It is harder to co-ordinate fiscal policy, but the past two years have shown it can be done, and it must be done. The challenge is to do it well.
+ </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Résumé SEO de l'article: La Réserve fédérale des États-Unis est l'institution chargée de maintenir la stabilité des prix. Cependant, elle ne peut pas lutter seule contre l'inflation, en particulier en raison des perturbations de l'approvisionnement provoquées par la pandémie et la guerre en Ukraine. La hausse des taux d'intérêt par la Réserve fédérale peut réduire la demande, mais pas l'offre. La politique monétaire est seulement un facteur déterminant le prix de la dette, ce qui signifie que l'outil principal de la banque centrale n'est pas précis. De plus, les marchés anticipent les décisions futures de la Réserve fédérale et ces attentes peuvent ne pas être en accord avec ses intentions réelles. Les finances des ménages suggèrent également que les modifications du taux fédéral des fonds peuvent ne pas avoir un effet aussi puissant sur la demande. La politique budgétaire peut cibler des secteurs clés pour contenir l'inflation, contrairement aux outils imprécis de la Réserve fédérale. Les efforts de l'administration Biden pour abaisser les prix du pétrole et de l'essence après l'invasion de la Russie en Ukraine sont un exemple clé. La politique budgétaire a un avantage important: elle peut cibler des secteurs critiques pour contenir l'inflation. La Réserve fédérale joue certainement un rôle et ses hausses des taux contribuent probablement à la ralentissement de la croissance. La meilleure façon de résoudre une pénurie de main-d'œuvre est d'avoir plus de travailleurs, pas moins de clients. Cependant, le Congrès et la Maison-Blanche peuvent influencer l'offre.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La Fed seule ne peut pas ramener l'inflation à la baisse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>We’re not nearly there yet</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>/content/84a791e3-c81c-4dd4-a85f-6b8b557008f9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>This article is an on-site version of our Unhedged newsletter. Sign up here to get the newsletter sent straight to your inbox every weekday
+Good morning. It’s Jenn Hughes here in New York, helping out Ethan while Rob is away. Silicon Valley Bank is attracting short sellers, the FT reports, following a soured bet on mortgage-backed securities hurt by rising rates. Bank troubles with securitisations sound too 2008 for words. But then, right now almost everything is hostage to the Federal Reserve in some form. Is there any other game in town? Email me: jennifer.hughes@ft.com.
+Markets extend Presidents’ Day sales
+Monday’s Presidents’ Day holiday in the US is about honouring the leaders of the free world — and also the first big retail discounts of the year. On Tuesday Wall Street came back from bargain-hunting white goods and put virtually the entire stock market on sale.
+The S&amp;P 500 is still almost 4 per cent higher so far this year, but that’s less than half its February 2 peak when it boasted a near-9 per cent gain. Tuesday’s 2 per cent fall was its worst in two months. On Wednesday the selling eased, but the general gloom persisted and blue-chips once again closed lower.
+Tuesday is worth revisiting because there wasn’t an obvious cause of the misery. Early blame went to a so-so outlook from Walmart and Home Depot’s warning of weaker full-year earnings on flat sales. But Walmart was one of the few stocks to end Tuesday higher and it was hardly a surprise that everyone’s favourite lockdown home renovation store was struggling as the housing market slows.
+That lack of a specific cause brings this all back to the Federal Reserve and the cranking higher of interest rate expectations since the stupendously strong February 3 jobs numbers, followed by higher inflation data and buoyant retail sales.
+The key, says Eric Theoret, global macro strategist at Manulife Investment Management, is the scale of the change in thinking. Break-even rates paint a simpler, more stark picture than interest rate futures:
+Break-evens — the difference between yields on regular and inflation-protected bonds with similar maturity — are a market prediction of inflation rates. Since January, two-year break-evens have shot up from 2 per cent or thereabouts, to 3 per cent, well above the Fed’s inflation target.
+“You had a Fed that could look at break-evens then and say ‘mission accomplished’ in terms of inflation expectations but since payrolls on February 3, you’ve had these massive shifts in the economy that say there’s actually a lot more work to be done,” Theoret added.
+It’s an ongoing adjustment, in other words. The minutes of the Fed’s February 1 meeting, released on Wednesday, support that too. Remember Jay Powell’s talk then of disinflation, and the unanimous vote for a quarter-point rate rise? The record shows more than one member actually supported a half-point increase.
+Said the Fed:
+A few participants stated that they favoured raising the target range for the federal funds rate 50 basis points at this meeting or that they could have supported raising the target by that amount.
+Given this inflationary gloom, stock markets need a fresh catalyst to shake off their misery. The current earnings season has been heavier on caution than the sort of optimism that might encourage new bets.
+Moreover, even the heavy selling of recent weeks hasn’t yet reduced the market to the sort of extreme bearish mood that makes it easier to find a new buying spur. Here, Bespoke Investment Group charts sentiment by the S&amp;P 500’s distance from its 50-day moving average. On this measure, stocks may have fallen sharply, but they’re only in neutral territory:
+Remember that January rally? With neither sentiment nor macro on the market’s side, it feels a world away.
+Fiddling while Canberra fumes
+If you thought Powell had a tough job, spare a thought for Philip Lowe. The governor of the Reserve Bank of Australia is fighting similar economic forces but is also under fire ahead of a government-ordered review of the RBA’s performance, due next month.
+It’s one to watch since central banking policymaking often follows broad global trends. Think of the move to greater central bank independence in the mid-1990s, or more recently the shift to greater transparency embodied by Powell’s 2018 introduction of press conferences after every rate-setting meeting.
+The RBA faces mounting public anger, not least because of its 2021 prediction that it didn’t expect it would need to raise rates until 2024 at the earliest. Lowe &amp; Co were hardly alone in underestimating inflation, but all (economic) news is local. Domestic reports abound of household pain, exacerbated by the country’s use of floating-rate mortgages, which the RBA reckons make up more than 60 per cent of home loans.
+For Australians, the RBA has been tightening at an unprecedented pace, although the Fed’s actions mean Americans might wonder what the Aussies are so unhappy about:
+Lowe hasn’t helped himself. Earlier this month he was blasted for declining to give an annual public address but still attending a private lunch for bank traders days after the RBA delivered an unexpectedly hawkish outlook. “Yields rose as Lowe, traders lunched” trumpeted the Australian Financial Review’s scoop story.
+The danger is that the more the unassuming Lowe is made to look Nero-like, the more likely that the review’s findings are reduced to a political weapon. There are more than a few governments around the world that might like a chance to shift some economic criticism and budget debates on to wonkish rate-setters. US debt ceiling, anyone?
+One good read
+Why QT isn’t proving the watching-paint-dry experience that Janet Yellen promised.
+Recommended newsletters for you
+Cryptofinance — Scott Chipolina filters out the noise of the global cryptocurrency industry. Sign up here
+Swamp Notes — Expert insight on the intersection of money and power in US politics. Sign up here</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les marchés étendent les soldes du Jour des Présidents
+Le lundi, le Jour des Présidents aux États-Unis était consacré à l'honneur des dirigeants du monde libre, et aussi aux premiers gros rabais de l'année. Mardi, Wall Street est revenue des magasins à la recherche de bonnes affaires et a mis presque tout le marché boursier en solde.
+L'indice S&amp;P 500 est encore presque 4 % plus haut cette année, mais c'est moins de la moitié de son pic du 2 février, lorsqu'il affichait une hausse proche de 9 %. La baisse de 2 % de mardi était sa pire en deux mois. Mercredi, les ventes ont ralenti, mais la morosité générale persistait et les valeurs vedettes ont à nouveau clôturé en baisse.
+La cause de cette tristesse n'était pas évidente. Au début, on a mis en cause un horizon plutôt moyen de Walmart et l'avertissement de Home Depot d'une baisse des bénéfices annuels sur des ventes stables. Mais Walmart était l'une des rares actions à terminer mardi en hausse et il n'était pas surprenant que la boutique préférée de tous pour les rénovations à la maison en temps de verrouillage souffre de la ralentissement du marché immobilier.
+Cette absence de cause spécifique ramène tout cela à la Réserve fédérale et à l'accélération des attentes de taux d'intérêt depuis les chiffres stupéfiants de l'emploi du 3 février, suivis de données d'inflation plus élevées et de solides ventes au détail. La clé, selon Eric Theoret, stratège macro-global chez Manulife Investment Management, est l'ampleur du changement de pensée. Les taux d'équilibre indiquent une image plus simple et plus nette que les taux d'intérêt à terme:
+Les taux d'équilibre - la différence entre les rendements des obligations régulières et des obligations protégées contre l'inflation de maturité similaire - sont une prédiction du marché des taux d'inflation. Depuis janvier, les taux d'équilibre à deux ans ont bondi d'environ 2 % à 3 %, bien au-dessus de l'objectif d'inflation de la Fed.
+"Vous aviez une Fed qui pouvait regarder les taux d'équilibre à l'époque et dire 'mission accomplie' en termes d'attentes d'inflation, mais depuis les effectifs du 3 février, vous avez eu ces énormes mouvements dans l'économie qui disent qu'il y a en fait beaucoup plus de travail à faire", a ajouté Theoret.
+C'est une adaptation en cours, en d'autres termes. Les minutes de la réunion de la Fed du 1er février, publiées mercredi, soutiennent cela également. Rappelez-vous le discours de Jay Powell alors de la désinflation, et le vote unanime pour une hausse du taux d'un quart de point? Le registre montre que plus d'un membre a en fait soutenu une hausse du taux de demi-point.
+Selon la Fed:
+"Quelques participants ont déclaré qu'ils préféraient relever la fourchette cible du taux fédéral des fonds à 50 points de base à cette réunion ou qu'ils auraient pu soutenir une hausse de la cible de cette quantité".
+Face à cette morosité inflationniste, les marchés boursiers ont besoin d'un nouveau catalyseur pour se débarrasser de leur misère. La saison actuelle des bénéfices a été plus axée sur la prudence que sur le genre d'optimisme qui pourrait encourager de nouvelles paris.
+De plus, même les lourdes ventes des dernières semaines n'ont pas encore réduit le marché à l'humeur extrêmement baissière qui facilite la recherche d'un nouveau stimulant d'achat. Ici, Bespoke Investment Group présente les sentiments par rapport à la moyenne mobile à 50 jours de l'indice S&amp;P 500. Selon ce critère, les actions peuvent avoir chuté fortement, mais elles ne sont qu'en territoire neutre:
+Rappelez-vous ce rallye de janvier? Avec ni sentiment ni macro du côté du marché, cela semble un monde à part.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nous n'en sommes pas encore là.</t>
         </is>
       </c>
     </row>

--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,400 +463,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wall Street set to lose out as China secures grip on IPO pipeline</t>
+          <t>Record-breaking global bond rally crumbles as fresh inflation fears grip investors</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/content/6cbfccb3-4241-4a04-9b04-dd48b4f3662e</t>
+          <t>/content/b287997b-a048-426c-bab3-9a6a97486c17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>China has secured its grip on proposed offshore listings with new rules that bankers and lawyers say will favour Hong Kong and domestic Chinese markets over Wall Street.
-The rules, which come into effect at the end of March, come nearly two years after Beijing slammed the brakes on lucrative initial public offerings in Hong Kong, New York and other offshore jurisdictions as part of a sweeping regulatory crackdown.
-“We might see some recovery in US IPOs from Chinese companies, but it’s hard to envision flows returning to their prime,” said Zhan Kai, a Shanghai-based senior counsel at Chinese law firm Yuanda. “The US capital market is irreplaceable in a way, but many Chinese companies haven’t fully healed from the trauma of geopolitical conflicts between China and the US.”
-The cost of that lost business is likely to be measured in billions of dollars. For the two years before the crackdown, foreign listings by fast-growing Chinese technology companies raised more than $40bn each year, delivering annual fees of more than $1bn to investment banks, including Goldman Sachs and Morgan Stanley.
-That all changed when ride-hailing group Didi Chuxing pushed ahead with a New York share sale in June 2021 despite Chinese regulators’ national security concerns. Days later, Beijing launched a crackdown on the tech sector that effectively halted all but a handful of offshore listings pending the publication of revamped regulations.
-Almost 90 per cent of the $76bn brought in by Chinese IPOs last year was raised in Shanghai and Shenzhen, with Hong Kong accounting for almost all the remainder.
-The new rules, published by the China Securities Regulatory Commission on Friday, provide the first unified regime for vetting and keeping tabs on companies that float abroad.
-Before the crackdown, Chinese issuers could simply set up an offshore structure known as a variable interest entity to sell shares offshore. This allowed them to avoid the lengthy vetting process for onshore IPOs and skirt restrictions on foreign investment in certain sectors.
-The new regime codifies the VIE structure, which now requires approval from the commission and other relevant regulators before the IPO process can begin.
-Jason Elder, a partner at law firm Mayer Brown in Hong Kong, said the new regulations were “expected to have a positive impact” on the pace of offshore IPOs and “should streamline the path to listing for PRC-based companies and provide greater certainty for companies considering an offshore listing”.
-But bankers said companies were still wary of testing just how safe it would be to sell shares abroad, especially in New York.
-“Everybody is still in wait-and-see mode when it comes to applying for a US listing,” said one IPO banker at a state brokerage in Beijing. “These are new rules, and people still need to wait for the reshuffle of personnel at financial regulators.”
-This is likely to happen after the annual meeting of China’s rubber-stamp legislature, which is scheduled to begin next month, he added.
-The shadow cast by US-China tensions — heightened most recently by China’s ties to Moscow and Washington accusing Beijing of flying a spy balloon over the US — also remains prominent for issuers. This is despite Beijing and Washington last year taking a major step towards resolving a stand-off over access to audit papers for Chinese companies listed on Wall Street.
-A senior executive at one freight logistics services provider in China planning to go public this year told the Financial Times that even with the new offshore listings regime in place, the group would “only consider Hong Kong and mainland listings” in order to avoid geopolitical risks.
-It might also be difficult to get large and more lucrative listings across the finish line, international asset managers said, because investor demand for Chinese equities had not fully recovered.
-“We haven’t seen big global institutional funds reassert their appetite for China investments yet, and that’s the exact type of investor you need for a large-scale IPO offshore,” said the head of institutional sales in Asia for one western asset manager. “Certainly appetite is recovering somewhat, but people are still very wary.”
-Chinese authorities have taken pains to indicate the long crackdown on tech groups is over, and in its announcement on Friday the commission said it “will support companies making use of both [onshore and offshore] markets . . . and unswervingly share the benefits of China’s economic growth with global investors”.
-Yet investors and analysts have been alarmed by the recent disappearance of Bao Fan, the head of investment bank China Renaissance, which served as a bookrunner on many offshore listings — including the ill-fated Didi Chuxing float.
-Andrew Collier, China country analyst at GlobalSource Partners, a consultancy, said the “Bao Fan [disappearance] shows this crackdown is not over”.
-Recommended
-Technology sector
-Dollar funding for Chinese start-ups dries up
-Bankers believe offshore listings by Chinese companies will probably concentrate in Hong Kong, where perceived risk from regulators in both the US and China is lower. That would deliver a welcome boost for the city’s stock exchange, which on Thursday reported annual equity fundraising had dropped by more than two-thirds in 2022 to just HK$254bn ($32bn).
-“Hong Kong is desperate for that business to come back,” said Fraser Howie, an independent expert on Chinese finance. “The fact it’s outside the [capital controls] gives it a huge advantage that no other city in China has . . . Hong Kong is in that sense a natural favourite, even if I don’t see it going back to the golden days.”
-“The US is definitely a no-go now and that will favour Hong Kong for sure,” said Federico Bazzoni, chief executive of investment banking at Vantage Capital Markets. But he added that reforms to streamline China’s onshore listings architecture, announced alongside the new offshore listings regime, could incentivise more issuers to choose a listing in the mainland over Hong Kong.
-“The real winner in all of this could be the A-share market in China,” Bazzoni said, referring to shares that trade domestically in Shanghai and Shenzhen.</t>
+          <t>The record-breaking global bond market rally since the start of this year has fizzled out as mounting signs of persistent inflation force investors to reverse their views on the likely future path of interest rate rises.
+Investors rushed into fixed income in the first few weeks of 2023 as they became increasingly expectant that the US Federal Reserve and other major central banks would soon end their aggressive campaign of monetary policy tightening.
+A Bloomberg index tracking high-grade government and corporate bonds rose as much as 4 per cent last month, its best ever start to the year.
+But that gain has now disappeared after a scorching US labour market report earlier this month kicked off a run of better than expected economic data on both sides of the Atlantic, upending expectations that the Fed and the European Central Bank were close to winning their battle with inflation.
+The resulting rise in bond yields has also upset a rally in the stock market, with the S&amp;P 500 losing 2.7 per cent in the past week.
+“We’ve had a reality check,” said Michael Metcalfe, head of macro strategy at State Street, adding that the easing of monetary policy expected by markets a few weeks ago “looked a little fanciful”.
+The biggest reversal has come in the US after data showed that employers added more than half a million jobs in January, nearly triple what economists had forecast, and that consumer price growth stood at 6.4 per cent — also above projections.
+On Friday the Fed’s preferred gauge of price growth — core monthly personal consumption expenditure — rose 0.6 per cent from December to January, higher than consensus forecasts.
+Futures markets, which had previously reflected bets that the US central bank would reduce interest rates twice later this year, now predict that rates will rise to 5.4 per cent by July, with at most a single cut by the end of the year.
+“Early this year, markets got ahead of themselves in terms of pricing in Fed cuts, hoping this cycle would end sooner,” said Idanna Appio, a portfolio manager at First Eagle Investment Management.
+“Things were priced for perfection — investors were betting that the Fed was going to get inflation down successfully and quickly. I think this process is going to take longer than people thought.”
+In a further reflection of shifting sentiment, bond fund flows have reversed in recent weeks — particularly at the riskier end of the credit spectrum.
+Emerging market bonds, which soared in January, this week saw the biggest outflows since October, JPMorgan data show. Globally, more than $7bn has leaked out of “junk” rated corporate bond funds so far in February, according to data from EPFR, after net inflows of $3.9bn in January.
+Investors are demanding a higher premium to hold high-yield, low-rated corporate debt than they were last month, when market ebullience diminished concerns about debt defaults.
+The gulf between yields on US junk bonds and those of Treasury notes tightened by as much as 0.87 percentage points from New Year’s Eve to reach 3.94 percentage points in mid-January. But that spread has since widened to 4.3 percentage points.
+John McClain, portfolio manager at Brandywine Global Investment Management, said rates would stay at a higher level than expected “for the foreseeable future”. 
+“We don’t anticipate rate cuts in 2023, and so that’s going to eventually lead to stress in the riskier segments of credit,” he said.
+The shift in investors’ expectations is an acknowledgement of the Fed’s insistence since the start of the year that rates would remain elevated for a prolonged period. A survey of Fed officials from December showed they expected borrowing costs to end the year at about 5.1 per cent.
+Now, some analysts are wondering whether the central bank’s own projections are too conservative.
+“There is a real chance that we could go over a 6 per cent rate. If the data continue to show improvement, there is a real chance that the Fed is behind the curve at the moment and that rates have to go up more than expected,” said Calvin Tse, head of Americas macro strategy at BNP Paribas.
+Some big investors say the recent sell-off is a sign that it is too soon to pile into bonds; that moment is likely to come later in the year.
+“Of course the Fed will at some point cut rates, but the market was trying to pre-empt that . . . and it was so, so premature,” said Sonal Desai, chief investment officer of Franklin Templeton. “I still think it is a very good year for fixed income. I just don’t think we’re there yet.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les nouvelles règles de la Chine pour les offres publiques à l'étranger auront un impact positif sur le rythme des IPO à l'étranger, mais les entreprises chinoises sont encore prudentes à l'idée de tester la sécurité des ventes de parts à l'étranger, en particulier à Wall Street. De plus, les tensions entre la Chine et les États-Unis, ainsi que les contrôles des capitaux, font que Hong Kong est le favori pour les IPO à l'étranger. La Bourse de Hong Kong est désespérée de voir le business revenir, et les réformes pour faciliter les offres publiques à l'intérieur du pays pourraient inciter les entreprises à choisir une cotation en Chine plutôt qu'à Hong Kong.</t>
+Les investisseurs ont afflué vers les obligations au début de 2023, car ils s'attendaient à ce que la Réserve fédérale des États-Unis et d'autres grandes banques centrales mettent bientôt fin à leur agressive campagne d'assouplissement monétaire. Cependant, un rapport sur le marché du travail américain plus tôt ce mois-ci a fait voler en éclats ces attentes, et les rendements des obligations se sont considérablement élevés. Les marchés à terme, qui reflétaient auparavant des paris sur des baisses des taux d'intérêt américains, prévoient maintenant une hausse à 5,4% d'ici juillet, avec au plus une seule baisse d'ici la fin de l'année. Les flux de fonds des fonds obligataires se sont également renversés, en particulier à l'extrémité plus risquée de la dette. Certains grands investisseurs disent que la récente baisse est un signe qu'il est trop tôt pour se ruer sur les obligations ; ce moment devrait arriver plus tard dans l'année.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Wall Street est sur le point de perdre sa prise sur le pipeline des introductions en bourse alors que la Chine s'assure une emprise.</t>
+La course effrénée des obligations mondiales qui a battu des records s'effondre alors que de nouvelles craintes d'inflation s'emparent des investisseurs.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Defence industry shares soar on western backing for Ukraine</t>
+          <t>Bond rout of 2022 ended ‘golden age’ for fixed income</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/content/3723977b-c256-432b-a2bb-b4ff901858f7</t>
+          <t>/content/f94c233b-98a5-4f7d-b761-faf15f50ead1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Shares in defence companies have surged in recent months, eclipsing gains for wider stock markets, as investors bet on the promises of increased military spending by western governments to help Ukraine’s war effort against Russia.
-An MSCI global benchmark for the sector is up almost 30 per cent in dollar terms since the start of October, 15 percentage points more than the broader gauge of worldwide equities. Europe’s Stoxx aerospace and defence index has risen just over a third over the same period. 
-The gains reflect a growing conviction among investors that the conflict is unlikely to end quickly. A rally ahead of Vladimir Putin’s invasion of Ukraine last February had fizzled out in the early months of the war.
-“In the autumn there was a realisation that the war would take longer, that more ammunition would be needed,” said Sven Weier, an analyst at Swiss bank UBS. 
-US group Raytheon rose 21 per cent from the start of January until mid-April 2022 but gave up those gains over the next five months. Its shares have since risen 23 per cent. After surging ahead of the invasion and into March, shares in the UK’s BAE Systems fell 5 per cent in the months to November but have since also risen by just over a quarter.
-Following the rally in the final quarter, “we reckon that 2022 was the best year of defence stocks over the last 40 years”, said Robert Stallard, analyst at Vertical Research Partners, in a note on the sector. 
-US president Joe Biden underlined his support for Ukraine this week with a surprise visit to Kyiv. “The defence of freedom is not the work of a day or a year,” he said.
-Defence contractors are now waiting for governments to follow through and place new orders.
-The biggest investors in European defence stocks with exposure to events in Ukraine are mostly US companies. Eight of Rheinmetall’s top 10 shareholders are based in the US, as are seven of Italian defence group Leonardo’s and eight of BAE’s.
-European investors with a greater focus on environmental, social and governance issues were more lukewarm, Weier said. “Before the war, you could sense how people were disengaging because of ESG. Long-only European investors were saying defence was a non-starter. I do not sense that there has been a tremendous change there.”
-Some analysts said the defence sector’s strong performance over the past year was unlikely to be repeated, however. Stallard predicted that the coming 12 months would be a “tougher slog for the defence sector” given that “much of the good news is already baked into defence stocks”.
-“If the broader global economic outlook becomes less bad” then investors may turn their attention to sectors better positioned to benefit from the upturn, he added.
-Byron Callan, managing director of research group Capital Alpha Partners, said he expected the sector to come up against headwinds this year, including continuing constraints on their ability to source enough skilled workers and raw materials. 
-Many companies have warned that supply chain problems are hampering efforts to increase production. In the US, a brewing battle over the national debt ceiling could undermine defence spending, added Callan.</t>
+          <t>Last year was the worst for bond markets in more than a century and marked the end of a four-decade long “golden age” for the asset class which is unlikely to be repeated, according to a trio of academics.
+Global bonds lost 31 per cent in 2022, the worst annual performance for fixed income in data stretching back to 1900, Dr Mike Staunton and professors Elroy Dimson and Paul Marsh wrote in Credit Suisse’s latest Global Investment Returns Yearbook.
+UK bonds fared even worse, returning minus 39 per cent.
+Those declines stand in stark contrast to the reliable returns that bonds recorded between 1982 and 2021, when the world bond index provided an annualised real return of 6.3 per cent, the authors said. Global equities returned 7.4 per cent per year over the same period.
+But extrapolating the “astonishingly” high bond returns provided in the 40 years to 2021 into the future was “inappropriate” and “foolish”, the authors said, noting that since 1900 the average annualised real return for bonds across the 21 countries with continuous data was just 0.6 per cent. “For investors who had grown used to high bond returns and who saw bonds as a safe asset, [2022] returns were truly shocking.”
+It was not just bonds that endured a dire 2022, however. Equities, too, sold off sharply as high inflation forced major central banks to ratchet up interest rates at the fastest pace in decades, denting the allure of most risky assets and ending a bull market run that began in early 2020.
+Equities and bonds do not typically move in tandem. While stocks tend to be volatile, bond returns over the past 40 years, excluding 2022, have proved relatively steady and a hedge against equity declines. Investors hoping to mitigate market risk have long exploited the negative correlation between the two by deploying 60 per cent of their funds into equities and 40 per cent into bonds.
+Whether that strategy will once again bear fruit in 2023 after breaking down last year is a matter of hot debate.
+Equities are expected to suffer if and when the global economy slides into recession, while cooling inflation would ordinarily boost the allure of bonds. Yet 58 per cent of institutional investors surveyed by asset manager Amundi and consultancy Create Research in January said that the pattern of 2022 would persist this year.
+Even if bonds regain their role as a cushion against stock market losses, investors should not bank on equity-like returns from fixed income, Staunton, Marsh and Dimson said. “Golden ages, by definition, are exceptions. To understand risk and return in capital markets, we must examine periods much longer than 20 or even 40 years.”</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les actions des entreprises de défense ont connu une forte hausse ces derniers mois, dépassant les gains des marchés boursiers plus larges, alors que les investisseurs parient sur la promesse d'une augmentation des dépenses militaires des gouvernements occidentaux pour aider l'Ukraine dans sa guerre contre la Russie. Un indice MSCI global de la secteur a augmenté de près de 30 % en termes de dollars depuis le début d'octobre, soit 15 points de pourcentage de plus que la mesure plus large des actions mondiales. L'indice Stoxx européen de l'aérospatiale et de la défense a augmenté un peu plus d'un tiers sur la même période.
-Les gains reflètent une conviction croissante chez les investisseurs que le conflit ne se terminera pas rapidement. Une hausse avant l'invasion de Vladimir Poutine en Ukraine en février s'est effritée dans les premiers mois de la guerre. Les principaux investisseurs en actions européennes de défense exposés aux événements en Ukraine sont principalement des entreprises américaines. Le président américain Joe Biden a souligné cette semaine son soutien à l'Ukraine avec une visite surprise à Kyiv. Les entrepreneurs de la défense attendent maintenant que les gouvernements passent à l'action et passent de nouvelles commandes.
-Certains analystes ont cependant déclaré que les performances solides du secteur de la défense cette année étaient peu probables à être répétées. Les investisseurs pourraient se tourner vers des secteurs mieux positionnés pour bénéficier de la reprise, a-t-il ajouté. Byron Callan, directeur général du groupe de recherche Capital Alpha Partners, a déclaré qu'il s'attendait à ce que le secteur fasse face à des vents contraires cette année, notamment des contraintes persistantes sur leur capacité à trouver suffisamment de main-d'œuvre et de matières premières qualifiées.</t>
+En 2022, les marchés obligataires ont connu la pire année de leur histoire, avec une perte de 31% à l'échelle mondiale et de 39% au Royaume-Uni. Cette performance contraste nettement avec les rendements stables et élevés enregistrés entre 1982 et 2021. Les experts craignent que cette période dorée ne se répète pas et que les rendements des obligations ne retrouvent pas leur rôle de protection contre les déclins boursiers. La stratégie d'investissement classique consistant à répartir 60% de ses fonds en actions et 40% en obligations est remise en question. Les analystes concluent que pour comprendre le risque et le rendement des marchés, il faut examiner des périodes bien plus longues que 20 ou 40 ans.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Les actions de l'industrie de la défense montent en flèche avec le soutien de l'Ouest en faveur de l'Ukraine.</t>
+          <t xml:space="preserve">
+La déroute des obligations de 2022 a mis fin à l'âge d'or des revenus fixes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Developing countries’ debts mount as pandemic and strong dollar hit finances </t>
+          <t>Fed’s favoured inflation gauge accelerated in January</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/content/107cd26b-7fb0-4ff6-b698-350b8d3bee7a</t>
+          <t>/content/87593f86-501d-4e28-ac1f-bb72127bcc7f</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Developing countries’ stockpile of debt hit a fresh record high last year, the Institute of International Finance said on Wednesday, adding to concerns of a wave of sovereign defaults this year.
-The combined government, household, corporate and financial sector debts of 30 large low and middle-income countries rose to $98tn at the end of December, as their currencies slumped against the dollar.
-The debt burden for the 30 countries was up from $96tn a year earlier and from $75tn in 2019, before the pandemic began, the IIF, a trade body for the global banking industry, said in the latest edition of its quarterly Global Debt Monitor.
-Government debts alone hit almost 65 per cent of gross domestic product by the end of 2022 — an increase of 10 percentage points over pre-pandemic levels and the highest-ever year-end total.
-The dollar soared against most emerging market and advanced economy currencies over the course of 2022, raising the cost of meeting existing debt obligations — many of which are denominated in the US currency.
-The dollar’s rise followed the US Federal Reserve’s aggressive interest rate increases to combat high inflation, which had a knock-on impact on global borrowing costs.
-The US currency has weakened since the autumn. However, Ed Parker, head of sovereign research at Fitch, the credit rating agency, on Wednesday warned 2023 would be “another challenging year” as the dollar remained strong by historical standards.
-Debts and deficits would “remain well above pre-Covid levels”, he said during an event organised by the IIF.
-Pakistan and Egypt — both included in the list of 30 — are among the countries considered at high risk of default. Both countries sharply devalued their currencies against the dollar in January, partly in an attempt to unlock emergency funding from the IMF.
-The strength of the dollar against most emerging market currencies last year led investors to dump emerging market stocks and bonds. This trend went into reverse last October after the dollar weakened. However, recent data on the US economy suggesting inflation and interest rates may remain high for longer than expected has led to a fresh bout of dollar strength.
-Emre Tiftik, an IIF economist, said the dollar’s strength had left low-income countries facing extra funding costs as many relied heavily on dollar-denominated funding to secure interest from global investors.
-Sri Lanka and Ghana both defaulted on external debts in 2022, following Zambia in 2020. The ratio of debt service costs to government revenues had risen to “exceptional levels”, Parker said.
-In advanced economies, total debt declined almost $6tn to just under $201tn, leaving the total global debt burden down slightly, from $303tn at the end of 2021, to below $300tn at the end of last year.</t>
+          <t>The Federal Reserve’s preferred measure of inflation rose more than expected in January, triggering a Wall Street sell-off as investors weighed the prospect of interest rates staying higher for longer as the central bank fights stubborn price pressures.
+The personal consumption expenditures (PCE) price index, which measures how much consumers are paying for goods and services, increased 0.6 per cent month on month, after rising 0.2 per cent in December. The annual rate increased to 5.4 per cent in January from an upwardly revised figure of 5.3 per cent a month earlier.
+The so-called core PCE index, which strips out volatile food and energy costs and is the Fed’s preferred inflation metric, rose 0.6 per cent in January, up from 0.4 per cent in December. The annual rate increased to 4.7 per cent from an upwardly revised figure of 4.6 per cent in December, missing economists’ expectations for a moderation to 4.3 per cent.
+The figures were the latest in a string of new data releases including on employment, retail sales and other price gauges that have come in hotter than expected, prompting markets to factor in the prospect of US interest rates going higher and staying there for longer than they had expected.
+Following Friday’s figures, investors priced in a 39 per cent chance of a half-point rate rise at the Fed’s March meeting, compared with an 18 per cent likelihood a week ago, according to CME Group’s FedWatch tool. Bets on a quarter-point rise dropped from 82 per cent to 61 per cent over the same period.
+Cleveland Federal Reserve president Loretta Mester on Friday said the Fed should lean towards pushing interest rates higher to get inflation back down to the central bank’s 2 per cent target.
+“In my view, at this point with the labour market still strong, the costs of undershooting on policy or prematurely loosening policy still outweigh the costs of overshooting,” said Mester at the annual US Monetary Policy Forum hosted by the University of Chicago Booth.
+Following the February Fed meeting, Mester had said that she would have supported a half-point increase, versus the quarter-point raise that was announced. According to the minutes from that meeting, “a few” officials said they would have preferred a larger increase in rates, or could have been persuaded to support one.
+US president Joe Biden said in a statement that the latest figures showed that “we have made progress on inflation, but we have more work to do”. He insisted that the economy had “continued to make progress since the data in this report”, pointing to a recent downward trend in petrol prices.
+Stocks were under pressure on Friday as investors adjusted their interest rate expectations. The S&amp;P 500 closed 1.1 per cent lower on the day, taking the blue-chip index’s loss for the week to 2.7 per cent, which marked the biggest weekly drop since December. The Nasdaq Composite finished Friday’s session 1.7 per cent lower.
+“[The data] underscores the difficulty the Federal Reserve has in restoring price stability as consumers continue to spend at a healthy pace,” said Quincy Krosby, chief global strategist at broker LPL Financial.
+Bonds fell and yields moved higher as investors factored in the latest upward pressure on borrowing costs. Yields on benchmark 10-year notes rose 0.07 percentage points to 3.95 per cent, close to a three-month high hit earlier this week. Rate-sensitive two-year yields also rose and, at 4.81 per cent, were at their highest since the summer of 2007.
+“It is far too early . . . to buy the dips in bond prices, let alone trying to continue to buy the dips in the stock market,” said Chris Zaccarelli, chief investment officer at Independent Advisor Alliance. “We have been exercising much more caution and have advised our clients to be careful and not aggressive at this point in the economic cycle.”
+Fed chair Jay Powell warned earlier this month that taming inflation would take a “significant period of time”.
+Friday’s PCE data is consistent with the January consumer price index that registered a smaller monthly decline than expected as services inflation remained elevated.
+Personal consumption rose in January to 1.8 per cent from a revised decrease of 0.1 per cent in December, according to Bureau of Economic Analysis data on Friday. That missed economists’ expectations for an increase of 1.3 per cent. Inflation-adjusted personal spending increased 1.1 per cent in January.
+The PCE data showed that personal income growth quickened to 0.6 per cent in January from 0.3 per cent in December, but below economists’ expectations for a 1 per cent increase. The personal savings rate increased to 4.7 per cent in January, from 4.5 per cent in the previous month.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les pays en développement ont vu leur dette monter à un niveau record en 2022, selon l'Institut de financement international. La dette combinée des 30 grands pays à faible et à moyen revenu a atteint 98 000 milliards de dollars à la fin de l'année, en raison d'une faiblesse des devises par rapport au dollar. La dette des 30 pays a augmenté de 10 points de pourcentage par rapport aux niveaux pré-pandémiques et a atteint près de 65% du produit intérieur brut à la fin de 2022. La hausse du dollar contre la plupart des devises des pays émergents et avancés a augmenté le coût des obligations de dette existantes, dont beaucoup sont libellées en dollars.
-Le Pakistan et l'Égypte, qui font partie des 30 pays, sont considérés comme à haut risque de défaut. Les deux pays ont fortement dévalué leurs devises par rapport au dollar en janvier, en partie dans le but de débloquer des fonds d'urgence du FMI. La force du dollar contre la plupart des devises des pays émergents a entraîné un mouvement de vente de titres et d'obligations émergentes. Cependant, des données récentes sur l'économie américaine suggérant que l'inflation et les taux d'intérêt pourraient rester élevés plus longtemps que prévu ont entraîné une nouvelle vague de force du dollar.
-En ce qui concerne les pays avancés, la dette totale a diminué de presque 6 000 milliards de dollars à juste sous 201 000 milliards de dollars, ce qui a fait baisser le fardeau de la dette mondiale, passant de 303 000 milliards de dollars à la fin de 2021 à moins de 300 000 milliards de dollars à la fin de 2022. Les Sri Lanka et Ghana ont défauté sur leurs dettes extérieures en 2022, à la suite de la Zambie en 2020. Le ratio des coûts de service de la dette par rapport aux recettes du gouvernement était à des niveaux «exceptionnels», a déclaré Parker.</t>
+Les chiffres publiés vendredi par la Réserve fédérale montrent que l'inflation a augmenté plus que prévu en janvier, ce qui a entraîné une baisse des marchés boursiers car les investisseurs anticipent un maintien des taux d'intérêt plus élevés plus longtemps que prévu. L'indice des dépenses de consommation personnelle (PCE) a augmenté de 0,6 % par rapport au mois précédent et le taux annuel est passé à 5,4 %. De plus, l'indice de base PCE, qui exclut les coûts volatils des aliments et de l'énergie et qui est la mesure préférée de l'inflation de la Fed, a augmenté de 0,6 %. Les marchés ont ajusté leurs attentes de taux d'intérêt et les paris sur une hausse de 0,5 % lors de la réunion de mars de la Fed sont passés à 39 %. Loretta Mester, présidente de la Réserve fédérale de Cleveland, a déclaré que la Fed devrait plutôt augmenter les taux d'intérêt pour ramener l'inflation à la cible de 2 %. Les actions étaient sous pression vendredi et le S&amp;P 500 a clôturé en baisse de 1,1 %, pour une perte hebdomadaire de 2,7 %. Les taux des bons du Trésor à 10 ans ont également augmenté et sont à 3,95 %. Joe Biden a déclaré que les données montrent que "nous avons fait des progrès en matière d'inflation, mais nous avons encore du travail à faire". Jay Powell a averti plus tôt ce mois-ci que ramener l'inflation à un niveau stable prendrait "une période significative".</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les dettes des pays en développement s'accumulent alors que la pandémie et le dollar fort frappent les finances.</t>
+L'indicateur d'inflation préféré de la Fed s'est accéléré en janvier.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Europe’s energy war with Russia is not over, warns IEA chief</t>
+          <t>Global markets ride Ukraine war roller-coaster</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/content/a3649a57-122b-4418-a44e-f306c194ad74</t>
+          <t>/content/92b4ef05-1ebc-439d-8d77-22e8f0600da1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The head of the International Energy Agency has warned that Europe has not yet won its energy war with Russia despite a big drop in gas prices, as he urged governments to remain focused on conserving and boosting supplies.
-Fatih Birol said that while the EU had largely avoided a full-blown energy crisis following Russia’s weaponisation of gas supplies, which had once sparked fears of widespread shortages and blackouts, next winter could prove a greater challenge if the continent suffered colder weather.
-“Russia played the energy card and it did not win . . . but it would be too strong to say that Europe has won the energy battle already,” Birol told the Financial Times.
-“I think Europe did a good job, [its strategy has] been a big success. But being overconfident for next winter is risky and it is time to continue and step up efforts for 2023.”
-European natural gas prices have fallen as much as 85 per cent since peaking above €300 per megawatt hour in August, as efforts to procure alternative sources, conservation of existing supplies and warmer weather have left ample gas in storage as the end of winter nears.
-That has led some industry figures to declare that Moscow has already lost the energy war it unleashed to try and weaken western support for Ukraine, as the first anniversary of Russia’s full-scale invasion approaches on February 24.
-Birol said that while Europe had “moved mountains” to ensure it could replace Russian energy and had cut Moscow’s revenues with retaliatory oil sanctions, it could not afford to lose focus on conservation or developing renewable energy sources.
-“Some of the achievements made on clean energy and reducing Russia’s revenues are good but it is not a permanent solution. We have had the help of mild weather. We gained some time, which is vital, but there is much more to do.”
-European Commission president Ursula von der Leyen, left, and Fatih Birol in Brussels on Wednesday © Olivier Hoslet/EPA-EFE/Shutterstock
-Birol has warned that Russia could cut the remaining 20 per cent of prewar gas supplies it still sends to Europe through pipelines via Ukraine and Turkey, while competition for seaborne liquefied natural gas supplies is likely to increase as China’s economy continues to reopen.
-That would make refilling European storage facilities over the summer months more challenging and test the continent’s ability to avoid shortages should next winter prove to be particularly cold.
-Birol warned in November that a cold winter could leave Europe struggling to refill its gas storage sites to even 65 per cent of capacity by October 2023. But as of Monday Europe’s gas storage levels were already at 64 per cent of capacity, far higher than usual for the time of year.
-Despite some European countries increasing their use of highly polluting coal for power generation — to conserve gas for heating and industry — EU emissions fell 2.5 per cent in 2022 because of lower gas usage and the warm start to winter, the IEA chief said.
-Birol has been pushing for a longer-term transformation that not only adds renewable energy sources but also ensures a larger proportion of wind turbines or batteries is manufactured in Europe. He has met European Commission president Ursula von der Leyen twice in the past week, arguing that the EU needs to ensure it never becomes too reliant on any one country for its energy supplies — or supply chains — again.
-“We are entering a new industrial age of clean energy technology manufacturing,” he said. “The two powers [in clean energy manufacturing] are China and the US — relying on one single country is always a bad idea. So if we want diversification Europe is a good candidate.”
-Recommended
-LexRenewable energy
-EU energy: strict rules on green hydrogen hurt nascent industry Premium
- content
-European gas prices were still two to three times higher than before Russia’s supply cuts, leaving European industry at a disadvantage.
-“The European economy is still on its feet — it didn’t see a major economic recession even if they definitely took a big hit,” Birol said.
-“But prices are still seven times higher than in the US; electricity prices are three times higher than in China,” he added. “The lasting solution to energy security should be based on clean energy.”</t>
+          <t>Russia’s invasion of Ukraine a year ago reverberated through global markets. With no end in sight to Europe’s most intense conflict since the second world war, the effects are still being felt.
+Financial Times reporters look at what has occurred in key markets and what might happen next.
+Putin’s energy war backfires
+Running almost in parallel to Russia’s invasion of Ukraine has been the energy war President Vladimir Putin unleashed against Europe. The squeeze on gas supplies started earlier, in what many industry commentators now believe was an attempt to weaken Europe’s resolve before the first shots were even fired.
+But Moscow’s weaponisation of gas supplies ramped up dramatically as western powers threw their support behind Kyiv.
+Russian gas exports, which once met about 40 per cent of Europe’s demand, have been cut by more than three-quarters to EU countries in the past year, stoking an energy crisis across the continent.
+But Putin’s energy war is no longer going to plan. Senior figures in the industry believe that for all Russia’s undoubted sway in oil and gas markets, the president is now staring at defeat in markets he once thought he could dominate.
+“Russia played the energy card and it did not win,” Fatih Birol, head of the International Energy Agency, told the Financial Times this week.
+“It wasn’t just meant to cause pain in Europe for its own sake it was designed to change European policy,” said Laurent Ruseckas, executive director at S&amp;P Global Commodity Insights. “If anything, it made Europe more determined not to be bullied into changing positions.”
+European gas prices have fallen by 85 per cent from their August peak, bolstering the wider economy, which now looks likely to avoid a deep recession.
+The continent has also avoided the worst potential outcomes such as outright gas shortages or rolling blackouts, which once seemed a distinct possibility.
+Indeed, there are signs that Europe is now better placed to tackle next winter too.
+Relatively mild weather and Europe’s success in tapping alternative supplies such as seaborne liquefied natural gas mean that storage facilities across the continent are far fuller than normal for the time of year.
+Gas in storage stood just below 65 per cent of capacity as of Wednesday, according to trade body Gas Infrastructure Europe, with only a month of winter still to run. On the day of Russia’s invasion, gas storage stood at just 29 per cent.
+“The storage refill issue for next winter is no longer a big burden,” said Ruseckas.
+Longer-term traders including Pierre Andurand, who has run one of the world’s most successful energy funds for more than 15 years, think Putin has already lost as he has obliterated his relationship with Russia’s main gas customer.
+While Russia wants to sell more gas to Asia, it could take a decade to reorient its pipelines east, with the gasfields that once supplied Europe not connected to the line it uses to feed China.
+Andurand this month argued that China would also be in a position to force a hard bargain with Moscow on price, and would not want to repeat Europe’s mistake of becoming too reliant on any one supplier.
+“Once Russia can only sell gas to China, Beijing will be in a position to decide the price,” Andurand said.
+Europe still faces challenges. While gas prices have plummeted from the near $500 a barrel level (in oil terms) they reached in August, they remain two-to-three times higher than historical norms.
+Russia still supplies about 10 per cent of the continent’s gas along pipelines running through Ukraine and Turkey. Should Moscow decide to cut those supplies it is likely to push prices higher again, although it may be wary of alienating Turkey.
+Europe will also potentially face stiffer competition for LNG supplies with Asia this year as China’s economy reopens after the end of zero-Covid, though there is some initial evidence that Beijing is more price sensitive than feared.
+Traders look to extension of grain export deal
+International traders are focused on the extension of the Black Sea grain export deal between Kyiv and Moscow that is due to expire next month, amid Ukrainian accusations that Russian inspectors were deliberately delaying the transit of grain ships in the port of Istanbul.
+The agreement, brokered by Turkey and the UN last July, allowed Ukrainian grain shipments to flow through the Black Sea, bringing prices down from their post-invasion peaks. Grain prices have since fallen to prewar levels although they remain historically high.
+Ukraine had been a leading player in the food commodity markets prior to the war, accounting for about 10 per cent of the global wheat export market, just under half of the sunflower oil market and 16 per cent of the corn market.
+Last November, the deal was extended despite Putin’s threats to terminate it, and there is heightened uncertainty over how Moscow will act at the negotiation table.
+“If [the deal] is renewed — that’s great news, but if it’s not done, then immediately you’re going to have an issue there with supplies,” warned John Baffes, senior agricultural economist at the World Bank. “Those issues are going to affect mostly countries in north Africa and the Middle East.”
+High inflation ensures interest rates remain elevated
+Inflation was already elevated in February 2022, as prices were pressured higher by snarls in supply chains and the enormous fiscal stimulus unleashed to temper the worst effects of the Covid-19 pandemic.
+But those forces had been understood by central banks as transitory. The sanctions placed on Russia at the start of the war drove up the prices of oil, gas and coal — among other commodities — adding to inflation and rendering it more persistent.
+Even as supply chains were unblocked and pandemic cash was spent, inflation continued to rise.
+The persistence of that inflation has forced central banks to raise interest rates higher and higher, lifting yields on sovereign debt. Two-year sovereign bond yields, which move with interest rates, have risen more than 2 percentage points in Germany, the UK, the US and Australia, among others, in the last year alone.
+As the cost to borrow has risen for sovereign nations, so it has for companies, pushing corporate bond yields higher and stock prices lower.
+There’s little chance they will fall soon. Although inflation globally has begun to slow, the pace remains far above target for many central banks, which have vowed to continue their fight.
+Rouble set to depreciate after recovering from post-invasion low
+One year on from Russia’s invasion of Ukraine and the rouble’s value against the dollar is close to where it was at the start of the conflict — although there have been plenty of twists along the way.
+The Russian currency halved in value to a record low of 150 to the dollar in the month after Putin ordered troops into Ukraine, despite Russia’s central bank more than doubling interest rates to 20 per cent in late February in an attempt to calm the country’s increasingly strained financial system.
+European and US sanctions — designed to cut Russia out of the global payments system and freeze the hundreds of billions of dollars of reserves amassed by the Bank of Russia — swiftly followed. In late March, an emboldened US president Joe Biden declared that the rouble had been “almost immediately reduced to rubble” as a result.
+Then came the rebound. Moscow’s imposition of capital controls meant the rouble had recovered almost all of its losses by the start of April. The currency was also helped by the continued flow of oil and gas exports.
+It has gradually weakened since July, however, when it touched 51 against the dollar, a level last seen in 2015. Today it trades at 75.
+With Russia’s capital account all but closed for major hard currencies, “the exchange rate does not perform its forward-looking role based on expectations, it only reflects day to day trade flows, most of which is energy trade,” said Commerzbank analyst Tatha Ghose.
+Ghose expected the rouble to continue to depreciate against the greenback in 2023, dragged lower as western sanctions on Russian oil weigh on the country’s current account.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
-Le chef de l'Agence internationale de l'énergie a averti que l'Europe n'avait pas encore remporté sa guerre énergétique contre la Russie malgré une forte baisse des prix du gaz, et a exhorté les gouvernements à se concentrer sur la conservation et l'augmentation des approvisionnements. Fatih Birol a déclaré que, bien que l'UE ait évité une crise énergétique totale après la mise en œuvre par la Russie des armes, des pénuries et des coupures de courant généralisées, l'hiver prochain pourrait constituer un plus grand défi si le continent subissait des conditions météorologiques plus froides.
-Les prix européens du gaz naturel ont chuté de 85% depuis leur plus haut de 300 euros par mégawattheure en août, grâce aux efforts pour trouver des sources alternatives, à la conservation des approvisionnements existants et à la météo plus douce, ce qui a laissé un excédent de gaz en stock à l'approche de la fin de l'hiver. Cela a conduit certains acteurs de l'industrie à déclarer que Moscou avait déjà perdu la guerre énergétique qu'elle avait déclenchée pour essayer de réduire le soutien occidental à l'Ukraine, à l'approche du premier anniversaire de l'invasion à grande échelle de la Russie le 24 février.
-Birol a déclaré que, bien que l'Europe ait « bougé des montagnes » pour s'assurer qu'elle pouvait remplacer l'énergie russe et ait réduit les recettes de Moscou avec des sanctions pétrolières, elle ne pouvait pas se permettre de perdre de vue la conservation ou le développement de sources d'énergie renouvelables. Il a averti que la Russie pourrait couper les 20% restants des approvisionnements de gaz précédents qu'elle envoie encore en Europe par pipelines via l'Ukraine et la Turquie, tandis que la concurrence pour les approvisionnements en gaz naturel liquéfié par mer augmentera probablement à mesure que l'économie chinoise continuera à se réouvrir.</t>
+          <t xml:space="preserve">
+L’invasion russe de l'Ukraine il y a un an a secoué les marchés mondiaux. Avec aucune fin en vue du conflit le plus intense en Europe depuis la Seconde Guerre mondiale, les effets sont toujours présents. La guerre énergétique de Vladimir Poutine contre l'Europe n'a pas été une réussite. Les exportations russes de gaz vers l'UE ont été réduites de plus de 75 %, mais les prix du gaz ont chuté de 85 % depuis leur pic en août et les stocks de gaz sont élevés. Les traders scrutent l'extension de l'accord de commerce de grains dans la mer Noire entre Kyiv et Moscou qui expire le mois prochain. L'inflation est restée élevée, ce qui a poussé les banques centrales à relever les taux d'intérêt et à réduire les actions. La valeur du rouble a été presque réduite à néant, mais elle s'est ensuite reprise et a maintenant tendance à se déprécier à nouveau.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chef de l'AIE met en garde : la guerre énergétique de l'Europe contre la Russie n'est pas terminée.</t>
+Les marchés mondiaux montent et descendent avec la guerre en Ukraine</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Investors increase bets on ECB lifting rates to all-time high</t>
+          <t>US stocks record worst weekly loss in 2 months on inflation fears</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/content/fba2101e-aa62-4f73-ad8a-958e442234a9</t>
+          <t>/content/f74f14b4-5de1-4ef6-aa18-b4c0d7cedb69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Investors are betting the European Central Bank will raise interest rates to all-time highs, spurred on by the eurozone economy’s resilience and signs that inflation could prove tougher to rein in than expected.
-The Frankfurt-based central bank, widely seen as one of the world’s most dovish during its eight-year experiment with negative borrowing costs, is now expected to raise rates substantially this year.
-Swap markets are pricing in a jump in the ECB’s deposit rate to 3.75 per cent by September, up from the current 2.5 per cent. That would match the benchmark’s 2001 peak, when the ECB was still trying to shore up the value of the newly launched euro.
-“It is really surprising to see the ECB now looking like the most hawkish of the big central banks,” said Sandra Phlippen, chief economist at Dutch bank ABN Amro.
-Markets have revised forecasts of interest rates upwards after recent eurozone data on buoyant service-sector activity and wage demands.
-ECB president Christine Lagarde said on Tuesday that the bank was “looking at wages and negotiated wages very, very closely” — an indication of concern a sharp rise in salaries this year will maintain pressure on prices as companies pass costs on to consumers.
-The yield on German two-year bonds, which are highly sensitive to changes in interest rate expectations, hit a 14-year high of 2.95 per cent on Tuesday after the S&amp;P Global purchasing managers’ index outstripped forecasts.
-The prospect of further substantial rate rises in the eurozone contrasts with the US and the UK, which are widely considered to be closer to the end of their interest rate rise cycles, having already increased borrowing costs earlier and by more than the ECB.
-However, US stock markets fell sharply on Tuesday as upbeat economic data prompted investors to re-evaluate how much further the Federal Reserve may raise rates.
-Eurozone inflation of 8.5 per cent in January compares with 6.4 per cent in the US. While UK inflation remains in double digits, it has fallen faster than expected and the country’s anaemic growth outlook has diminished pressure on the Bank of England to increase rates.
-In the past week Goldman Sachs, Barclays and Berenberg have raised to 3.5 per cent their forecasts for how much further the ECB will raise rates. Deutsche Bank on Wednesday raised its forecast to 3.75 per cent.
-“There is a risk that inflation proves to be more persistent than is currently priced by financial markets,” Isabel Schnabel, an ECB executive board member, told Bloomberg this week.
-Frederik Ducrozet, head of macroeconomic research at Pictet Wealth Management, forecast ECB rates would peak at 3.5 per cent but added the central bank could “still be in tightening mode by September and that takes you close to a deposit rate of 4 per cent”.
-The ECB has already raised rates by an unprecedented 3 percentage points since last summer and this month signalled plans for another half percentage point move in March.
-Wages in the 20-country bloc have been growing at close to 5 per cent in recent months, according to a tracker published by the Irish central bank and jobs website Indeed.
-Unions are responding to last year’s record inflation by demanding even higher pay rises. FNV, the biggest Dutch union, is calling for a 16.9 per cent pay rise for transport workers, while Germany’s Verdi union wants 10 per cent pay rises for 2.5mn public sector workers.
-Although eurozone inflation has fallen for three consecutive months, core inflation — stripping out energy and food prices to show underlying price pressures — was unchanged at a record 5.2 per cent in January.
-“The performance of the economy is obviously good news in the short term for the eurozone, but for the ECB . . . it could suggest they may have more work to do on policy rates,” said Konstantin Veit, portfolio manager at bond investor Pimco. He added that the ECB had made clear that inflation fighting was its “absolute top priority”.
-Ducrozet at Pictet added: “Even the most moderate doves [in the ECB] are talking about a series of rate rises and not stopping anytime soon.”
-Resilient economic data across advanced economies this month has led economists and financial experts to bet that interest rates will stay higher for longer than they previously considered.
-“There has been a repricing in major developed rates markets,” said Silvia Ardagna, an economist at UK bank Barclays. “The fact that US core inflation was a bit stronger than expected last month has made everyone think that maybe it hasn’t peaked yet.”</t>
+          <t>US stocks have recorded their biggest weekly fall in more than two months, declining further on Friday after traders were shaken by the latest evidence of stubbornly high inflation in the world’s largest economy.
+The S&amp;P 500 index closed down 1.1 per cent in New York, bringing its losses for the week to 2.7 per cent. The tech-heavy Nasdaq Composite was 1.7 per cent lower for the day, for a 3.3 per cent decline for the week. The weekly declines were the sharpest since early December.
+After an unexpectedly strong start to the year, US stocks have now declined for three consecutive weeks. Recent economic data has increased expectations that the Federal Reserve will have to hold interest rates at higher rates for an extended period to bring inflation back towards its 2 per cent target, putting pressure on equity valuations.
+Central bank officials have repeatedly warned that rates would be high for some time, but Jonathan Golub, chief US market strategist at Credit Suisse, said “the market wasn’t listening” until the recent data convinced them.
+The most recent disappointment came on Friday as data showed core monthly personal consumption expenditures — the Fed’s preferred measure of inflation — rose more than expected in January. Prices increased 0.6 per cent month on month, and 4.7 per cent year on year — substantially more than average forecasts of a 4.3 per cent annual rise.
+“The market is now beginning to discount a different kind of backdrop” featuring a combination of stubborn inflation and weak economic growth, said Golub. “It’s ‘stagflation lite’.”
+Friday’s figures followed strong labour market, consumer price and retail spending data released earlier this month.
+Susan Collins, president of the Federal Reserve Bank of Boston, said on Friday that the data “reinforce my view that we have more work to do to bring inflation down to the 2 per cent target.
+“I anticipate further rate increases to reach a sufficiently restrictive level, and then holding there for some, perhaps extended, time.”
+US Treasuries sold off alongside stocks, with the yield on the interest rate-sensitive two-year note rising 0.12 percentage points to 4.81 per cent, the highest since June 2007. Yields rise when prices fall. The 10-year Treasury yield climbed 0.07 percentage points to 3.95 per cent.
+Markets are now pricing in a rise in the benchmark federal-funds rate to between 5.25 per cent and 5.5 per cent by July — more than half a percentage point higher than where investors thought rates would peak at the start of February.
+European stocks also dropped on Friday. The region-wide Stoxx 600 fell 1 per cent, while London’s FTSE 100 dipped 0.4 per cent.
+Germany’s Dax declined 1.7 per cent and the French CAC 40 was down 1.8 per cent.
+Investors are also concerned that the European Central Bank will lift rates further. Joachim Nagel, president of the Bundesbank and a member of the ECB’s governing council, said on Friday that inflation was likely to “remain at very high levels”, requiring “significant interest rate hikes beyond March”.
+Earlier in Asia, the Hang Seng index fell 1.7 per cent, while China’s CSI 300 lost 1 per cent. Although ecommerce group Alibaba beat analysts’ expectations with its fourth-quarter earnings, its shares fell 5.4 per cent, suggesting investor skittishness over China’s economy despite the government easing Covid-19 restrictions.
+The dollar index, which measures the greenback against a basket of six peers, rose 0.6 per cent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les investisseurs parient que la Banque centrale européenne (BCE) va relever ses taux d'intérêt à des niveaux records, stimulée par la résistance de l'économie de la zone euro et des signes que l'inflation pourrait s'avérer plus difficile à maîtriser que prévu. Les marchés swaps anticipent un bond du taux de dépôt de la BCE à 3,75 % en septembre, contre 2,5 % actuellement. Cela équivaudrait au record de 2001, lorsque la BCE cherchait encore à soutenir la valeur de l'euro nouvellement lancé.
-Les données économiques récentes sur l'activité des secteurs des services dynamique et les demandes salariales ont fait remonter les prévisions des taux d'intérêt. La présidente de la BCE, Christine Lagarde, a déclaré mardi qu'elle « surveillait très étroitement les salaires et les salaires négociés », ce qui indique son inquiétude face à une forte augmentation des salaires cette année, qui pourrait maintenir la pression sur les prix lorsque les entreprises répercutent leurs coûts sur les consommateurs.
-Les marchés boursiers américains ont chuté mardi, car les données économiques optimistes ont incité les investisseurs à réévaluer la hausse des taux que la Réserve fédérale pourrait encore imposer. L'inflation dans la zone euro étant plus élevée que dans d'autres pays développés, des analystes tels que Goldman Sachs, Barclays et Berenberg ont relevé leurs prévisions des taux de la BCE à 3,5 %. La banque Deutsche a relevé sa prévision à 3,75 %. La BCE ayant déjà relevé ses taux de 3 points de pourcentage depuis l'été dernier, elle a indiqué ce mois-ci son intention d'effectuer une hausse supplémentaire d'un demi-point de pourcentage en mars.</t>
+Les marchés boursiers américains ont connu leur plus grand recul hebdomadaire depuis plus de deux mois, enregistrant une baisse supplémentaire vendredi après que les traders aient été choqués par les dernières preuves d'une inflation persistante dans la plus grande économie du monde. L'indice S&amp;P 500 a clôturé à une baisse de 1,1 % à New York, ce qui porte ses pertes à la semaine à 2,7 %. Le Nasdaq Composite, riche en technologie, était 1,7 % plus bas pour la journée, pour une baisse de 3,3 % pour la semaine. Les baisses hebdomadaires étaient les plus importantes depuis le début décembre.
+Les données économiques récentes ont augmenté les attentes selon lesquelles la Réserve fédérale devra maintenir les taux d'intérêt à des niveaux plus élevés pendant une période prolongée afin de ramener l'inflation vers sa cible de 2 %, ce qui a mis la pression sur les valorisations boursières. Les responsables de la banque centrale ont répété à maintes reprises qu'ils maintiendraient les taux à un niveau élevé pendant un certain temps, mais Jonathan Golub, stratège en chef des marchés américains chez Credit Suisse, a déclaré que "le marché n'écoutait pas" jusqu'à ce que les données récentes le convainquent.
+Les plus récentes déceptions sont venues vendredi, lorsque des données ont montré que les dépenses personnelles de base mensuelles, mesure privilégiée par la Fed pour mesurer l'inflation, avaient augmenté plus que prévu en janvier. Les prix ont augmenté de 0,6 % par rapport au mois précédent et de 4,7 % par rapport à l'année précédente, nettement plus que les prévisions moyennes d'une hausse annuelle de 4,3 %.
+Les marchés obligataires américains ont également été vendus, avec le rendement du titre à taux d'intérêt à deux ans, sensible aux taux, augmentant de 0,12 point de pourcentage à 4,81 %, le plus haut depuis juin 2007. Les rendements du titre à 10 ans ont grimpé de 0,07 point de pourcentage à 3,95 %.
+Les marchés sont maintenant en train de prix en compte une hausse du taux de fonds directeur de référence à 5,25 % à 5,5 % d'ici juillet, soit plus de la moitié d'un point de pourcentage au-dessus de l'endroit où les investisseurs pensaient que les taux atteindraient le début de février.
+Les marchés boursiers européens ont également reculé vendredi. L'indice Stoxx 600 régional a chuté de 1 %, tandis que le FTSE 100 de Londres a reculé de 0,4 %. Le Dax allemand a reculé de 1,7 % et le CAC 40 français de 1,8 %.
+Les investisseurs s'inquiètent également que la Banque centrale européenne relève encore les taux. Joachim Nagel, président de la Bundesbank et membre du conseil de direction de la BCE, a déclaré vendredi que l'inflation était susceptible de "rester à des niveaux très élevés", ce qui nécessiterait "des hausses significatives des taux d'intérêt au-delà de mars".
+Plus tôt en Asie, l'indice Hang Seng a reculé de 1,7 %, tandis que le CSI 300 chinois a perdu 1 %. Bien que le groupe de commerce électronique Alibaba ait battu les attentes des analystes avec ses résultats du quatrième trimestre, ses actions ont chuté de 5,4 %, ce qui suggère une nervosité des investisseurs face à l'économie chinoise malgré l'allégement des restrictions liées à la Covid-19 par le gouvernement.
+L'indice du dollar, qui mesure le dollar américain par rapport à un panier de six pairs, a progressé de 0,6 %.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les investisseurs augmentent leurs paris sur la hausse des taux de la BCE à un niveau record.</t>
+Les actions américaines enregistrent leur plus grande perte hebdomadaire en 2 mois à cause des craintes d'inflation.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>US stocks fluctuate as investors assess rate rise talk in Fed minutes</t>
+          <t>FTX founder hit with further criminal charges</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/content/a03cc685-63be-4c62-8dd6-0c63321d31db</t>
+          <t>/content/e15f3bdb-341a-4a55-9516-458c27d3ac56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>US stocks fell on Wednesday after investors pored over the minutes of the Federal Reserve’s last meeting, which indicated that most central bankers backed its recent quarter-point increase but some favoured a bigger rise.
-In New York, the blue-chip S&amp;P 500 index lost 0.2 per cent and the tech-heavy Nasdaq Composite gained 0.1 per cent, paring earlier gains from before the release of the minutes.
-The summary of the Fed’s latest policy meeting, which ended on February 1, revealed that almost all officials backed its decision to raise its benchmark interest rate by a quarter of a percentage point, but a few preferred a half-point increase. St Louis Fed president James Bullard has said in recent weeks that he favoured a larger increase as the central bank takes aim at inflation.
-“The participants favouring a 50-basis point increase noted that a larger increase would more quickly bring the target range close to the levels they believed would achieve a sufficiently restrictive stance,” the minutes said.
-In the weeks since the meeting, fresh data has indicated that the US economy may be running even hotter than central bankers believed three weeks ago.
-“The Fed minutes are a little out of date because there was a blowout jobs report and a robust consumer spending report after the Fed meeting, showing inflationary pressures are likely stronger than previously feared,” said Chris Zaccarelli, chief investment officer of Independent Advisor Alliance.
-The moves came a day after US stocks recorded their worst trading session in two months, as traders were unnerved by evidence of a resilient economy and the prospect of further interest rate rises.
-Yields on long- and short-dated Treasuries were lower after a slight rebound following the minutes. Benchmark 10-year US Treasuries fell to 3.92 per cent. Yields on interest rate-sensitive two-year notes fell to 4.70 per cent after touching a three-month high on Tuesday.
-“If you compare sentiment to one month ago, people were expecting the Fed might only have a little room left to hike,” said Dickie Wong, head of research at Kingston Securities. “But now it looks like inflation may not ease up and the Fed will have to raise rates repeatedly.”
-Earlier on Wednesday, European and Asian stocks weakened, dragged down by Tuesday’s falls in the US and signs of economic optimism in the eurozone.
-The Europe-wide Stoxx 600 declined 0.3 per cent and Germany’s Dax was flat. London’s FTSE 100 declined 0.6 per cent.
-“It’s no great surprise” that the strong surveys of business activity in the US and eurozone this week had dented equities, said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics. “We’re in this world where good news is bad news, so strong PMIs have prompted investors to expect a higher peak in interest rates.”
-In Asian markets, Japan’s benchmark Topix index fell 1.1 per cent, while China’s CSI 300 index of Shanghai- and Shenzhen-listed stocks slipped 0.9 per cent and Australia’s S&amp;P/ASX 200 fell 0.3 per cent.
-In currency markets, the dollar index, which measures the greenback against six peer currencies, rose 0.4 per cent. The euro fell 0.4 per cent against the dollar.
-The price of Brent crude oil fell 3 per cent to $80.60 a barrel, while WTI, the US equivalent, dropped 3.2 per cent to $73.95 a barrel.</t>
+          <t>US prosecutors have widened their criminal case against Sam Bankman-Fried, adding new charges and detailing a “series of systems and schemes” through which they allege the FTX founder siphoned off billions of dollars from customer deposits.
+The updated indictment, released on Thursday morning, added charges including securities fraud and conspiracy to commit bank fraud. That brought the total number of criminal counts against the former billionaire to 12.
+Bankman-Fried was originally charged with eight criminal counts in December 2022 and was extradited from his home in the Bahamas soon afterwards. He has pleaded not guilty to all of the original charges.
+The 39-page document details how Bankman-Fried posted “a series of false and misleading tweets” in the days following revelations about a hole in the cryptocurrency exchange’s balance sheet in November. It also claims Bankman-Fried sought to influence politicians of both major US political parties by donating tens of millions of dollars to campaigns.
+Some of the more than 300 donations made to Democrats and Republicans were “made in the names of others in order to obscure the true source of the money and evade federal election law”, which allowed Bankman-Fried to “evade contribution limits on individual donations to candidates to whom he had already donated”, the prosecutors alleged.
+In one example, Bankman-Fried allegedly authorised a donation of at least $1mn to a congressional candidate running in the 2022 election, who “appeared to be affiliated with pro-LGBTQ issues”.
+A political consultant working for Bankman-Fried asked a third party to make the contribution and said: “In general, you being the centre-left face of our spending will mean you giving to a lot of woke shit for transactional purposes,” the prosecutors alleged.
+Before FTX’s collapse last year, Bankman-Fried became the de facto face of the crypto industry and had testified before powerful congressional committees. The former FTX chief executive was vocal in his support for crypto-focused legislation in the US and became the second-largest contributor to the Democrats before last year’s midterm elections.
+A representative for Bankman-Fried declined to comment.
+The new charge sheet includes evidence that appears to come from two of Bankman-Fried’s closest former colleagues — the head of FTX’s trading affiliate Alameda, Caroline Ellison, and FTX co-founder Gary Wang. Ellison and Wang pleaded guilty to criminal charges in December and agreed to co-operate with US prosecutors.
+Recommended
+FT Magazine
+‘Sam? Are you there?!’ The bizarre and brutal final hours of FTX
+As FTX was collapsing, Bankman-Fried “doubled down on his fraudulent schemes by soliciting billions of dollars in additional capital investments from existing and potential investors in FTX, many of whom he had previously defrauded”, the indictment alleged.
+Bankman-Fried sent a falsely labelled balance sheet to investors in November to assure them FTX had the funds to meet withdrawal demands, but which in fact obscured an $8bn hole, the prosecutors said. He had previously devised ways of disguising how FTX money was being used to make investments via Alameda, they alleged.
+“Despite representations [Bankman-Fried] made and caused to be made to the contrary, FTX never held customer funds in dedicated accounts for the benefit of customers or segregated from Alameda’s assets,” the indictment alleged.
+A trial date has been set for October 2023.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les marchés boursiers américains ont reculé mercredi après que les investisseurs aient étudié les minutes de la dernière réunion de la Réserve Fédérale, qui indiquent que la plupart des banquiers centraux ont soutenu sa récente hausse d'un quart de point, mais certains préféraient une hausse plus importante.
-En Europe et en Asie, les actions ont reculé sous le poids des baisses de mardi aux États-Unis et des signes d'optimisme économique dans la zone euro.
-Les taux des bons du Trésor à long et à court terme ont été plus faibles après une légère reprise suite aux minutes.
-Les données récentes indiquent que l'économie américaine peut être plus chaude que ce que les banquiers centraux croyaient il y a trois semaines. Les investisseurs craignent que la Fed ait à relever les taux plusieurs fois.
-Dans les marchés des changes, l'indice du dollar, qui mesure le dollar contre six devises, a augmenté de 0,4%. L'euro a reculé de 0,4% contre le dollar.
-Le prix du Brent a chuté de 3% à 80,60 dollars le baril, tandis que le WTI, l'équivalent américain, a baissé de 3,2% à 73,95 dollars le baril.</t>
+Résumé : Sam Bankman-Fried, fondateur de FTX, est accusé de 12 chefs d'accusation, y compris de fraude en matière de titres et de complot en vue de commettre une fraude bancaire. Les procureurs affirment que Bankman-Fried a fait des déclarations fausses et trompeuses sur les médias sociaux et a donné des dizaines de millions de dollars à des campagnes politiques pour influencer les politiciens des deux principaux partis politiques américains. Selon l'accusation, Bankman-Fried a également demandé des investissements supplémentaires de plusieurs milliards de dollars à des investisseurs existants et potentiels, bien qu'il sache qu'il n'avait pas les fonds pour rembourser les dépôts des clients. Une audience de procès est prévue pour octobre 2023.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les actions américaines fluctuent alors que les investisseurs évaluent les discussions sur la hausse des taux dans les minutes de la Fed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>The Fed alone cannot bring inflation down</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>/content/c4a030b0-45a2-4bb1-93ff-830e78f2bc6c</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The writer is the founder of Sahm Consulting and a former Federal Reserve and White House economist
-The Federal Reserve is the only institution in the US with an official mandate to maintain stable prices. Even so, the Fed is not the only institution we need to help fight inflation, especially given the supply disruptions from the pandemic and the war in Ukraine.
-The Fed, by raising interest rates, can push down demand, but it cannot push up supply. And Adam Shapiro, an economist at the San Francisco Fed, estimates that about 40 per cent of inflation is supply-driven, 40 per cent is demand-driven, and the other 20 per cent is ambiguous. Given that reality, the Fed alone cannot get inflation back to the 2 per cent target.
-The Fed’s primary tool to rein in inflation is the federal funds rate which influences the interest rates at which consumers and businesses borrow. The Fed rate rises work through financial markets and monetary policy is only one factor determining the price of debt, meaning that the central bank’s main tool is not a precise one.
-In addition, forward-looking markets incorporate expectations of future Fed decisions in today’s interest rates. Those expectations may or may not align with the Fed’s actual intentions. For example, overall financial conditions, measured by a Chicago Fed index, had become more restrictive since the Fed began raising rates last year. But in October, the index began falling, suggesting that financial conditions are becoming more supportive of demand. An even clearer example: mortgage rates have moved down about a percentage point from their peak of 7 per cent in November, even as the Fed continued to increase the federal funds by 0.75 percentage points.
-The finances of households also suggest that changes to the federal funds rate may not have as powerful an effect on demand. Households, including those with lower income, have substantially more savings than before the pandemic, which allows them to buffer the higher costs of borrowing. Plus, during the pandemic, many were able to pay down debt. In addition, many homeowners with 30-year fixed mortgages had locked in the low rates that prevailed before the recent rises. If interest rates are less relevant to spending, that means the Fed is less relevant too.
-Even so, the Fed is influencing demand in interest rate-sensitive sectors. Business fixed investment has contracted since the second quarter of last year and housing starts plunged by 20 per cent. However, the effects on the labour market are modest even in areas such as construction. Companies are likely holding on to workers because it has been so hard to rehire. If people keep their jobs, it’s hard to get demand down. And if the labour market is strong, it will be harder for the Fed to contain inflation.
-An important lesson is that supply is crucial to the economy. More workers ease the labour shortage and upward pressure on wages. Last year, 1mn more immigrants came to the US, continuing the rebound from pandemic lows. Julia Coronado, the founder of Macropolicy Perspectives, expects immigration to continue to rise in the coming years. That should help ease the labour shortages and push down on inflation, even though they will increase demand. Again, the Fed had no influence on immigration policy. The best way to solve a labour shortage is with more workers, not fewer customers. But the Fed can only give us less demand and fewer customers.
-Fortunately, Congress and the White House can influence supply. A key example is the Biden administration’s efforts to bring oil and gasoline down after Russia’s invasion of Ukraine. These included the opening of the Strategic Petroleum Reserve and guaranteeing producers a price to buy oil and refill the reserve. Oil production rose last year and the national price of gasoline is back below pre-invasion levels.
-An important advantage of fiscal policy is its ability to target certain sectors critical to restraining inflation, in contrast to the Fed’s imprecise tools. The US infrastructure bill, the Chips Act to boost domestic semiconductor production, and the Inflation Reduction Act all have elements that will help with inflation, especially in the future, by creating or fortifying supply.
-The Fed absolutely has a role to play and its rate rises are almost certainly contributing to the slowing of growth. At the same time, demand management is not an efficient way to deal with supply-driven inflation. It is harder to co-ordinate fiscal policy, but the past two years have shown it can be done, and it must be done. The challenge is to do it well.
- </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Résumé SEO de l'article: La Réserve fédérale des États-Unis est l'institution chargée de maintenir la stabilité des prix. Cependant, elle ne peut pas lutter seule contre l'inflation, en particulier en raison des perturbations de l'approvisionnement provoquées par la pandémie et la guerre en Ukraine. La hausse des taux d'intérêt par la Réserve fédérale peut réduire la demande, mais pas l'offre. La politique monétaire est seulement un facteur déterminant le prix de la dette, ce qui signifie que l'outil principal de la banque centrale n'est pas précis. De plus, les marchés anticipent les décisions futures de la Réserve fédérale et ces attentes peuvent ne pas être en accord avec ses intentions réelles. Les finances des ménages suggèrent également que les modifications du taux fédéral des fonds peuvent ne pas avoir un effet aussi puissant sur la demande. La politique budgétaire peut cibler des secteurs clés pour contenir l'inflation, contrairement aux outils imprécis de la Réserve fédérale. Les efforts de l'administration Biden pour abaisser les prix du pétrole et de l'essence après l'invasion de la Russie en Ukraine sont un exemple clé. La politique budgétaire a un avantage important: elle peut cibler des secteurs critiques pour contenir l'inflation. La Réserve fédérale joue certainement un rôle et ses hausses des taux contribuent probablement à la ralentissement de la croissance. La meilleure façon de résoudre une pénurie de main-d'œuvre est d'avoir plus de travailleurs, pas moins de clients. Cependant, le Congrès et la Maison-Blanche peuvent influencer l'offre.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-La Fed seule ne peut pas ramener l'inflation à la baisse.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>We’re not nearly there yet</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>/content/84a791e3-c81c-4dd4-a85f-6b8b557008f9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>This article is an on-site version of our Unhedged newsletter. Sign up here to get the newsletter sent straight to your inbox every weekday
-Good morning. It’s Jenn Hughes here in New York, helping out Ethan while Rob is away. Silicon Valley Bank is attracting short sellers, the FT reports, following a soured bet on mortgage-backed securities hurt by rising rates. Bank troubles with securitisations sound too 2008 for words. But then, right now almost everything is hostage to the Federal Reserve in some form. Is there any other game in town? Email me: jennifer.hughes@ft.com.
-Markets extend Presidents’ Day sales
-Monday’s Presidents’ Day holiday in the US is about honouring the leaders of the free world — and also the first big retail discounts of the year. On Tuesday Wall Street came back from bargain-hunting white goods and put virtually the entire stock market on sale.
-The S&amp;P 500 is still almost 4 per cent higher so far this year, but that’s less than half its February 2 peak when it boasted a near-9 per cent gain. Tuesday’s 2 per cent fall was its worst in two months. On Wednesday the selling eased, but the general gloom persisted and blue-chips once again closed lower.
-Tuesday is worth revisiting because there wasn’t an obvious cause of the misery. Early blame went to a so-so outlook from Walmart and Home Depot’s warning of weaker full-year earnings on flat sales. But Walmart was one of the few stocks to end Tuesday higher and it was hardly a surprise that everyone’s favourite lockdown home renovation store was struggling as the housing market slows.
-That lack of a specific cause brings this all back to the Federal Reserve and the cranking higher of interest rate expectations since the stupendously strong February 3 jobs numbers, followed by higher inflation data and buoyant retail sales.
-The key, says Eric Theoret, global macro strategist at Manulife Investment Management, is the scale of the change in thinking. Break-even rates paint a simpler, more stark picture than interest rate futures:
-Break-evens — the difference between yields on regular and inflation-protected bonds with similar maturity — are a market prediction of inflation rates. Since January, two-year break-evens have shot up from 2 per cent or thereabouts, to 3 per cent, well above the Fed’s inflation target.
-“You had a Fed that could look at break-evens then and say ‘mission accomplished’ in terms of inflation expectations but since payrolls on February 3, you’ve had these massive shifts in the economy that say there’s actually a lot more work to be done,” Theoret added.
-It’s an ongoing adjustment, in other words. The minutes of the Fed’s February 1 meeting, released on Wednesday, support that too. Remember Jay Powell’s talk then of disinflation, and the unanimous vote for a quarter-point rate rise? The record shows more than one member actually supported a half-point increase.
-Said the Fed:
-A few participants stated that they favoured raising the target range for the federal funds rate 50 basis points at this meeting or that they could have supported raising the target by that amount.
-Given this inflationary gloom, stock markets need a fresh catalyst to shake off their misery. The current earnings season has been heavier on caution than the sort of optimism that might encourage new bets.
-Moreover, even the heavy selling of recent weeks hasn’t yet reduced the market to the sort of extreme bearish mood that makes it easier to find a new buying spur. Here, Bespoke Investment Group charts sentiment by the S&amp;P 500’s distance from its 50-day moving average. On this measure, stocks may have fallen sharply, but they’re only in neutral territory:
-Remember that January rally? With neither sentiment nor macro on the market’s side, it feels a world away.
-Fiddling while Canberra fumes
-If you thought Powell had a tough job, spare a thought for Philip Lowe. The governor of the Reserve Bank of Australia is fighting similar economic forces but is also under fire ahead of a government-ordered review of the RBA’s performance, due next month.
-It’s one to watch since central banking policymaking often follows broad global trends. Think of the move to greater central bank independence in the mid-1990s, or more recently the shift to greater transparency embodied by Powell’s 2018 introduction of press conferences after every rate-setting meeting.
-The RBA faces mounting public anger, not least because of its 2021 prediction that it didn’t expect it would need to raise rates until 2024 at the earliest. Lowe &amp; Co were hardly alone in underestimating inflation, but all (economic) news is local. Domestic reports abound of household pain, exacerbated by the country’s use of floating-rate mortgages, which the RBA reckons make up more than 60 per cent of home loans.
-For Australians, the RBA has been tightening at an unprecedented pace, although the Fed’s actions mean Americans might wonder what the Aussies are so unhappy about:
-Lowe hasn’t helped himself. Earlier this month he was blasted for declining to give an annual public address but still attending a private lunch for bank traders days after the RBA delivered an unexpectedly hawkish outlook. “Yields rose as Lowe, traders lunched” trumpeted the Australian Financial Review’s scoop story.
-The danger is that the more the unassuming Lowe is made to look Nero-like, the more likely that the review’s findings are reduced to a political weapon. There are more than a few governments around the world that might like a chance to shift some economic criticism and budget debates on to wonkish rate-setters. US debt ceiling, anyone?
-One good read
-Why QT isn’t proving the watching-paint-dry experience that Janet Yellen promised.
-Recommended newsletters for you
-Cryptofinance — Scott Chipolina filters out the noise of the global cryptocurrency industry. Sign up here
-Swamp Notes — Expert insight on the intersection of money and power in US politics. Sign up here</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les marchés étendent les soldes du Jour des Présidents
-Le lundi, le Jour des Présidents aux États-Unis était consacré à l'honneur des dirigeants du monde libre, et aussi aux premiers gros rabais de l'année. Mardi, Wall Street est revenue des magasins à la recherche de bonnes affaires et a mis presque tout le marché boursier en solde.
-L'indice S&amp;P 500 est encore presque 4 % plus haut cette année, mais c'est moins de la moitié de son pic du 2 février, lorsqu'il affichait une hausse proche de 9 %. La baisse de 2 % de mardi était sa pire en deux mois. Mercredi, les ventes ont ralenti, mais la morosité générale persistait et les valeurs vedettes ont à nouveau clôturé en baisse.
-La cause de cette tristesse n'était pas évidente. Au début, on a mis en cause un horizon plutôt moyen de Walmart et l'avertissement de Home Depot d'une baisse des bénéfices annuels sur des ventes stables. Mais Walmart était l'une des rares actions à terminer mardi en hausse et il n'était pas surprenant que la boutique préférée de tous pour les rénovations à la maison en temps de verrouillage souffre de la ralentissement du marché immobilier.
-Cette absence de cause spécifique ramène tout cela à la Réserve fédérale et à l'accélération des attentes de taux d'intérêt depuis les chiffres stupéfiants de l'emploi du 3 février, suivis de données d'inflation plus élevées et de solides ventes au détail. La clé, selon Eric Theoret, stratège macro-global chez Manulife Investment Management, est l'ampleur du changement de pensée. Les taux d'équilibre indiquent une image plus simple et plus nette que les taux d'intérêt à terme:
-Les taux d'équilibre - la différence entre les rendements des obligations régulières et des obligations protégées contre l'inflation de maturité similaire - sont une prédiction du marché des taux d'inflation. Depuis janvier, les taux d'équilibre à deux ans ont bondi d'environ 2 % à 3 %, bien au-dessus de l'objectif d'inflation de la Fed.
-"Vous aviez une Fed qui pouvait regarder les taux d'équilibre à l'époque et dire 'mission accomplie' en termes d'attentes d'inflation, mais depuis les effectifs du 3 février, vous avez eu ces énormes mouvements dans l'économie qui disent qu'il y a en fait beaucoup plus de travail à faire", a ajouté Theoret.
-C'est une adaptation en cours, en d'autres termes. Les minutes de la réunion de la Fed du 1er février, publiées mercredi, soutiennent cela également. Rappelez-vous le discours de Jay Powell alors de la désinflation, et le vote unanime pour une hausse du taux d'un quart de point? Le registre montre que plus d'un membre a en fait soutenu une hausse du taux de demi-point.
-Selon la Fed:
-"Quelques participants ont déclaré qu'ils préféraient relever la fourchette cible du taux fédéral des fonds à 50 points de base à cette réunion ou qu'ils auraient pu soutenir une hausse de la cible de cette quantité".
-Face à cette morosité inflationniste, les marchés boursiers ont besoin d'un nouveau catalyseur pour se débarrasser de leur misère. La saison actuelle des bénéfices a été plus axée sur la prudence que sur le genre d'optimisme qui pourrait encourager de nouvelles paris.
-De plus, même les lourdes ventes des dernières semaines n'ont pas encore réduit le marché à l'humeur extrêmement baissière qui facilite la recherche d'un nouveau stimulant d'achat. Ici, Bespoke Investment Group présente les sentiments par rapport à la moyenne mobile à 50 jours de l'indice S&amp;P 500. Selon ce critère, les actions peuvent avoir chuté fortement, mais elles ne sont qu'en territoire neutre:
-Rappelez-vous ce rallye de janvier? Avec ni sentiment ni macro du côté du marché, cela semble un monde à part.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Nous n'en sommes pas encore là.</t>
+Le fondateur de FTX fait face à de nouvelles accusations pénales.</t>
         </is>
       </c>
     </row>

--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,301 +463,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Record-breaking global bond rally crumbles as fresh inflation fears grip investors</t>
+          <t>Chinese companies choose Switzerland over US and UK to raise money overseas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/content/b287997b-a048-426c-bab3-9a6a97486c17</t>
+          <t>/content/8bca0a24-0ebb-420e-bc65-447f924c3e23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The record-breaking global bond market rally since the start of this year has fizzled out as mounting signs of persistent inflation force investors to reverse their views on the likely future path of interest rate rises.
-Investors rushed into fixed income in the first few weeks of 2023 as they became increasingly expectant that the US Federal Reserve and other major central banks would soon end their aggressive campaign of monetary policy tightening.
-A Bloomberg index tracking high-grade government and corporate bonds rose as much as 4 per cent last month, its best ever start to the year.
-But that gain has now disappeared after a scorching US labour market report earlier this month kicked off a run of better than expected economic data on both sides of the Atlantic, upending expectations that the Fed and the European Central Bank were close to winning their battle with inflation.
-The resulting rise in bond yields has also upset a rally in the stock market, with the S&amp;P 500 losing 2.7 per cent in the past week.
-“We’ve had a reality check,” said Michael Metcalfe, head of macro strategy at State Street, adding that the easing of monetary policy expected by markets a few weeks ago “looked a little fanciful”.
-The biggest reversal has come in the US after data showed that employers added more than half a million jobs in January, nearly triple what economists had forecast, and that consumer price growth stood at 6.4 per cent — also above projections.
-On Friday the Fed’s preferred gauge of price growth — core monthly personal consumption expenditure — rose 0.6 per cent from December to January, higher than consensus forecasts.
-Futures markets, which had previously reflected bets that the US central bank would reduce interest rates twice later this year, now predict that rates will rise to 5.4 per cent by July, with at most a single cut by the end of the year.
-“Early this year, markets got ahead of themselves in terms of pricing in Fed cuts, hoping this cycle would end sooner,” said Idanna Appio, a portfolio manager at First Eagle Investment Management.
-“Things were priced for perfection — investors were betting that the Fed was going to get inflation down successfully and quickly. I think this process is going to take longer than people thought.”
-In a further reflection of shifting sentiment, bond fund flows have reversed in recent weeks — particularly at the riskier end of the credit spectrum.
-Emerging market bonds, which soared in January, this week saw the biggest outflows since October, JPMorgan data show. Globally, more than $7bn has leaked out of “junk” rated corporate bond funds so far in February, according to data from EPFR, after net inflows of $3.9bn in January.
-Investors are demanding a higher premium to hold high-yield, low-rated corporate debt than they were last month, when market ebullience diminished concerns about debt defaults.
-The gulf between yields on US junk bonds and those of Treasury notes tightened by as much as 0.87 percentage points from New Year’s Eve to reach 3.94 percentage points in mid-January. But that spread has since widened to 4.3 percentage points.
-John McClain, portfolio manager at Brandywine Global Investment Management, said rates would stay at a higher level than expected “for the foreseeable future”. 
-“We don’t anticipate rate cuts in 2023, and so that’s going to eventually lead to stress in the riskier segments of credit,” he said.
-The shift in investors’ expectations is an acknowledgement of the Fed’s insistence since the start of the year that rates would remain elevated for a prolonged period. A survey of Fed officials from December showed they expected borrowing costs to end the year at about 5.1 per cent.
-Now, some analysts are wondering whether the central bank’s own projections are too conservative.
-“There is a real chance that we could go over a 6 per cent rate. If the data continue to show improvement, there is a real chance that the Fed is behind the curve at the moment and that rates have to go up more than expected,” said Calvin Tse, head of Americas macro strategy at BNP Paribas.
-Some big investors say the recent sell-off is a sign that it is too soon to pile into bonds; that moment is likely to come later in the year.
-“Of course the Fed will at some point cut rates, but the market was trying to pre-empt that . . . and it was so, so premature,” said Sonal Desai, chief investment officer of Franklin Templeton. “I still think it is a very good year for fixed income. I just don’t think we’re there yet.”</t>
+          <t>Chinese companies are flocking to Switzerland to raise capital after being discouraged from listing in the US by geopolitical tensions and in Britain by tougher audit standards.
+Nine Chinese companies floated in Zurich last year, raising $3.2bn in the European country, according to SIX, the operator of the Swiss stock market. That far outstrips the $470mn they raised in New York, data from Dealogic stated.
+Their shift of focus to Switzerland comes in response to months of tensions between Beijing and Washington over standards for Chinese companies on US markets. The US sought greater access to listed companies’ financial audits but China resisted, citing a desire to protect state secrets.
+Zurich has particularly benefited from the unease as it has less-demanding requirements over the transparency of company audits.
+Dozens more Chinese companies are looking to use a link set up last year that connects the Shanghai and Shenzhen stock markets with the main market in Zurich, according to bankers and exchange executives.
+The “stock connect” scheme, modelled on a similar one with London, allows companies that are listed in one venue to raise capital on the other. Just five other companies floated on the Swiss market in 2022.
+“Switzerland is very much at risk of becoming a Chinese market,” said one senior executive at a rival exchange, adding that if all the Chinese companies that have announced plans to list go ahead, “then it will be more capital than was raised across all of European IPO volumes last year. You want lots of activity, but you do end up with a lot of risk if the enormous amount of your security comes from one jurisdiction”.
+This year the only listing in Switzerland has been Chinese — Zhejiang HangKe Technology Incorporated Co, which manufactures lithium battery equipment and raised $172mn.
+Rather than undertake a full listing, companies using Stock Connect issue global depositary receipts, which represent shares in overseas companies while the issuer holds the underlying shares in its home market.
+Valeria Ceccarelli, head of primary markets at SIX, said the surge in Chinese listings “confirms the attractiveness of SIX and the Swiss financial centre as an international hub for companies to raise capital”.
+For Chinese companies, overseas listings help make it easier to bypass tough domestic capital controls. Companies were raising money to fund their international growth and increase their visibility in Europe, Ceccarelli added.
+Recommended
+News in-depthNikkei Asia
+Switzerland helps China Inc satisfy its itch for overseas listings
+Some Chinese companies are also eyeing Britain, using the London Stock Exchange’s Stock Connect programme which has existed since 2019 and led to five issuers raising about $6.5bn.
+Two businesses have announced plans to list their shares in the UK so far this year — chemical company Yongtai and manufacturing group Lingyi iTech.
+But exchange executives say that a decision by the UK auditor regulator, the Financial Reporting Council, to not deem Chinese audit standards as equivalent to international standards has pushed more companies to Switzerland, which accepts Chinese accounts for depositary receipts.
+“Swiss authorities . . . do not waive any audit requirements, but treat Chinese companies the same as other foreign companies under the Swiss Audit Oversight Act,” Ceccarelli said.
+“At the end, the company decides where to list,” she said, adding that the exchange is aware of 20 more Chinese companies that plan to list in Europe through GDRs.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Les investisseurs ont afflué vers les obligations au début de 2023, car ils s'attendaient à ce que la Réserve fédérale des États-Unis et d'autres grandes banques centrales mettent bientôt fin à leur agressive campagne d'assouplissement monétaire. Cependant, un rapport sur le marché du travail américain plus tôt ce mois-ci a fait voler en éclats ces attentes, et les rendements des obligations se sont considérablement élevés. Les marchés à terme, qui reflétaient auparavant des paris sur des baisses des taux d'intérêt américains, prévoient maintenant une hausse à 5,4% d'ici juillet, avec au plus une seule baisse d'ici la fin de l'année. Les flux de fonds des fonds obligataires se sont également renversés, en particulier à l'extrémité plus risquée de la dette. Certains grands investisseurs disent que la récente baisse est un signe qu'il est trop tôt pour se ruer sur les obligations ; ce moment devrait arriver plus tard dans l'année.</t>
+          <t>Chinese companies are increasingly looking to Switzerland to raise capital, as geopolitical tensions discourage listing in the US and tougher audit standards discourage listing in the UK. Nine Chinese companies floated in Zurich last year, raising $3.2bn, and dozens more are looking to use the link set up last year that connects the Shanghai and Shenzhen stock markets with the main market in Zurich. Analysts have warned that Switzerland is increasingly at risk of becoming a Chinese market, but Valeria Ceccarelli, head of primary markets at SIX, argued that the surge in listings confirmed Switzerland's attraction as an international hub for companies to raise capital.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-La course effrénée des obligations mondiales qui a battu des records s'effondre alors que de nouvelles craintes d'inflation s'emparent des investisseurs.</t>
+          <t>Les entreprises chinoises choisissent la Suisse plutôt que les États-Unis et le Royaume-Uni pour lever des fonds à l'étranger.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bond rout of 2022 ended ‘golden age’ for fixed income</t>
+          <t>Private credit groups cut out banks with largest direct loan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/content/f94c233b-98a5-4f7d-b761-faf15f50ead1</t>
+          <t>/content/0d65e8d0-5354-40ed-9cb8-8c3fd1b0a31e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Last year was the worst for bond markets in more than a century and marked the end of a four-decade long “golden age” for the asset class which is unlikely to be repeated, according to a trio of academics.
-Global bonds lost 31 per cent in 2022, the worst annual performance for fixed income in data stretching back to 1900, Dr Mike Staunton and professors Elroy Dimson and Paul Marsh wrote in Credit Suisse’s latest Global Investment Returns Yearbook.
-UK bonds fared even worse, returning minus 39 per cent.
-Those declines stand in stark contrast to the reliable returns that bonds recorded between 1982 and 2021, when the world bond index provided an annualised real return of 6.3 per cent, the authors said. Global equities returned 7.4 per cent per year over the same period.
-But extrapolating the “astonishingly” high bond returns provided in the 40 years to 2021 into the future was “inappropriate” and “foolish”, the authors said, noting that since 1900 the average annualised real return for bonds across the 21 countries with continuous data was just 0.6 per cent. “For investors who had grown used to high bond returns and who saw bonds as a safe asset, [2022] returns were truly shocking.”
-It was not just bonds that endured a dire 2022, however. Equities, too, sold off sharply as high inflation forced major central banks to ratchet up interest rates at the fastest pace in decades, denting the allure of most risky assets and ending a bull market run that began in early 2020.
-Equities and bonds do not typically move in tandem. While stocks tend to be volatile, bond returns over the past 40 years, excluding 2022, have proved relatively steady and a hedge against equity declines. Investors hoping to mitigate market risk have long exploited the negative correlation between the two by deploying 60 per cent of their funds into equities and 40 per cent into bonds.
-Whether that strategy will once again bear fruit in 2023 after breaking down last year is a matter of hot debate.
-Equities are expected to suffer if and when the global economy slides into recession, while cooling inflation would ordinarily boost the allure of bonds. Yet 58 per cent of institutional investors surveyed by asset manager Amundi and consultancy Create Research in January said that the pattern of 2022 would persist this year.
-Even if bonds regain their role as a cushion against stock market losses, investors should not bank on equity-like returns from fixed income, Staunton, Marsh and Dimson said. “Golden ages, by definition, are exceptions. To understand risk and return in capital markets, we must examine periods much longer than 20 or even 40 years.”</t>
+          <t>Private credit groups including Apollo, Ares and Blackstone are poised to write the largest direct loan on record as they continue to muscle in on a lucrative business traditionally dominated by Wall Street banks.
+The lenders are increasingly confident they can edge out investment banks including JPMorgan Chase and Goldman Sachs in a deal to fund Carlyle’s acquisition of a 50 per cent stake in healthcare analytics company Cotiviti, according to five people briefed on the transaction.
+The $5.5bn loan to help buyout group Carlyle acquire the stake from rival Veritas Capital would be the biggest of its kind and could be announced in the coming days or weeks, the people added. The deal values Cotiviti at roughly $15bn.
+It underscores the growing power of private credit providers in the wake of the global financial crisis, which ushered in a new era of tougher capital requirements for banks that made it harder for them to fund risky takeovers.
+The trend has only accelerated in recent months after gyrating bond markets left banks struggling to offload debt they provided to fund big takeovers, including Elon Musk’s buyout of Twitter.
+“No longer is the large deal just the provenance of the banks,” said Kipp deVeer, head of credit at Ares.
+The financing package for Cotiviti, which would be accompanied by a $1bn investment in preferred shares, is one of several large private loans being discussed, according to executives in the private capital industry.
+The size of the potential deals is much higher than it would have been a few years ago when private loans tended to top out at $1bn to $2bn.
+“Folks have dry powder,” deVeer said. “If there is a high-quality company and high-quality transaction, most folks will . . . find plenty of capital and capacity to do that.”
+The amount of capital on offer is the product of a wave of fundraising by private credit funds, many of them operated by companies that started out as pure-play buyout groups.
+There has been an influx of retail investors into funds such as Blackstone’s private credit investment fund, known as Bcred, over the past three years, helping private capital groups write ever-larger cheques. Even after a wave of recent outflows, institutional investors remain committed to the market.
+Last week, Oaktree Capital co-founder Howard Marks told clients the group was trying to raise $10bn to fund loans for big buyouts. A few days earlier, Ares chief executive Michael Arougheti announced that the company would “embark on a pretty significant fundraising push”.
+The non-bank lenders have been attracted by the high returns on offer, with many loans yielding 6 or 7 percentage points over the floating rate benchmark, or roughly 11 per cent or 12 per cent in total. That number will rise further if the Federal Reserve and other central banks press ahead with their campaign to raise interest rates.
+“It has evolved into a consistent financial tool for borrowers and it has gone more and more upmarket,” said Dan Pietrzak, co-head of private credit at KKR. “The market has the capacity to do these multibillion-dollar deals.”
+Banks have been powerless to prevent the loss of the lucrative business to private credit rivals because the market for offloading debt to third-party investors has dried up of late.
+Lenders including Bank of America and Barclays have been forced to hold on to loans made to fund large buyouts, including the Twitter deal and the takeover of Citrix, leaving them nursing big losses.
+Alex Popov, head of illiquid credit at Carlyle, said “2022 really stopped capital markets. In terms of dislocation, this was as pronounced as it gets, where underwriters for any new transactions were essentially out of business.”
+Private credit remains one of the few sources of capital available at a time of tighter financial conditions, even after high-yield bond and leveraged loan markets have started to recover.
+Data from PitchBook LCD shows the vast majority of deals in the syndicated loan market — where banks underwrite the debt before selling slices of it to investors — have been done to refinance existing borrowings rather than funding takeovers.
+Recommended
+Inside BusinessEllen Carr
+The new LBO market: it’s gone private
+Bankers say the trend could reverse if markets become less volatile. “A lot of underwriters are on the sidelines and so to get a syndicated deal underwritten at scale is challenging. But . . . people will come back,” said Rob Fullerton, global head of leveraged finance at Jefferies.
+There was strong demand for the Cotiviti loan, the people briefed on the transaction said, with groups including HPS Investment jostling for a piece of the action alongside Apollo, Ares and Blackstone.
+Given the high level of demand, Carlyle has managed to push down the yield on the loan to about 6.25 percentage points over the Sofr benchmark rate, compared with the 6.5 percentage points that had been previously discussed, according to the people briefed on the talks.
+The private capital groups are discussing a sweetener that would allow Cotiviti to pay the interest on the loan by raising more debt, which is a factor in Carlyle preferring the funding package over a competing one being pitched by JPMorgan and Goldman Sachs.
+The discussions over the so-called payment-in-kind provision are still at an early stage and may not pan out. Two of the people said its inclusion in the deal would allow Cotiviti to preserve cash when the US is flirting with a recession.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-En 2022, les marchés obligataires ont connu la pire année de leur histoire, avec une perte de 31% à l'échelle mondiale et de 39% au Royaume-Uni. Cette performance contraste nettement avec les rendements stables et élevés enregistrés entre 1982 et 2021. Les experts craignent que cette période dorée ne se répète pas et que les rendements des obligations ne retrouvent pas leur rôle de protection contre les déclins boursiers. La stratégie d'investissement classique consistant à répartir 60% de ses fonds en actions et 40% en obligations est remise en question. Les analystes concluent que pour comprendre le risque et le rendement des marchés, il faut examiner des périodes bien plus longues que 20 ou 40 ans.</t>
+          <t>Private credit groups like Apollo, Ares, and Blackstone are poised to provide the largest direct loan on record for Carlyle’s acquisition of a 50% stake in Cotiviti, a healthcare analytics company. The $5.5bn loan would be the largest of its kind, reflecting the growing power and confidence of private credit providers. The influx of funding has led to large loans, yielding 6 or 7 percentage points over the floating rate benchmark, or roughly 11% or 12% in total. The loan for Carlyle is one of many large private loans being discussed as the market for offloading debt to third-party investors among banks dries up, leading to a loss of business to private credit rivals.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-La déroute des obligations de 2022 a mis fin à l'âge d'or des revenus fixes.</t>
+          <t>Les groupes de crédit privés évincent les banques avec les prêts directs les plus importants.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fed’s favoured inflation gauge accelerated in January</t>
+          <t>US blue-chips cling to gains as traders await interest rate hints</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/content/87593f86-501d-4e28-ac1f-bb72127bcc7f</t>
+          <t>/content/a1b42495-dc41-49b2-949c-957aa8d32bc7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The Federal Reserve’s preferred measure of inflation rose more than expected in January, triggering a Wall Street sell-off as investors weighed the prospect of interest rates staying higher for longer as the central bank fights stubborn price pressures.
-The personal consumption expenditures (PCE) price index, which measures how much consumers are paying for goods and services, increased 0.6 per cent month on month, after rising 0.2 per cent in December. The annual rate increased to 5.4 per cent in January from an upwardly revised figure of 5.3 per cent a month earlier.
-The so-called core PCE index, which strips out volatile food and energy costs and is the Fed’s preferred inflation metric, rose 0.6 per cent in January, up from 0.4 per cent in December. The annual rate increased to 4.7 per cent from an upwardly revised figure of 4.6 per cent in December, missing economists’ expectations for a moderation to 4.3 per cent.
-The figures were the latest in a string of new data releases including on employment, retail sales and other price gauges that have come in hotter than expected, prompting markets to factor in the prospect of US interest rates going higher and staying there for longer than they had expected.
-Following Friday’s figures, investors priced in a 39 per cent chance of a half-point rate rise at the Fed’s March meeting, compared with an 18 per cent likelihood a week ago, according to CME Group’s FedWatch tool. Bets on a quarter-point rise dropped from 82 per cent to 61 per cent over the same period.
-Cleveland Federal Reserve president Loretta Mester on Friday said the Fed should lean towards pushing interest rates higher to get inflation back down to the central bank’s 2 per cent target.
-“In my view, at this point with the labour market still strong, the costs of undershooting on policy or prematurely loosening policy still outweigh the costs of overshooting,” said Mester at the annual US Monetary Policy Forum hosted by the University of Chicago Booth.
-Following the February Fed meeting, Mester had said that she would have supported a half-point increase, versus the quarter-point raise that was announced. According to the minutes from that meeting, “a few” officials said they would have preferred a larger increase in rates, or could have been persuaded to support one.
-US president Joe Biden said in a statement that the latest figures showed that “we have made progress on inflation, but we have more work to do”. He insisted that the economy had “continued to make progress since the data in this report”, pointing to a recent downward trend in petrol prices.
-Stocks were under pressure on Friday as investors adjusted their interest rate expectations. The S&amp;P 500 closed 1.1 per cent lower on the day, taking the blue-chip index’s loss for the week to 2.7 per cent, which marked the biggest weekly drop since December. The Nasdaq Composite finished Friday’s session 1.7 per cent lower.
-“[The data] underscores the difficulty the Federal Reserve has in restoring price stability as consumers continue to spend at a healthy pace,” said Quincy Krosby, chief global strategist at broker LPL Financial.
-Bonds fell and yields moved higher as investors factored in the latest upward pressure on borrowing costs. Yields on benchmark 10-year notes rose 0.07 percentage points to 3.95 per cent, close to a three-month high hit earlier this week. Rate-sensitive two-year yields also rose and, at 4.81 per cent, were at their highest since the summer of 2007.
-“It is far too early . . . to buy the dips in bond prices, let alone trying to continue to buy the dips in the stock market,” said Chris Zaccarelli, chief investment officer at Independent Advisor Alliance. “We have been exercising much more caution and have advised our clients to be careful and not aggressive at this point in the economic cycle.”
-Fed chair Jay Powell warned earlier this month that taming inflation would take a “significant period of time”.
-Friday’s PCE data is consistent with the January consumer price index that registered a smaller monthly decline than expected as services inflation remained elevated.
-Personal consumption rose in January to 1.8 per cent from a revised decrease of 0.1 per cent in December, according to Bureau of Economic Analysis data on Friday. That missed economists’ expectations for an increase of 1.3 per cent. Inflation-adjusted personal spending increased 1.1 per cent in January.
-The PCE data showed that personal income growth quickened to 0.6 per cent in January from 0.3 per cent in December, but below economists’ expectations for a 1 per cent increase. The personal savings rate increased to 4.7 per cent in January, from 4.5 per cent in the previous month.</t>
+          <t>US blue-chips advanced for a third session on Monday — but barely — as investors awaited crucial data and central banker comments to give more direction on the future path for interest rates.
+The benchmark S&amp;P 500 squeezed out a 0.1 per cent gain, having been up almost 1 per cent around midday, but the tech-heavy Nasdaq Composite ended down 0.1 per cent after earlier rising 1.2 per cent.
+Investors have in recent weeks been forced to readjust forecasts for interest rates and economic growth in the US and Europe after a succession of data in February indicated a series of aggressive rate rises had yet to fully tame inflation.
+Yields on two-year Treasuries, which are more sensitive to interest rate changes, rose 0.03 percentage points to 4.89 per cent, but held below their 15-plus year peak near 4.95 per cent last week.
+The yield on the 10-year Treasury note was up 0.02 percentage points at 3.98 per cent, having hit 4 per cent, a three-month high, last week.
+The moves come ahead of US Federal Reserve chair Jay Powell’s semi-annual testimony to Congress over the next two days and the latest non-farm payroll report on Friday, which could potentially provide a dramatic end to the week.
+“Further labour market tightness could stoke persistently high core inflation and spur the Fed to keep rates higher for longer,” said analysts at BlackRock in an investment outlook note. “We’re also watching China’s trade data to see how much pressure remains on exports.”
+European stocks closed mixed although worries about Chinese growth weighed on commodity prices and dragged the FTSE 100 lower.
+London’s blue-chip index shed 0.2 per cent. Miners Anglo American and Rio Tinto lost 3.7 per cent and 2.8 per cent respectively.
+Europe’s benchmark Stoxx 600 gave up early gains to finish flat but some individual markets did better, with Germany’s Dax up 0.5 per cent and France’s CAC 40 ending 0.3 per cent higher.
+European stocks were dented somewhat by the release of Eurozone retail sales data. Month-on-month growth was 0.3 per cent in January. While an improvement from December’s fall of 1.7 per cent, it was below forecasts for a 1.3 per cent rise.
+“We’ve had surveys which held up better than expected, but the retail sales data is the first hard bit of data,” said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics.
+Christine Lagarde, president of the European Central Bank, is due to speak at a World Trade Organization event on Wednesday.
+Yields on 10-year German Bunds rose 0.01 percentage points to 2.73 per cent.
+The US dollar index, which measures the greenback against a basket of six peer currencies, fell 0.2 per cent.
+Brent crude rose 0.6 per cent to $86.32 a barrel, while WTI, the US equivalent, was up 08 per cent at $80.60 a barrel.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Les chiffres publiés vendredi par la Réserve fédérale montrent que l'inflation a augmenté plus que prévu en janvier, ce qui a entraîné une baisse des marchés boursiers car les investisseurs anticipent un maintien des taux d'intérêt plus élevés plus longtemps que prévu. L'indice des dépenses de consommation personnelle (PCE) a augmenté de 0,6 % par rapport au mois précédent et le taux annuel est passé à 5,4 %. De plus, l'indice de base PCE, qui exclut les coûts volatils des aliments et de l'énergie et qui est la mesure préférée de l'inflation de la Fed, a augmenté de 0,6 %. Les marchés ont ajusté leurs attentes de taux d'intérêt et les paris sur une hausse de 0,5 % lors de la réunion de mars de la Fed sont passés à 39 %. Loretta Mester, présidente de la Réserve fédérale de Cleveland, a déclaré que la Fed devrait plutôt augmenter les taux d'intérêt pour ramener l'inflation à la cible de 2 %. Les actions étaient sous pression vendredi et le S&amp;P 500 a clôturé en baisse de 1,1 %, pour une perte hebdomadaire de 2,7 %. Les taux des bons du Trésor à 10 ans ont également augmenté et sont à 3,95 %. Joe Biden a déclaré que les données montrent que "nous avons fait des progrès en matière d'inflation, mais nous avons encore du travail à faire". Jay Powell a averti plus tôt ce mois-ci que ramener l'inflation à un niveau stable prendrait "une période significative".</t>
+          <t>Les blue chips américains ont augmenté légèrement pour la troisième session consécutive lundi, mais les investisseurs attendent les commentaires des banquiers centraux et des données cruciales à venir pour plus de direction sur les taux d'intérêt futurs. Les données récentes indiquent que plusieurs hausses agressives de taux n'ont pas encore maîtrisé l'inflation. Les rendements des obligations américaines ont augmenté, les investisseurs cherchant à ajuster leurs prévisions. La présidente de la Banque centrale européenne s'exprimera lors d'un événement de l'Organisation mondiale du commerce mercredi. Les actions européennes ont clôturé de manière mitigée en raison des inquiétudes concernant la croissance chinoise. Les indices allemands et français ont enregistré une hausse tandis que l'indice FTSE 100 de Londres a chuté. Le pétrole Brent a augmenté de 0,6 %, atteignant 86,32 dollars le baril, tandis que le WTI était en hausse de 0,8 %, à 80,60 dollars le baril.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-L'indicateur d'inflation préféré de la Fed s'est accéléré en janvier.</t>
+          <t>Les blue-chips américains restent stables alors que les traders attendent des indications sur les taux d'intérêt.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Global markets ride Ukraine war roller-coaster</t>
+          <t>Gunvor chief says loss of Russian gas will cement US export role</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/content/92b4ef05-1ebc-439d-8d77-22e8f0600da1</t>
+          <t>/content/3c52d282-34d1-4926-8046-e4e503018bca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Russia’s invasion of Ukraine a year ago reverberated through global markets. With no end in sight to Europe’s most intense conflict since the second world war, the effects are still being felt.
-Financial Times reporters look at what has occurred in key markets and what might happen next.
-Putin’s energy war backfires
-Running almost in parallel to Russia’s invasion of Ukraine has been the energy war President Vladimir Putin unleashed against Europe. The squeeze on gas supplies started earlier, in what many industry commentators now believe was an attempt to weaken Europe’s resolve before the first shots were even fired.
-But Moscow’s weaponisation of gas supplies ramped up dramatically as western powers threw their support behind Kyiv.
-Russian gas exports, which once met about 40 per cent of Europe’s demand, have been cut by more than three-quarters to EU countries in the past year, stoking an energy crisis across the continent.
-But Putin’s energy war is no longer going to plan. Senior figures in the industry believe that for all Russia’s undoubted sway in oil and gas markets, the president is now staring at defeat in markets he once thought he could dominate.
-“Russia played the energy card and it did not win,” Fatih Birol, head of the International Energy Agency, told the Financial Times this week.
-“It wasn’t just meant to cause pain in Europe for its own sake it was designed to change European policy,” said Laurent Ruseckas, executive director at S&amp;P Global Commodity Insights. “If anything, it made Europe more determined not to be bullied into changing positions.”
-European gas prices have fallen by 85 per cent from their August peak, bolstering the wider economy, which now looks likely to avoid a deep recession.
-The continent has also avoided the worst potential outcomes such as outright gas shortages or rolling blackouts, which once seemed a distinct possibility.
-Indeed, there are signs that Europe is now better placed to tackle next winter too.
-Relatively mild weather and Europe’s success in tapping alternative supplies such as seaborne liquefied natural gas mean that storage facilities across the continent are far fuller than normal for the time of year.
-Gas in storage stood just below 65 per cent of capacity as of Wednesday, according to trade body Gas Infrastructure Europe, with only a month of winter still to run. On the day of Russia’s invasion, gas storage stood at just 29 per cent.
-“The storage refill issue for next winter is no longer a big burden,” said Ruseckas.
-Longer-term traders including Pierre Andurand, who has run one of the world’s most successful energy funds for more than 15 years, think Putin has already lost as he has obliterated his relationship with Russia’s main gas customer.
-While Russia wants to sell more gas to Asia, it could take a decade to reorient its pipelines east, with the gasfields that once supplied Europe not connected to the line it uses to feed China.
-Andurand this month argued that China would also be in a position to force a hard bargain with Moscow on price, and would not want to repeat Europe’s mistake of becoming too reliant on any one supplier.
-“Once Russia can only sell gas to China, Beijing will be in a position to decide the price,” Andurand said.
-Europe still faces challenges. While gas prices have plummeted from the near $500 a barrel level (in oil terms) they reached in August, they remain two-to-three times higher than historical norms.
-Russia still supplies about 10 per cent of the continent’s gas along pipelines running through Ukraine and Turkey. Should Moscow decide to cut those supplies it is likely to push prices higher again, although it may be wary of alienating Turkey.
-Europe will also potentially face stiffer competition for LNG supplies with Asia this year as China’s economy reopens after the end of zero-Covid, though there is some initial evidence that Beijing is more price sensitive than feared.
-Traders look to extension of grain export deal
-International traders are focused on the extension of the Black Sea grain export deal between Kyiv and Moscow that is due to expire next month, amid Ukrainian accusations that Russian inspectors were deliberately delaying the transit of grain ships in the port of Istanbul.
-The agreement, brokered by Turkey and the UN last July, allowed Ukrainian grain shipments to flow through the Black Sea, bringing prices down from their post-invasion peaks. Grain prices have since fallen to prewar levels although they remain historically high.
-Ukraine had been a leading player in the food commodity markets prior to the war, accounting for about 10 per cent of the global wheat export market, just under half of the sunflower oil market and 16 per cent of the corn market.
-Last November, the deal was extended despite Putin’s threats to terminate it, and there is heightened uncertainty over how Moscow will act at the negotiation table.
-“If [the deal] is renewed — that’s great news, but if it’s not done, then immediately you’re going to have an issue there with supplies,” warned John Baffes, senior agricultural economist at the World Bank. “Those issues are going to affect mostly countries in north Africa and the Middle East.”
-High inflation ensures interest rates remain elevated
-Inflation was already elevated in February 2022, as prices were pressured higher by snarls in supply chains and the enormous fiscal stimulus unleashed to temper the worst effects of the Covid-19 pandemic.
-But those forces had been understood by central banks as transitory. The sanctions placed on Russia at the start of the war drove up the prices of oil, gas and coal — among other commodities — adding to inflation and rendering it more persistent.
-Even as supply chains were unblocked and pandemic cash was spent, inflation continued to rise.
-The persistence of that inflation has forced central banks to raise interest rates higher and higher, lifting yields on sovereign debt. Two-year sovereign bond yields, which move with interest rates, have risen more than 2 percentage points in Germany, the UK, the US and Australia, among others, in the last year alone.
-As the cost to borrow has risen for sovereign nations, so it has for companies, pushing corporate bond yields higher and stock prices lower.
-There’s little chance they will fall soon. Although inflation globally has begun to slow, the pace remains far above target for many central banks, which have vowed to continue their fight.
-Rouble set to depreciate after recovering from post-invasion low
-One year on from Russia’s invasion of Ukraine and the rouble’s value against the dollar is close to where it was at the start of the conflict — although there have been plenty of twists along the way.
-The Russian currency halved in value to a record low of 150 to the dollar in the month after Putin ordered troops into Ukraine, despite Russia’s central bank more than doubling interest rates to 20 per cent in late February in an attempt to calm the country’s increasingly strained financial system.
-European and US sanctions — designed to cut Russia out of the global payments system and freeze the hundreds of billions of dollars of reserves amassed by the Bank of Russia — swiftly followed. In late March, an emboldened US president Joe Biden declared that the rouble had been “almost immediately reduced to rubble” as a result.
-Then came the rebound. Moscow’s imposition of capital controls meant the rouble had recovered almost all of its losses by the start of April. The currency was also helped by the continued flow of oil and gas exports.
-It has gradually weakened since July, however, when it touched 51 against the dollar, a level last seen in 2015. Today it trades at 75.
-With Russia’s capital account all but closed for major hard currencies, “the exchange rate does not perform its forward-looking role based on expectations, it only reflects day to day trade flows, most of which is energy trade,” said Commerzbank analyst Tatha Ghose.
-Ghose expected the rouble to continue to depreciate against the greenback in 2023, dragged lower as western sanctions on Russian oil weigh on the country’s current account.</t>
+          <t>The collapse of Russian natural gas flows to Europe has given US fuel exports pivotal new importance in the global economy, the head of one of the world’s largest commodities traders has said, signalling a permanent change in the structure of global energy markets.
+Torbjörn Törnqvist, chief executive of Gunvor, spoke on Monday just over a year after Russia’s full-scale invasion of Ukraine. Russia has since cut gas exports to the EU by about 80 per cent.
+He said that Russia’s decline as a crucial supplier is putting more onus on US liquefied natural gas exports to plug the gap.
+“The world will not be able to live without US LNG. It’s the balancing factor.”
+Törnqvist and other senior executives spoke on the first day of the CERAWeek conference in Houston, an annual energy industry gathering. Swiss-based Gunvor on Monday said it had struck a preliminary deal with US gas producer Chesapeake Energy to buy 2mn tonnes of LNG annually for 15 years from 2027.
+The agreement would link the value of LNG exports from the US directly to markets in Asia, where prevailing prices are far higher than those in the US.
+Mike Wirth, the chief executive of Chevron, told the gathering that rising dependence on US LNG exports was increasing the pricing power of US shale gas producers.
+Gas markets had “structurally changed for the long term” after the Kremlin’s decision to invade Ukraine, Wirth said. Europe was not “going to go back to its reliance on Russian gas”.
+Törnqvist warned that Russia would be forced to shut huge gasfields that had supplied Europe for decades because they lacked sufficient links to other big markets.
+“It has to be shut in. It’s a big loss for Russia,” Törnqvist said.
+Trading houses earned bumper profits in LNG trading last year by buying low-priced US gas to sell in Europe, where prices soared as high as $100 per million British thermal units.
+On Monday the US gas benchmark, known as Henry Hub, was trading at $2.56 per mmbtu, also well beneath Asian LNG prices of about $14 per mmbtu.
+The agreement between Gunvor and Chesapeake suggests shale producers are determined to capture a bigger share of higher prices internationally.
+Recommended
+Markets InsightDavid Sheppard
+Vladimir Putin is losing the energy war
+Nick Dell’Osso, Chesapeake’s chief executive, said that the price gap would remain an advantage for US shale producers and exporters, but also bring international pricing into the US market.
+“The economics of the US natural gas market are going to be influenced more and more by international markets as more gas is delivered internationally,” Dell’Osso told the Financial Times in Houston.
+The White House and European Commission last year announced a deal under which the US would try to increase exports of LNG to Europe. Törnqvist said Europe’s effort was working.
+“They now have enough capacity to import the gas that is now lost probably forever from Russia — or a very long time at least,” he said.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-L’invasion russe de l'Ukraine il y a un an a secoué les marchés mondiaux. Avec aucune fin en vue du conflit le plus intense en Europe depuis la Seconde Guerre mondiale, les effets sont toujours présents. La guerre énergétique de Vladimir Poutine contre l'Europe n'a pas été une réussite. Les exportations russes de gaz vers l'UE ont été réduites de plus de 75 %, mais les prix du gaz ont chuté de 85 % depuis leur pic en août et les stocks de gaz sont élevés. Les traders scrutent l'extension de l'accord de commerce de grains dans la mer Noire entre Kyiv et Moscou qui expire le mois prochain. L'inflation est restée élevée, ce qui a poussé les banques centrales à relever les taux d'intérêt et à réduire les actions. La valeur du rouble a été presque réduite à néant, mais elle s'est ensuite reprise et a maintenant tendance à se déprécier à nouveau.</t>
+          <t>US fuel exports are growing in importance on the global market, as the decline of Russian gas exports to Europe places more pressure on US liquefied natural gas (LNG) to plug the gap. Gas markets have "structurally changed for the long term" because of Russia's invasion of Ukraine, according to CEO of Chevron, Mike Wirth. Wirth warned that Europe will not "go back to its reliance on Russian gas". Speaking at the CERAWeek conference in Houston, Torbjörn Törnqvist, CEO of Gunvor, noted that the world "will not be able to live without US LNG. It’s the balancing factor.”</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Les marchés mondiaux montent et descendent avec la guerre en Ukraine</t>
+          <t>Le PDG de Gunvor déclare que la perte du gaz russe consolidera le rôle des exportations américaines.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>US stocks record worst weekly loss in 2 months on inflation fears</t>
+          <t>Commodities sell off on lacklustre China growth target</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/content/f74f14b4-5de1-4ef6-aa18-b4c0d7cedb69</t>
+          <t>/content/a6a1b16c-983d-40b9-a777-61f603536e3d</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US stocks have recorded their biggest weekly fall in more than two months, declining further on Friday after traders were shaken by the latest evidence of stubbornly high inflation in the world’s largest economy.
-The S&amp;P 500 index closed down 1.1 per cent in New York, bringing its losses for the week to 2.7 per cent. The tech-heavy Nasdaq Composite was 1.7 per cent lower for the day, for a 3.3 per cent decline for the week. The weekly declines were the sharpest since early December.
-After an unexpectedly strong start to the year, US stocks have now declined for three consecutive weeks. Recent economic data has increased expectations that the Federal Reserve will have to hold interest rates at higher rates for an extended period to bring inflation back towards its 2 per cent target, putting pressure on equity valuations.
-Central bank officials have repeatedly warned that rates would be high for some time, but Jonathan Golub, chief US market strategist at Credit Suisse, said “the market wasn’t listening” until the recent data convinced them.
-The most recent disappointment came on Friday as data showed core monthly personal consumption expenditures — the Fed’s preferred measure of inflation — rose more than expected in January. Prices increased 0.6 per cent month on month, and 4.7 per cent year on year — substantially more than average forecasts of a 4.3 per cent annual rise.
-“The market is now beginning to discount a different kind of backdrop” featuring a combination of stubborn inflation and weak economic growth, said Golub. “It’s ‘stagflation lite’.”
-Friday’s figures followed strong labour market, consumer price and retail spending data released earlier this month.
-Susan Collins, president of the Federal Reserve Bank of Boston, said on Friday that the data “reinforce my view that we have more work to do to bring inflation down to the 2 per cent target.
-“I anticipate further rate increases to reach a sufficiently restrictive level, and then holding there for some, perhaps extended, time.”
-US Treasuries sold off alongside stocks, with the yield on the interest rate-sensitive two-year note rising 0.12 percentage points to 4.81 per cent, the highest since June 2007. Yields rise when prices fall. The 10-year Treasury yield climbed 0.07 percentage points to 3.95 per cent.
-Markets are now pricing in a rise in the benchmark federal-funds rate to between 5.25 per cent and 5.5 per cent by July — more than half a percentage point higher than where investors thought rates would peak at the start of February.
-European stocks also dropped on Friday. The region-wide Stoxx 600 fell 1 per cent, while London’s FTSE 100 dipped 0.4 per cent.
-Germany’s Dax declined 1.7 per cent and the French CAC 40 was down 1.8 per cent.
-Investors are also concerned that the European Central Bank will lift rates further. Joachim Nagel, president of the Bundesbank and a member of the ECB’s governing council, said on Friday that inflation was likely to “remain at very high levels”, requiring “significant interest rate hikes beyond March”.
-Earlier in Asia, the Hang Seng index fell 1.7 per cent, while China’s CSI 300 lost 1 per cent. Although ecommerce group Alibaba beat analysts’ expectations with its fourth-quarter earnings, its shares fell 5.4 per cent, suggesting investor skittishness over China’s economy despite the government easing Covid-19 restrictions.
-The dollar index, which measures the greenback against a basket of six peers, rose 0.6 per cent.</t>
+          <t>Coal and iron ore led global commodity markets lower on Monday, after China’s economic growth target came in at less than expected, fuelling fears of an uneven recovery in the world’s largest consumer of raw materials.
+On Sunday, outgoing premier Li Keqiang announced an economic growth target of “around 5 per cent”, compared with last year’s official goal of 5.5 per cent.
+“Everyone’s disappointed by the China [GDP] number,” said Al Munro, senior base metals strategist at Marex, a brokerage. “We’re in a very choppy, uncertain environment”.
+As the world’s biggest commodities consumer, China is a driver of prices for raw materials ranging from zinc to copper and crude oil to corn.
+In Dalian on Monday, the benchmark future contract for iron ore, a key ingredient in steelmaking, fell more than 2 per cent to Rmb897 ($130) per tonne. Dalian coking coal closed 0.8 per cent lower at Rmb1986.5.
+The benchmark copper futures contract fell as much as 1.3 per cent, but recovered towards the end of the day, closing at $8930 per tonne on the London Metal Exchange.
+Meanwhile Brent crude futures fell as much as 1.7 per cent on Monday before pulling back to be down about 0.3 per cent, reflecting investor concerns around Chinese growth and caution ahead of testimony on Tuesday and Wednesday from US Federal Reserve chair Jay Powell.
+Other official forecasts from the weekend also weighed on market sentiment. Beijing’s projected rise in fiscal expenditure of just 5.5 per cent this year is lower than the pre-pandemic norm and would mark the lowest ratio of spending to gross domestic product in 11 years.
+“The budget doesn’t deliver a significant amount of new fiscal stimulus, and largely opts for maintaining the status quo,” said Wei He, China economist at Gavekal Dragonomics in Beijing. “That fiscal restraint will put a ceiling on infrastructure investment growth.”
+Wei estimated that infrastructure investment would probably grow by a “more modest 5 per cent or so in 2023” after notching an 11.5 per cent jump in 2022.
+The lower-than-expected growth target comes on the heels of official data that showed China’s manufacturing sector expanded last month at its fastest pace since April 2012, which had stoked hopes that the country’s economic recovery might gather pace after a muted showing at the outset of 2023.
+“Most people are disappointed with the recovery story so far,” said Darin Friedrichs, a commodity analyst at Shanghai-based Sitonia Consulting. “Things are definitely improving on last year, but the new growth target confirms to a lot of people that we’re not going to come roaring back as had been hoped for.”
+Prices for industrial metals including tin, zinc and copper had climbed in recent months on bets that China’s post-Covid economic reopening would boost demand for raw materials. However, market hopes for a strong rebound in activity in the country are slowly “giving way to concern over falling cargo shipments, rising base metals inventories and lacklustre sales of homes and cars”, analysts at JPMorgan wrote last week.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Les marchés boursiers américains ont connu leur plus grand recul hebdomadaire depuis plus de deux mois, enregistrant une baisse supplémentaire vendredi après que les traders aient été choqués par les dernières preuves d'une inflation persistante dans la plus grande économie du monde. L'indice S&amp;P 500 a clôturé à une baisse de 1,1 % à New York, ce qui porte ses pertes à la semaine à 2,7 %. Le Nasdaq Composite, riche en technologie, était 1,7 % plus bas pour la journée, pour une baisse de 3,3 % pour la semaine. Les baisses hebdomadaires étaient les plus importantes depuis le début décembre.
-Les données économiques récentes ont augmenté les attentes selon lesquelles la Réserve fédérale devra maintenir les taux d'intérêt à des niveaux plus élevés pendant une période prolongée afin de ramener l'inflation vers sa cible de 2 %, ce qui a mis la pression sur les valorisations boursières. Les responsables de la banque centrale ont répété à maintes reprises qu'ils maintiendraient les taux à un niveau élevé pendant un certain temps, mais Jonathan Golub, stratège en chef des marchés américains chez Credit Suisse, a déclaré que "le marché n'écoutait pas" jusqu'à ce que les données récentes le convainquent.
-Les plus récentes déceptions sont venues vendredi, lorsque des données ont montré que les dépenses personnelles de base mensuelles, mesure privilégiée par la Fed pour mesurer l'inflation, avaient augmenté plus que prévu en janvier. Les prix ont augmenté de 0,6 % par rapport au mois précédent et de 4,7 % par rapport à l'année précédente, nettement plus que les prévisions moyennes d'une hausse annuelle de 4,3 %.
-Les marchés obligataires américains ont également été vendus, avec le rendement du titre à taux d'intérêt à deux ans, sensible aux taux, augmentant de 0,12 point de pourcentage à 4,81 %, le plus haut depuis juin 2007. Les rendements du titre à 10 ans ont grimpé de 0,07 point de pourcentage à 3,95 %.
-Les marchés sont maintenant en train de prix en compte une hausse du taux de fonds directeur de référence à 5,25 % à 5,5 % d'ici juillet, soit plus de la moitié d'un point de pourcentage au-dessus de l'endroit où les investisseurs pensaient que les taux atteindraient le début de février.
-Les marchés boursiers européens ont également reculé vendredi. L'indice Stoxx 600 régional a chuté de 1 %, tandis que le FTSE 100 de Londres a reculé de 0,4 %. Le Dax allemand a reculé de 1,7 % et le CAC 40 français de 1,8 %.
-Les investisseurs s'inquiètent également que la Banque centrale européenne relève encore les taux. Joachim Nagel, président de la Bundesbank et membre du conseil de direction de la BCE, a déclaré vendredi que l'inflation était susceptible de "rester à des niveaux très élevés", ce qui nécessiterait "des hausses significatives des taux d'intérêt au-delà de mars".
-Plus tôt en Asie, l'indice Hang Seng a reculé de 1,7 %, tandis que le CSI 300 chinois a perdu 1 %. Bien que le groupe de commerce électronique Alibaba ait battu les attentes des analystes avec ses résultats du quatrième trimestre, ses actions ont chuté de 5,4 %, ce qui suggère une nervosité des investisseurs face à l'économie chinoise malgré l'allégement des restrictions liées à la Covid-19 par le gouvernement.
-L'indice du dollar, qui mesure le dollar américain par rapport à un panier de six pairs, a progressé de 0,6 %.</t>
+          <t>Les marchés mondiaux des matières premières ont été affectés par la baisse du charbon et du minerai de fer, suite à l'annonce de l'objectif de croissance économique en Chine, qui est inférieur aux attentes. Le premier ministre sortant Li Keqiang a annoncé un objectif de croissance économique d'"environ 5 %", par rapport à l'objectif officiel de 5,5 % de l'année dernière. La Chine est le plus grand consommateur mondial de matières premières, ce qui influence les prix de matières premières allant du cuivre au pétrole brut et au maïs. Les contrats à terme pour le minerai de fer, le charbon cokéfiable et le cuivre ont tous connu une baisse à Dalian et sur la bourse de Londres. L'objectif de croissance économique inférieur aux attentes provoque des inquiétudes pour la reprise économique en Chine et affecte la confiance des investisseurs. Les prévisions de dépenses fiscales plus faibles que la norme pré-pandémique contribuent aussi à la prudence des investisseurs quant à la croissance de l'infrastructure. Cependant, bien que la reprise économique en Chine ait été décevante jusqu'à présent, les données officielles ont montré une expansion du secteur manufacturier le mois dernier.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Les actions américaines enregistrent leur plus grande perte hebdomadaire en 2 mois à cause des craintes d'inflation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FTX founder hit with further criminal charges</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>/content/e15f3bdb-341a-4a55-9516-458c27d3ac56</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>US prosecutors have widened their criminal case against Sam Bankman-Fried, adding new charges and detailing a “series of systems and schemes” through which they allege the FTX founder siphoned off billions of dollars from customer deposits.
-The updated indictment, released on Thursday morning, added charges including securities fraud and conspiracy to commit bank fraud. That brought the total number of criminal counts against the former billionaire to 12.
-Bankman-Fried was originally charged with eight criminal counts in December 2022 and was extradited from his home in the Bahamas soon afterwards. He has pleaded not guilty to all of the original charges.
-The 39-page document details how Bankman-Fried posted “a series of false and misleading tweets” in the days following revelations about a hole in the cryptocurrency exchange’s balance sheet in November. It also claims Bankman-Fried sought to influence politicians of both major US political parties by donating tens of millions of dollars to campaigns.
-Some of the more than 300 donations made to Democrats and Republicans were “made in the names of others in order to obscure the true source of the money and evade federal election law”, which allowed Bankman-Fried to “evade contribution limits on individual donations to candidates to whom he had already donated”, the prosecutors alleged.
-In one example, Bankman-Fried allegedly authorised a donation of at least $1mn to a congressional candidate running in the 2022 election, who “appeared to be affiliated with pro-LGBTQ issues”.
-A political consultant working for Bankman-Fried asked a third party to make the contribution and said: “In general, you being the centre-left face of our spending will mean you giving to a lot of woke shit for transactional purposes,” the prosecutors alleged.
-Before FTX’s collapse last year, Bankman-Fried became the de facto face of the crypto industry and had testified before powerful congressional committees. The former FTX chief executive was vocal in his support for crypto-focused legislation in the US and became the second-largest contributor to the Democrats before last year’s midterm elections.
-A representative for Bankman-Fried declined to comment.
-The new charge sheet includes evidence that appears to come from two of Bankman-Fried’s closest former colleagues — the head of FTX’s trading affiliate Alameda, Caroline Ellison, and FTX co-founder Gary Wang. Ellison and Wang pleaded guilty to criminal charges in December and agreed to co-operate with US prosecutors.
-Recommended
-FT Magazine
-‘Sam? Are you there?!’ The bizarre and brutal final hours of FTX
-As FTX was collapsing, Bankman-Fried “doubled down on his fraudulent schemes by soliciting billions of dollars in additional capital investments from existing and potential investors in FTX, many of whom he had previously defrauded”, the indictment alleged.
-Bankman-Fried sent a falsely labelled balance sheet to investors in November to assure them FTX had the funds to meet withdrawal demands, but which in fact obscured an $8bn hole, the prosecutors said. He had previously devised ways of disguising how FTX money was being used to make investments via Alameda, they alleged.
-“Despite representations [Bankman-Fried] made and caused to be made to the contrary, FTX never held customer funds in dedicated accounts for the benefit of customers or segregated from Alameda’s assets,” the indictment alleged.
-A trial date has been set for October 2023.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Résumé : Sam Bankman-Fried, fondateur de FTX, est accusé de 12 chefs d'accusation, y compris de fraude en matière de titres et de complot en vue de commettre une fraude bancaire. Les procureurs affirment que Bankman-Fried a fait des déclarations fausses et trompeuses sur les médias sociaux et a donné des dizaines de millions de dollars à des campagnes politiques pour influencer les politiciens des deux principaux partis politiques américains. Selon l'accusation, Bankman-Fried a également demandé des investissements supplémentaires de plusieurs milliards de dollars à des investisseurs existants et potentiels, bien qu'il sache qu'il n'avait pas les fonds pour rembourser les dépôts des clients. Une audience de procès est prévue pour octobre 2023.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Le fondateur de FTX fait face à de nouvelles accusations pénales.</t>
+          <t>Les matières premières chutent en raison de l'objectif de croissance peu convaincant de la Chine.</t>
         </is>
       </c>
     </row>

--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -463,225 +463,223 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chinese companies choose Switzerland over US and UK to raise money overseas</t>
+          <t>European equities fall ahead of Fed rate decision</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/content/8bca0a24-0ebb-420e-bc65-447f924c3e23</t>
+          <t>/content/d4a84812-5aa5-48f5-a9e2-f8669859c74c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chinese companies are flocking to Switzerland to raise capital after being discouraged from listing in the US by geopolitical tensions and in Britain by tougher audit standards.
-Nine Chinese companies floated in Zurich last year, raising $3.2bn in the European country, according to SIX, the operator of the Swiss stock market. That far outstrips the $470mn they raised in New York, data from Dealogic stated.
-Their shift of focus to Switzerland comes in response to months of tensions between Beijing and Washington over standards for Chinese companies on US markets. The US sought greater access to listed companies’ financial audits but China resisted, citing a desire to protect state secrets.
-Zurich has particularly benefited from the unease as it has less-demanding requirements over the transparency of company audits.
-Dozens more Chinese companies are looking to use a link set up last year that connects the Shanghai and Shenzhen stock markets with the main market in Zurich, according to bankers and exchange executives.
-The “stock connect” scheme, modelled on a similar one with London, allows companies that are listed in one venue to raise capital on the other. Just five other companies floated on the Swiss market in 2022.
-“Switzerland is very much at risk of becoming a Chinese market,” said one senior executive at a rival exchange, adding that if all the Chinese companies that have announced plans to list go ahead, “then it will be more capital than was raised across all of European IPO volumes last year. You want lots of activity, but you do end up with a lot of risk if the enormous amount of your security comes from one jurisdiction”.
-This year the only listing in Switzerland has been Chinese — Zhejiang HangKe Technology Incorporated Co, which manufactures lithium battery equipment and raised $172mn.
-Rather than undertake a full listing, companies using Stock Connect issue global depositary receipts, which represent shares in overseas companies while the issuer holds the underlying shares in its home market.
-Valeria Ceccarelli, head of primary markets at SIX, said the surge in Chinese listings “confirms the attractiveness of SIX and the Swiss financial centre as an international hub for companies to raise capital”.
-For Chinese companies, overseas listings help make it easier to bypass tough domestic capital controls. Companies were raising money to fund their international growth and increase their visibility in Europe, Ceccarelli added.
+          <t>European equities edged lower in early trade on Wednesday as investors looked ahead to the Federal Reserve’s decision on interest rates, in which the US central bank is expected to raise rates again to keep up the fight against inflation.
+The region-wide Stoxx 600 and Germany’s Dax both fell 0.1 per cent while the Cac 40 in Paris was 0.4 per cent lower. London’s FTSE 100 lost 0.3 per cent after fresh inflation data in Britain bolstered market expectations that the Bank of England would increase its benchmark interest rate on Thursday.
+Asian stocks advanced, with Hong Kong’s Hang Seng index adding 1.7 per cent and South Korea’s Kospi rising 1.2 per cent. Japan’s Topix jumped 1.7 per cent after markets reopened following a one-day break for the vernal equinox holiday.
+The Euro Stoxx Banks index fell 0.7 per cent, having closed up 3.8 per cent in the previous session. The Hang Seng Finance index and Topix Banks index were up 1.7 per cent and 2.2 per cent respectively.
+Investors are looking ahead to a rate decision from the Fed later in the day. Futures markets indicate traders are expecting an increase of 0.25 percentage points from the current range of 4.5 per cent to 4.75 per cent.
+Expectations that interest rates would stay elevated for an extended period of time have declined in recent weeks, as traders bet that turmoil in the banking sector triggered by the collapse of Silicon Valley Bank and UBS’s takeover of rival Credit Suisse would force the Fed to ease off its tightening cycle.
+“There are great uncertainties as to whether the Fed can both tighten and simultaneously try to ease the stress for, among other things, the regional banks (more liquidity support),” said analysts at SEB Research.
+The Fed will also publish revised projections about the path forward for monetary policy to 2025, as well as forecasts for growth, unemployment and inflation. The US central bank last published officials’ estimates in December, when most thought the federal funds rate would peak at 5 per cent to 5.25 per cent.
+US Treasuries made minor gains, with the yield on the two-year note, which is sensitive to interest rate expectations, falling 0.03 percentage points to 4.14 per cent. The yield on the 10-year note dropped 0.02 percentage points to 3.59 per cent. Yields move inversely to price.
+However investors began to price in the prospect of further rate rises from the Bank of England, which meets on Thursday. UK inflation unexpectedly jumped to 10.4 per cent in February, 50 basis points above expectations and adding to pressure on the central bank to raise interest rates again.
+Pricing from swaps markets indicates investors are betting on a 25bp increase.
+Sterling rose 0.5 per cent against the dollar, approaching a two-month high while the yield on the 10-year gilt rose 0.1 percentage points to 3.47 per cent. Two-year UK gilts rose 0.18 percentage points to 3.7 per cent.
+The European Central Bank last week opted for a 50bp increase, with president Christine Lagarde promising simultaneous support for the banking sector.
+“I think the BoE have got the same choice that the European Central Bank had last week and the Fed have tonight,” said Neil Birrell, chief investment officer for Premier Miton. “The equation is raising rates to beat inflation, but not squash the economy and make sure the financial system remains robust — that makes everything more difficult.”
 Recommended
-News in-depthNikkei Asia
-Switzerland helps China Inc satisfy its itch for overseas listings
-Some Chinese companies are also eyeing Britain, using the London Stock Exchange’s Stock Connect programme which has existed since 2019 and led to five issuers raising about $6.5bn.
-Two businesses have announced plans to list their shares in the UK so far this year — chemical company Yongtai and manufacturing group Lingyi iTech.
-But exchange executives say that a decision by the UK auditor regulator, the Financial Reporting Council, to not deem Chinese audit standards as equivalent to international standards has pushed more companies to Switzerland, which accepts Chinese accounts for depositary receipts.
-“Swiss authorities . . . do not waive any audit requirements, but treat Chinese companies the same as other foreign companies under the Swiss Audit Oversight Act,” Ceccarelli said.
-“At the end, the company decides where to list,” she said, adding that the exchange is aware of 20 more Chinese companies that plan to list in Europe through GDRs.</t>
+News in-depthFederal Reserve
+‘Firefighter and policeman’: Fed faces rate rise dilemma amid banks turmoil
+Efforts to curb contagion in the financial system, including a suggestion from US Treasury secretary Janet Yellen that the government could step in to back all deposits at the country’s smaller lenders, helped assuage nerves on Tuesday.
+The KBW Bank index finished up 5 per cent. The blue-chip S&amp;P 500 index added 1.3 per cent and the tech-heavy Nasdaq Composite climbed 1.6 per cent.
+Oil prices fell, with West Texas Intermediate, the US marker, slipping 0.7 per cent to trade at $69.21 a barrel, breaking a two-day advance of nearly 4 per cent. Brent crude, the international benchmark, lost 0.5 per cent to $74.91.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chinese companies are increasingly looking to Switzerland to raise capital, as geopolitical tensions discourage listing in the US and tougher audit standards discourage listing in the UK. Nine Chinese companies floated in Zurich last year, raising $3.2bn, and dozens more are looking to use the link set up last year that connects the Shanghai and Shenzhen stock markets with the main market in Zurich. Analysts have warned that Switzerland is increasingly at risk of becoming a Chinese market, but Valeria Ceccarelli, head of primary markets at SIX, argued that the surge in listings confirmed Switzerland's attraction as an international hub for companies to raise capital.</t>
+          <t>Les actions européennes ont légèrement baissé ce mercredi matin, car les investisseurs attendent la décision de la Réserve fédérale américaine sur les taux d'intérêt, qu'elle devrait augmenter pour lutter contre l'inflation. Le Stoxx 600 et le Dax allemand ont tous deux baissé de 0,1 %, tandis que le Cac 40 parisien a perdu 0,4 %. Le FTSE 100 de Londres a perdu 0,3 % après de nouvelles données sur l'inflation qui ont renforcé les attentes du marché selon lesquelles la Banque d'Angleterre augmenterait son taux d'intérêt le lendemain. Les actions asiatiques ont progressé, Hong Kong et la Corée du Sud ont vu leurs indices boursiers se renforcer. Les investisseurs se préparent à la décision de la Fed sur les taux d'intérêt plus tard dans la journée. Les marchés à terme indiquent que les traders attendent une augmentation de 0,25 points de pourcentage du taux actuel. Les rendements des titres américains ont connu une légère augmentation dû à une augmentation des anticipations de hausse des taux d'intérêt de la Banque d'Angleterre. Le problème lié à la crise économique sera le principal point d'intérêt de ces réunions.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Les entreprises chinoises choisissent la Suisse plutôt que les États-Unis et le Royaume-Uni pour lever des fonds à l'étranger.</t>
+          <t>Les actions européennes chutent avant la décision de la Fed sur les taux.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Private credit groups cut out banks with largest direct loan</t>
+          <t>UK regulator takes aim at index providers over greenwashing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/content/0d65e8d0-5354-40ed-9cb8-8c3fd1b0a31e</t>
+          <t>/content/0ea165df-6e5f-4c2a-b780-17ef5aa123f7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Private credit groups including Apollo, Ares and Blackstone are poised to write the largest direct loan on record as they continue to muscle in on a lucrative business traditionally dominated by Wall Street banks.
-The lenders are increasingly confident they can edge out investment banks including JPMorgan Chase and Goldman Sachs in a deal to fund Carlyle’s acquisition of a 50 per cent stake in healthcare analytics company Cotiviti, according to five people briefed on the transaction.
-The $5.5bn loan to help buyout group Carlyle acquire the stake from rival Veritas Capital would be the biggest of its kind and could be announced in the coming days or weeks, the people added. The deal values Cotiviti at roughly $15bn.
-It underscores the growing power of private credit providers in the wake of the global financial crisis, which ushered in a new era of tougher capital requirements for banks that made it harder for them to fund risky takeovers.
-The trend has only accelerated in recent months after gyrating bond markets left banks struggling to offload debt they provided to fund big takeovers, including Elon Musk’s buyout of Twitter.
-“No longer is the large deal just the provenance of the banks,” said Kipp deVeer, head of credit at Ares.
-The financing package for Cotiviti, which would be accompanied by a $1bn investment in preferred shares, is one of several large private loans being discussed, according to executives in the private capital industry.
-The size of the potential deals is much higher than it would have been a few years ago when private loans tended to top out at $1bn to $2bn.
-“Folks have dry powder,” deVeer said. “If there is a high-quality company and high-quality transaction, most folks will . . . find plenty of capital and capacity to do that.”
-The amount of capital on offer is the product of a wave of fundraising by private credit funds, many of them operated by companies that started out as pure-play buyout groups.
-There has been an influx of retail investors into funds such as Blackstone’s private credit investment fund, known as Bcred, over the past three years, helping private capital groups write ever-larger cheques. Even after a wave of recent outflows, institutional investors remain committed to the market.
-Last week, Oaktree Capital co-founder Howard Marks told clients the group was trying to raise $10bn to fund loans for big buyouts. A few days earlier, Ares chief executive Michael Arougheti announced that the company would “embark on a pretty significant fundraising push”.
-The non-bank lenders have been attracted by the high returns on offer, with many loans yielding 6 or 7 percentage points over the floating rate benchmark, or roughly 11 per cent or 12 per cent in total. That number will rise further if the Federal Reserve and other central banks press ahead with their campaign to raise interest rates.
-“It has evolved into a consistent financial tool for borrowers and it has gone more and more upmarket,” said Dan Pietrzak, co-head of private credit at KKR. “The market has the capacity to do these multibillion-dollar deals.”
-Banks have been powerless to prevent the loss of the lucrative business to private credit rivals because the market for offloading debt to third-party investors has dried up of late.
-Lenders including Bank of America and Barclays have been forced to hold on to loans made to fund large buyouts, including the Twitter deal and the takeover of Citrix, leaving them nursing big losses.
-Alex Popov, head of illiquid credit at Carlyle, said “2022 really stopped capital markets. In terms of dislocation, this was as pronounced as it gets, where underwriters for any new transactions were essentially out of business.”
-Private credit remains one of the few sources of capital available at a time of tighter financial conditions, even after high-yield bond and leveraged loan markets have started to recover.
-Data from PitchBook LCD shows the vast majority of deals in the syndicated loan market — where banks underwrite the debt before selling slices of it to investors — have been done to refinance existing borrowings rather than funding takeovers.
-Recommended
-Inside BusinessEllen Carr
-The new LBO market: it’s gone private
-Bankers say the trend could reverse if markets become less volatile. “A lot of underwriters are on the sidelines and so to get a syndicated deal underwritten at scale is challenging. But . . . people will come back,” said Rob Fullerton, global head of leveraged finance at Jefferies.
-There was strong demand for the Cotiviti loan, the people briefed on the transaction said, with groups including HPS Investment jostling for a piece of the action alongside Apollo, Ares and Blackstone.
-Given the high level of demand, Carlyle has managed to push down the yield on the loan to about 6.25 percentage points over the Sofr benchmark rate, compared with the 6.5 percentage points that had been previously discussed, according to the people briefed on the talks.
-The private capital groups are discussing a sweetener that would allow Cotiviti to pay the interest on the loan by raising more debt, which is a factor in Carlyle preferring the funding package over a competing one being pitched by JPMorgan and Goldman Sachs.
-The discussions over the so-called payment-in-kind provision are still at an early stage and may not pan out. Two of the people said its inclusion in the deal would allow Cotiviti to preserve cash when the US is flirting with a recession.</t>
+          <t>The UK’s financial regulator has warned index providers that they are fuelling greenwashing after identifying “widespread failings” with environment, social and governance benchmarks that guide billions in sustainable investment.
+The Financial Conduct Authority said on Monday that the overall quality of ESG-related disclosures made by index providers was “poor” and repeated its determination to ensure that ESG ratings providers should be formally regulated.
+“One of our observations was that the subjective nature of ESG factors and how ESG data and ratings are incorporated into benchmark methodologies could increase the risk of poor disclosures,” the FCA said, in a strongly worded letter to chief executives of index providers.
+The government is expected to announce a consultation in the near future on whether the FCA remit should be extended to include ESG ratings providers.
+“We have previously said that we support regulation of ESG ratings. We are working closely with government on this,” said Jon Relleen, FCA director of infrastructure and exchanges.
+Demand for strategies that employ ESG metrics has risen rapidly from both institutional and retail investors, increasing regulatory concerns about greenwashing, where financial product providers make exaggerated or misleading environmental claims.
+The limited information given by index providers about ESG metrics and a lack of clarity over how these are applied in the calculation of sustainable investment benchmarks could be contributing to greenwashing, according to the FCA.
+This lack of clarity over the application of ESG metrics was “particularly concerning” when it resulted in little material difference between the constituents of ESG indices and similar non-ESG benchmarks, said the FCA.
+The City regulator also criticised index providers for failing to implement their own ESG methodologies correctly. It found examples of index providers using outdated ESG data and ratings as well as failures to properly apply exclusion criteria to the constituents of ESG benchmarks.
+Lewis Johnston, director of policy at ShareAction, the charity that promotes responsible investment, said: “The FCA is right to zone in on this. We need smarter regulation of the ESG ratings industry to help us tackle the real and significant problem of greenwashing, which undermines not only client and public trust but also the potential of responsible investment to have any meaningful climate and social impact.”
+Latest news on ETFs
+Visit the ETF Hub to find out more and to explore our in-depth data and comparison tools helping you to understand everything from performance to ESG ratings
+The FCA’s demand for an improvement in standards was accompanied by a warning that it intended to do more work to “address potential failings” and that the regulator stood ready to take enforcement action which could include issuing financial penalties.
+Large index providers, including S&amp;P Global, MSCI and FTSE Russell, have invested heavily in ESG teams that provide data and analytics. Some smaller index providers buy ESG data from specialist third-party providers.
+MSCI said that it was “reviewing the FCA’s industry findings, which we will discuss with the FCA as part of our ongoing and regular engagement as an authorised benchmark administrator”.
+S&amp;P Global said it was reviewing the FCA’s letter and would continue to engage with the regulator. “We are committed to market transparency and the quality, independent governance and oversight of our indices,” it said.
+FTSE Russell, the third-largest index provider, said it published “detailed ground rules and benchmark statements for all benchmarks including ESG, which explain the underlying methodologies. FTSE Russell is fully supportive of and committed to transparency in ESG disclosures.”
+The ESG investment backlash begins to have an impact | FT Moral Money</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Private credit groups like Apollo, Ares, and Blackstone are poised to provide the largest direct loan on record for Carlyle’s acquisition of a 50% stake in Cotiviti, a healthcare analytics company. The $5.5bn loan would be the largest of its kind, reflecting the growing power and confidence of private credit providers. The influx of funding has led to large loans, yielding 6 or 7 percentage points over the floating rate benchmark, or roughly 11% or 12% in total. The loan for Carlyle is one of many large private loans being discussed as the market for offloading debt to third-party investors among banks dries up, leading to a loss of business to private credit rivals.</t>
+          <t>La Financial Conduct Authority (FCA), régulateur financier du Royaume-Uni, a averti les fournisseurs d'indices qu'ils alimentaient la pratique abusive du "greenwashing" en matière d'environnement, de social et d'éthique dans les investissements durables. La FCA a identifié des "lacunes généralisées" dans les indices liés à l'ESG (environnement, social et gouvernance) qui guident des milliards d'euros d'investissements durables. Elle a déclaré que la qualité globale des divulgations liées à l'ESG effectuées par les fournisseurs d'indices était "médiocre" et a réitéré sa détermination à garantir que les fournisseurs de notation ESG soient réglementés de manière formelle. La FCA a également critiqué les fournisseurs d'indices pour avoir échoué à mettre en œuvre correctement leurs propres méthodologies ESG. La réglementation des agences de notation ESG est actuellement examinée par le gouvernement britannique.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Les groupes de crédit privés évincent les banques avec les prêts directs les plus importants.</t>
+          <t>Le régulateur britannique vise les fournisseurs d'indices pour leur greenwashing.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>US blue-chips cling to gains as traders await interest rate hints</t>
+          <t>JPMorgan Asset Management chief warns on commercial real estate risks</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/content/a1b42495-dc41-49b2-949c-957aa8d32bc7</t>
+          <t>/content/65524cf7-954d-44a1-beb5-b24d29c30945</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US blue-chips advanced for a third session on Monday — but barely — as investors awaited crucial data and central banker comments to give more direction on the future path for interest rates.
-The benchmark S&amp;P 500 squeezed out a 0.1 per cent gain, having been up almost 1 per cent around midday, but the tech-heavy Nasdaq Composite ended down 0.1 per cent after earlier rising 1.2 per cent.
-Investors have in recent weeks been forced to readjust forecasts for interest rates and economic growth in the US and Europe after a succession of data in February indicated a series of aggressive rate rises had yet to fully tame inflation.
-Yields on two-year Treasuries, which are more sensitive to interest rate changes, rose 0.03 percentage points to 4.89 per cent, but held below their 15-plus year peak near 4.95 per cent last week.
-The yield on the 10-year Treasury note was up 0.02 percentage points at 3.98 per cent, having hit 4 per cent, a three-month high, last week.
-The moves come ahead of US Federal Reserve chair Jay Powell’s semi-annual testimony to Congress over the next two days and the latest non-farm payroll report on Friday, which could potentially provide a dramatic end to the week.
-“Further labour market tightness could stoke persistently high core inflation and spur the Fed to keep rates higher for longer,” said analysts at BlackRock in an investment outlook note. “We’re also watching China’s trade data to see how much pressure remains on exports.”
-European stocks closed mixed although worries about Chinese growth weighed on commodity prices and dragged the FTSE 100 lower.
-London’s blue-chip index shed 0.2 per cent. Miners Anglo American and Rio Tinto lost 3.7 per cent and 2.8 per cent respectively.
-Europe’s benchmark Stoxx 600 gave up early gains to finish flat but some individual markets did better, with Germany’s Dax up 0.5 per cent and France’s CAC 40 ending 0.3 per cent higher.
-European stocks were dented somewhat by the release of Eurozone retail sales data. Month-on-month growth was 0.3 per cent in January. While an improvement from December’s fall of 1.7 per cent, it was below forecasts for a 1.3 per cent rise.
-“We’ve had surveys which held up better than expected, but the retail sales data is the first hard bit of data,” said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics.
-Christine Lagarde, president of the European Central Bank, is due to speak at a World Trade Organization event on Wednesday.
-Yields on 10-year German Bunds rose 0.01 percentage points to 2.73 per cent.
-The US dollar index, which measures the greenback against a basket of six peer currencies, fell 0.2 per cent.
-Brent crude rose 0.6 per cent to $86.32 a barrel, while WTI, the US equivalent, was up 08 per cent at $80.60 a barrel.</t>
+          <t>The chief executive of JPMorgan Asset Management has warned that commercial real estate forms one of the critical areas of risk in global markets after the aggressive monetary tightening by the US central bank.
+“When the Federal Reserve hits the brakes, something goes through the windshield,” George Gatch said at the $2.5tn asset manager’s European Media Summit on Tuesday.
+“We saw that with a bursting of a speculative bubble, of Ark [Invest],” said Gatch, referring to growth investor Cathie Wood, whose flagship fund’s share price dropped by two-thirds last year but has since partially rebounded.
+“We saw it in a huge repricing in fixed income, in [UK pension funds’ liability driven investment strategies],” he added. The failure of California-based lender Silicon Valley Bank earlier this month, and the weekend’s emergency takeover of Credit Suisse, also highlight the stress of rising interest rates, he said.
+All of these episodes have left investors and policymakers wondering “what is the next impact”, said Gatch. “Commercial real estate is an area of concern. We have higher interest rates for property developers, how does that impact the real estate market and lenders in that space?”
+Private market assets are also at risk of shifting lower in price as public markets have already done, he said. “I’m not forecasting doom and gloom but these would be areas I would be concerned about.”
+Commercial property values have started to slide in recent months, as rising borrowing costs have hit investors’ ability to transact.
+Investors are keeping a close eye on property funds such as private equity firm Blackstone’s Blackstone Real Estate Income Trust. Breit, which has become a barometer of the health of the commercial property market, is one of the most high-profile examples of several property funds forced to limit withdrawals as rising interest rates prompt investors to head for the exit.
+Recommended
+The Big Read
+Turning offices into condos: New York after the pandemic
+In a note on Tuesday, Goldman Sachs said the commercial real estate sector was dealing with a “challenging” environment. “The recent stress in the banking sector has fuelled growing concern about spillover effects on the commercial real estate industry. With over half of the $5.6tn of outstanding commercial loans sitting on bank balance sheets, bank lending remains the primary source of funding for the sector. This is particularly the case for small banks which capture the lion’s share of lending.”
+Also on Tuesday, Bank of America said investors in its monthly fund manager survey were more bearish on real estate than they have been since October 2020, having taken cautious positions on the asset class since September. “Concerns over commercial [and] office real estate are driving growing anxiety over the sector.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Les blue chips américains ont augmenté légèrement pour la troisième session consécutive lundi, mais les investisseurs attendent les commentaires des banquiers centraux et des données cruciales à venir pour plus de direction sur les taux d'intérêt futurs. Les données récentes indiquent que plusieurs hausses agressives de taux n'ont pas encore maîtrisé l'inflation. Les rendements des obligations américaines ont augmenté, les investisseurs cherchant à ajuster leurs prévisions. La présidente de la Banque centrale européenne s'exprimera lors d'un événement de l'Organisation mondiale du commerce mercredi. Les actions européennes ont clôturé de manière mitigée en raison des inquiétudes concernant la croissance chinoise. Les indices allemands et français ont enregistré une hausse tandis que l'indice FTSE 100 de Londres a chuté. Le pétrole Brent a augmenté de 0,6 %, atteignant 86,32 dollars le baril, tandis que le WTI était en hausse de 0,8 %, à 80,60 dollars le baril.</t>
+          <t>Le PDG de JPMorgan Asset Management a mis en garde contre les risques du marché immobilier commercial mondial, après le resserrement monétaire agressif de la banque centrale américaine. Les investisseurs et les décideurs se demandent quelles seront les prochaines répercussions après la défaillance de banques comme Silicon Valley Bank et le rachat urgent de Credit Suisse, en raison de la hausse des taux d'intérêt. La valeur des propriétés commerciales a commencé à baisser ces derniers mois, car la hausse des coûts d'emprunt a entravé la capacité des investisseurs à effectuer des transactions. La baisse des prix sur le marché des actifs privés est également à risque, car les marchés publics l'ont déjà fait. Les investisseurs sont particulièrement attentifs aux fonds immobiliers tels que Blackstone Real Estate Income Trust de Blackstone Real Estate. La société Breit, devenue un baromètre de la santé du marché immobilier commercial, est l'un des exemples les plus en vue de plusieurs fonds immobiliers contraints de limiter les retraits. Selon Bank of America, les investisseurs sont de plus en plus pessimistes quant au marché immobilier, en particulier en raison des préoccupations concernant l'immobilier commercial et de bureau, dans le cadre d’un environnement difficile.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Les blue-chips américains restent stables alors que les traders attendent des indications sur les taux d'intérêt.</t>
+          <t>Le chef de JPMorgan Asset Management met en garde contre les risques de l'immobilier commercial.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gunvor chief says loss of Russian gas will cement US export role</t>
+          <t>US bank shares rise on government readiness to back smaller lenders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/content/3c52d282-34d1-4926-8046-e4e503018bca</t>
+          <t>/content/42193c10-a12b-4155-b39c-90d0dad433c6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The collapse of Russian natural gas flows to Europe has given US fuel exports pivotal new importance in the global economy, the head of one of the world’s largest commodities traders has said, signalling a permanent change in the structure of global energy markets.
-Torbjörn Törnqvist, chief executive of Gunvor, spoke on Monday just over a year after Russia’s full-scale invasion of Ukraine. Russia has since cut gas exports to the EU by about 80 per cent.
-He said that Russia’s decline as a crucial supplier is putting more onus on US liquefied natural gas exports to plug the gap.
-“The world will not be able to live without US LNG. It’s the balancing factor.”
-Törnqvist and other senior executives spoke on the first day of the CERAWeek conference in Houston, an annual energy industry gathering. Swiss-based Gunvor on Monday said it had struck a preliminary deal with US gas producer Chesapeake Energy to buy 2mn tonnes of LNG annually for 15 years from 2027.
-The agreement would link the value of LNG exports from the US directly to markets in Asia, where prevailing prices are far higher than those in the US.
-Mike Wirth, the chief executive of Chevron, told the gathering that rising dependence on US LNG exports was increasing the pricing power of US shale gas producers.
-Gas markets had “structurally changed for the long term” after the Kremlin’s decision to invade Ukraine, Wirth said. Europe was not “going to go back to its reliance on Russian gas”.
-Törnqvist warned that Russia would be forced to shut huge gasfields that had supplied Europe for decades because they lacked sufficient links to other big markets.
-“It has to be shut in. It’s a big loss for Russia,” Törnqvist said.
-Trading houses earned bumper profits in LNG trading last year by buying low-priced US gas to sell in Europe, where prices soared as high as $100 per million British thermal units.
-On Monday the US gas benchmark, known as Henry Hub, was trading at $2.56 per mmbtu, also well beneath Asian LNG prices of about $14 per mmbtu.
-The agreement between Gunvor and Chesapeake suggests shale producers are determined to capture a bigger share of higher prices internationally.
+          <t>First Republic Bank shares rebounded on Tuesday after US Treasury secretary Janet Yellen signalled that a government backstop for smaller banks was at the ready if required.
+The San Francisco-based lender’s shares surged as much as 60 per cent on Tuesday, recouping some of its recent losses.
+First Republic is the hardest hit among the regional banks which have suffered massive outflows of deposits following the collapse of Silicon Valley Bank. Prior to this morning’s move, its shares had fallen more than 90 per cent in March, including a 47 per cent drop on Monday.
+The moves came as Yellen told the American Bankers Association on Tuesday that guarantees offered to all depositors at SVB could be replicated at other institutions if needed.
+While such a guarantee would only apply to First Republic deposits were it to fail and be taken over by the Federal Deposit Insurance Corporation, the comments could help alleviate customer concerns about the safety of their deposits and stem outflows. Before a bank fails, deposits are only guaranteed by the FDIC up to $250,000.
+Shares in other regional lenders were also up in early trading on Tuesday. PacWest Bancorp and Western Alliance were both up about 21 per cent.
+Shares in the four largest US banks by assets — JPMorgan Chase, Citigroup, Bank of America and Wells Fargo — were up between 3 and 4 per cent.
 Recommended
-Markets InsightDavid Sheppard
-Vladimir Putin is losing the energy war
-Nick Dell’Osso, Chesapeake’s chief executive, said that the price gap would remain an advantage for US shale producers and exporters, but also bring international pricing into the US market.
-“The economics of the US natural gas market are going to be influenced more and more by international markets as more gas is delivered internationally,” Dell’Osso told the Financial Times in Houston.
-The White House and European Commission last year announced a deal under which the US would try to increase exports of LNG to Europe. Törnqvist said Europe’s effort was working.
-“They now have enough capacity to import the gas that is now lost probably forever from Russia — or a very long time at least,” he said.</t>
+Banks in turmoil
+Turmoil shines light on lifeline provided by small US banks
+Wall Street bank chief executives are also evaluating further options for First Republic after 11 of the biggest US banks deposited $30bn with the lender. The executives will discuss if anything more can be done on the sidelines of a pre-planned gathering in Washington on Tuesday, the Financial Times reported on Monday.
+First Republic’s credit rating was downgraded for the second time in a week by S&amp;P Global over the weekend. S&amp;P analysts said the $30bn deposit infusion, which has an initial maturity of 120 days, was not a “longer-term solution” to the bank’s funding issues.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>US fuel exports are growing in importance on the global market, as the decline of Russian gas exports to Europe places more pressure on US liquefied natural gas (LNG) to plug the gap. Gas markets have "structurally changed for the long term" because of Russia's invasion of Ukraine, according to CEO of Chevron, Mike Wirth. Wirth warned that Europe will not "go back to its reliance on Russian gas". Speaking at the CERAWeek conference in Houston, Torbjörn Törnqvist, CEO of Gunvor, noted that the world "will not be able to live without US LNG. It’s the balancing factor.”</t>
+          <t>Le cours de l'action de First Republic Bank a rebondi de manière spectaculaire après les commentaires de la secrétaire au Trésor américain, Janet Yellen. Celle-ci a signalé qu'un soutien gouvernemental pour les banques plus petites était prêt en cas de besoin. Les actions de la banque basée à San Francisco ont augmenté de 60% aujourd'hui, récupérant une partie de leurs pertes récentes. D'autres banques régionales ont également vu une augmentation de leur cours en début de séance. Les commentaires de Yellen pourraient contribuer à soulager les inquiétudes des clients de First Republic concernant la sécurité de leurs dépôts et limiter la fuite des dépôts. Les PDG des principales banques américaines discutent également des options supplémentaires pour First Republic lors d'une réunion prévue à Washington ce mardi. La notation de crédit de First Republic a été rétrogradée pour la deuxième fois en une semaine par S&amp;P Global.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Le PDG de Gunvor déclare que la perte du gaz russe consolidera le rôle des exportations américaines.</t>
+          <t>Les actions des banques américaines augmentent suite à la disposition du gouvernement à soutenir les petits prêteurs.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Commodities sell off on lacklustre China growth target</t>
+          <t>US equities gain as banking fears take back seat to Fed</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/content/a6a1b16c-983d-40b9-a777-61f603536e3d</t>
+          <t>/content/cb89507a-7cd7-463a-a34b-b1f7b9e14793</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Coal and iron ore led global commodity markets lower on Monday, after China’s economic growth target came in at less than expected, fuelling fears of an uneven recovery in the world’s largest consumer of raw materials.
-On Sunday, outgoing premier Li Keqiang announced an economic growth target of “around 5 per cent”, compared with last year’s official goal of 5.5 per cent.
-“Everyone’s disappointed by the China [GDP] number,” said Al Munro, senior base metals strategist at Marex, a brokerage. “We’re in a very choppy, uncertain environment”.
-As the world’s biggest commodities consumer, China is a driver of prices for raw materials ranging from zinc to copper and crude oil to corn.
-In Dalian on Monday, the benchmark future contract for iron ore, a key ingredient in steelmaking, fell more than 2 per cent to Rmb897 ($130) per tonne. Dalian coking coal closed 0.8 per cent lower at Rmb1986.5.
-The benchmark copper futures contract fell as much as 1.3 per cent, but recovered towards the end of the day, closing at $8930 per tonne on the London Metal Exchange.
-Meanwhile Brent crude futures fell as much as 1.7 per cent on Monday before pulling back to be down about 0.3 per cent, reflecting investor concerns around Chinese growth and caution ahead of testimony on Tuesday and Wednesday from US Federal Reserve chair Jay Powell.
-Other official forecasts from the weekend also weighed on market sentiment. Beijing’s projected rise in fiscal expenditure of just 5.5 per cent this year is lower than the pre-pandemic norm and would mark the lowest ratio of spending to gross domestic product in 11 years.
-“The budget doesn’t deliver a significant amount of new fiscal stimulus, and largely opts for maintaining the status quo,” said Wei He, China economist at Gavekal Dragonomics in Beijing. “That fiscal restraint will put a ceiling on infrastructure investment growth.”
-Wei estimated that infrastructure investment would probably grow by a “more modest 5 per cent or so in 2023” after notching an 11.5 per cent jump in 2022.
-The lower-than-expected growth target comes on the heels of official data that showed China’s manufacturing sector expanded last month at its fastest pace since April 2012, which had stoked hopes that the country’s economic recovery might gather pace after a muted showing at the outset of 2023.
-“Most people are disappointed with the recovery story so far,” said Darin Friedrichs, a commodity analyst at Shanghai-based Sitonia Consulting. “Things are definitely improving on last year, but the new growth target confirms to a lot of people that we’re not going to come roaring back as had been hoped for.”
-Prices for industrial metals including tin, zinc and copper had climbed in recent months on bets that China’s post-Covid economic reopening would boost demand for raw materials. However, market hopes for a strong rebound in activity in the country are slowly “giving way to concern over falling cargo shipments, rising base metals inventories and lacklustre sales of homes and cars”, analysts at JPMorgan wrote last week.</t>
+          <t>US stocks advanced on Tuesday as investors appeared to be assuaged by efforts to reduce the risk of contagion in the financial system and looked towards the Federal Reserve’s next interest rate decision.
+The blue-chip S&amp;P 500 index added 1.3 per cent and the tech-heavy Nasdaq Composite climbed 1.6 per cent, rising for a second day.
+The KBW Nasdaq Bank index gained 5 per cent, while beleaguered California-based lender First Republic climbed 29.6 per cent, having fallen by nearly a half on Monday.
+Banks have steadied after regulators moved to support lenders caught in financial sector tumult following the failures of Silicon Valley Bank and two other US lenders this month. US Treasury secretary Janet Yellen signalled on Tuesday the government would back all deposits at smaller US banks if needed.
+Sam Gunter, head of FX trading at Britannia Global Markets, said: “Over the past few days there has been a continued sentiment of support for the banking sector, including from [European Central Bank president] Christine Lagarde saying they would act on inflation and financial stability, and Janet Yellen showing her support for regional banks.
+“That’s why we’re seeing equity markets push up and safe haven assets like gold and the yen lose ground.”
+Investors are turning their attention to decisions on interest rates from the US and British central banks this week. Turmoil in the global banking sector has eased expectations about the scale of interest rate increases to combat inflation.
+The Fed decision will come after a two-day meeting that started on Tuesday. Futures markets predicted on Wednesday the US central bank would raise rates by 0.25 percentage points from its current level of between 4.50 per cent and 4.75 per cent.
+Gennadiy Goldberg, US rate strategist at TD Securities, said Yellen’s comments about protecting regional US banks have freed up the Fed to focus on cooling inflation by raising interest rates, rather than pausing to calm concerns about banking instability.
+“If there are more announcements from Treasury and the government overall, I do think that could stabilise the market and actually allow the Fed to continue to tighten policy,” he said.
+“If they stop hiking now, it’s going to be pretty tough for them to restart rate hikes . . . By hiking 25 [basis points], it almost maintains the optionality to continue hiking in future meetings.”
+The Bank of England meets on Thursday, but pricing from the swaps markets indicates investors are divided between a 0.25 percentage point increase and no change.
+“The question now is whether banking sector problems are enough to tip the BoE into holding rates,” said analysts at Bank of America. “Greater uncertainty over the economic outlook as well as potentially tighter credit conditions could therefore tip the BoE into holding rates.”
+The yield on the two-year Treasury note, which closely follows interest rate expectations, jumped 0.22 percentage points to 4.17 per cent on Tuesday while the yield on the 10-year note rose 0.11 percentage points to 3.59 per cent. Yields move inversely to price.
+Yields on two-year German Bunds leapt 0.31 percentage points to 2.63 per cent, while the 10-year notes rose 0.2 percentage points to 2.29 per cent.
+European stocks also extended their gains on Tuesday as investors took heart from regulatory moves to contain the risk of contagion in the financial system from weak banks.
+The Stoxx Europe 600 Banks index closed up 3.8 per cent, having gained 1.2 per cent in the previous session.
+Broader indices also advanced, with the region-wide Stoxx 600 rising 1.3 per cent, Germany’s Dax 1.8 per cent, France’s CAC 40 1.4 per cent and London’s FTSE 100 1.8 per cent.
+Credit Suisse and UBS, which announced plans to merge in a Swiss government-brokered deal on Sunday, rose 7.3 per cent and 12.1 per cent, respectively.
+As part of the merger deal, $17bn worth of Credit Suisse additional tier 1 (AT1) bonds, a type of higher-risk bank debt designed to take losses during a crisis, was wiped out, Swiss financial regulator Finma said at the weekend.
+That triggered a sell-off in AT1 bonds at other financial institutions on Monday, as investors worried that bondholders would have to take on bigger losses than shareholders of Credit Suisse, who were allocated UBS stock.
+“It is still very early days. The initial response [to the deal] was not positive but statements from the supervisory arm and policymakers seemed to have been taken pretty well,” said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics. “We’re still in a weaker position but there are tentative signs that things aren’t getting worse.”
+Recommended
+First Republic
+Wall Street CEOs try to come up with new plan for First Republic
+In Asia Hong Kong’s Hang Seng index closed up 1.4 per cent and China’s CSI 300 gained 1.1 per cent. South Korea’s Kospi added 0.4 per cent. Japanese markets were closed for the spring equinox holiday.
+Asian banking stocks also gained, with the Hang Seng Finance index adding 1.4 per cent. HSBC and Standard Chartered gained 1.7 per cent and 4 per cent, respectively.
+Spot gold prices fell 2 per cent to trade at $1,939.50 per troy ounce after briefly touching their highest level since March 2022 on Monday.
+Oil prices continued to increase after rising more than 1 per cent on Monday. International benchmark Brent crude, and US equivalent WTI, gained 2.1 and 2.5 per cent, respectively.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Les marchés mondiaux des matières premières ont été affectés par la baisse du charbon et du minerai de fer, suite à l'annonce de l'objectif de croissance économique en Chine, qui est inférieur aux attentes. Le premier ministre sortant Li Keqiang a annoncé un objectif de croissance économique d'"environ 5 %", par rapport à l'objectif officiel de 5,5 % de l'année dernière. La Chine est le plus grand consommateur mondial de matières premières, ce qui influence les prix de matières premières allant du cuivre au pétrole brut et au maïs. Les contrats à terme pour le minerai de fer, le charbon cokéfiable et le cuivre ont tous connu une baisse à Dalian et sur la bourse de Londres. L'objectif de croissance économique inférieur aux attentes provoque des inquiétudes pour la reprise économique en Chine et affecte la confiance des investisseurs. Les prévisions de dépenses fiscales plus faibles que la norme pré-pandémique contribuent aussi à la prudence des investisseurs quant à la croissance de l'infrastructure. Cependant, bien que la reprise économique en Chine ait été décevante jusqu'à présent, les données officielles ont montré une expansion du secteur manufacturier le mois dernier.</t>
+          <t xml:space="preserve">Les marchés d'actions américains ont augmenté mardi, le S&amp;P 500 a ajouté 1,3 %, le Nasdaq Composite a grimpé de 1,6 % et a enregistré une deuxième journée de hausse. Le secteur bancaire s'est stabilisé après que les régulateurs ont agi pour soutenir les prêteurs pris dans la tourmente du secteur financier à la suite des faillites de Silicon Valley Bank et de deux autres prêteurs américains ce mois-ci. Les investisseurs se tournent maintenant vers les décisions sur les taux d'intérêt de la Réserve fédérale américaine et de la Banque d'Angleterre cette semaine. En Europe, les actions ont également prolongé leurs gains mardi, le Stoxx Europe 600 Banks Index a clôturé en hausse de 3,8 %. Les prix du pétrole ont également continué à augmenter. Les actions bancaires asiatiques ont également augmenté, le Hang Seng Finance Index ayant augmenté de 1,4 %.
+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Les matières premières chutent en raison de l'objectif de croissance peu convaincant de la Chine.</t>
+          <t>Les actions américaines augmentent alors que les craintes bancaires cèdent la place à la Fed.</t>
         </is>
       </c>
     </row>

--- a/Financial_Times-Fast_Reading/article.xlsx
+++ b/Financial_Times-Fast_Reading/article.xlsx
@@ -463,223 +463,245 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>European equities fall ahead of Fed rate decision</t>
+          <t>Powell and Yellen struggle to calm nerves in banking crisis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/content/d4a84812-5aa5-48f5-a9e2-f8669859c74c</t>
+          <t>/content/a4ed406e-d0ba-4027-8029-700e94393ac8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>European equities edged lower in early trade on Wednesday as investors looked ahead to the Federal Reserve’s decision on interest rates, in which the US central bank is expected to raise rates again to keep up the fight against inflation.
-The region-wide Stoxx 600 and Germany’s Dax both fell 0.1 per cent while the Cac 40 in Paris was 0.4 per cent lower. London’s FTSE 100 lost 0.3 per cent after fresh inflation data in Britain bolstered market expectations that the Bank of England would increase its benchmark interest rate on Thursday.
-Asian stocks advanced, with Hong Kong’s Hang Seng index adding 1.7 per cent and South Korea’s Kospi rising 1.2 per cent. Japan’s Topix jumped 1.7 per cent after markets reopened following a one-day break for the vernal equinox holiday.
-The Euro Stoxx Banks index fell 0.7 per cent, having closed up 3.8 per cent in the previous session. The Hang Seng Finance index and Topix Banks index were up 1.7 per cent and 2.2 per cent respectively.
-Investors are looking ahead to a rate decision from the Fed later in the day. Futures markets indicate traders are expecting an increase of 0.25 percentage points from the current range of 4.5 per cent to 4.75 per cent.
-Expectations that interest rates would stay elevated for an extended period of time have declined in recent weeks, as traders bet that turmoil in the banking sector triggered by the collapse of Silicon Valley Bank and UBS’s takeover of rival Credit Suisse would force the Fed to ease off its tightening cycle.
-“There are great uncertainties as to whether the Fed can both tighten and simultaneously try to ease the stress for, among other things, the regional banks (more liquidity support),” said analysts at SEB Research.
-The Fed will also publish revised projections about the path forward for monetary policy to 2025, as well as forecasts for growth, unemployment and inflation. The US central bank last published officials’ estimates in December, when most thought the federal funds rate would peak at 5 per cent to 5.25 per cent.
-US Treasuries made minor gains, with the yield on the two-year note, which is sensitive to interest rate expectations, falling 0.03 percentage points to 4.14 per cent. The yield on the 10-year note dropped 0.02 percentage points to 3.59 per cent. Yields move inversely to price.
-However investors began to price in the prospect of further rate rises from the Bank of England, which meets on Thursday. UK inflation unexpectedly jumped to 10.4 per cent in February, 50 basis points above expectations and adding to pressure on the central bank to raise interest rates again.
-Pricing from swaps markets indicates investors are betting on a 25bp increase.
-Sterling rose 0.5 per cent against the dollar, approaching a two-month high while the yield on the 10-year gilt rose 0.1 percentage points to 3.47 per cent. Two-year UK gilts rose 0.18 percentage points to 3.7 per cent.
-The European Central Bank last week opted for a 50bp increase, with president Christine Lagarde promising simultaneous support for the banking sector.
-“I think the BoE have got the same choice that the European Central Bank had last week and the Fed have tonight,” said Neil Birrell, chief investment officer for Premier Miton. “The equation is raising rates to beat inflation, but not squash the economy and make sure the financial system remains robust — that makes everything more difficult.”
+          <t>The top US economic policymakers seemed to be speaking with one voice on Wednesday when Federal Reserve chair Jay Powell and Treasury secretary Janet Yellen separately reassured depositors that their money was safe.
+But a few minutes later there was a sell-off in bank shares, reflecting confusion among investors about how far the government was willing to go to protect those depositors.
+Yellen had been asked by Bill Hagerty, a Republican senator from Tennessee, if the Biden administration was contemplating a unilateral guarantee for all bank deposits — even those above the current $250,000 limit for federally insured savings. She responded that US authorities would not go that far.
+“I have not considered or discussed anything having to do with blanket insurance or guarantees,” she said.
+The market sell-off following Yellen’s remarks highlights continuing fears over the fate of uninsured deposits at small and regional banks two weeks after the collapse of Silicon Valley Bank and Signature Bank. Investors and depositors have been hanging on every word uttered by policymakers for clues on how far the government is willing to intervene.
+“What Yellen and Powell are trying to do, which is hard, is calibrate what they say so that if this blows over, they haven’t committed themselves to doing a lot of stuff that was unnecessary, while acknowledging that if it gets worse, obviously we’re gonna have to do more,” said David Wessel, a senior fellow in economic studies at the Brookings Institution.
+The US Treasury and the Fed created an implicit assumption that the authorities would jump in to protect Americans’ savings and prevent a broader banking crisis when they set up a liquidity facility to help shore up struggling banks on generous terms and to rescue uninsured depositors at SVB and Signature.
+But regulators have stopped short of backing an explicit guarantee for all deposits in the country, or even an increase in the limit for insured deposits. Those more radical steps would probably require the politically thorny process of securing congressional approval.
+“Certainly, the way we think about deposit insurance in the wake of Dodd-Frank is it requires congressional action for the [Federal Deposit Insurance Corporation] to provide a blanket, universal guarantee of all deposits,” said Sarah Binder, a professor at George Washington University, referring to the regulations passed in the wake of the 2008 financial crisis. For now, the Biden administration is still intent on tackling problems at individual banks on a case-by-case basis.
+On Tuesday, at a gathering of the American Bankers Association, Yellen said “similar actions” to those taken with SVB and Signature “could be warranted if smaller institutions suffer deposit runs that pose the risk of contagion”, contributing to a rally in bank shares. Then came her remarks in the Senate on Wednesday, and the market sell-off.
+By Thursday, this time before the House of Representatives, Yellen tweaked her testimony to offer an answer that was comparable to her remarks two days earlier, soothing investors again.
+“We have used important tools to act quickly to prevent contagion. And they are tools we could use again,” she said, adding: “Certainly, we would be prepared to take additional actions if needed.”
+Although critics have suggested that Yellen’s comments have contradicted or clashed with Powell’s, most economic policy experts in Washington have dismissed any suggestion of a chasm between them regarding the response to the crisis. Powell’s statements about the safety of deposits overall are based on confidence in the power of the Fed facility, while he has not directly addressed the more narrow question of guarantees for uninsured accounts.
+“I don’t think there’s a difference between what Powell and Yellen have said substantively [but] I think that they have not fully articulated to themselves a policy yet,” says Michael Strain, an economist at the American Enterprise Institute, a conservative think-tank.
+Christina Skinner, an expert on financial regulation and central banking at the University of Pennsylvania, said: “To my mind, they both have the same objective — quell the panic and runs.” 
+However, some have blamed mixed messages from Washington for feeding the market turmoil.
+“The longer the uncertainty continues, the more permanent the damage is to the smaller banks, and the more difficult it will be to bring their customers back,” Bill Ackman, the activist investor and chief executive of Pershing Square Capital, said on Twitter.
+Andrew Brenner, of National Alliance Securities, accused Yellen of “waffling” on the issue of deposits.
+Wessel added: “I would say it wasn’t the most artful communication from the Treasury.”
 Recommended
-News in-depthFederal Reserve
-‘Firefighter and policeman’: Fed faces rate rise dilemma amid banks turmoil
-Efforts to curb contagion in the financial system, including a suggestion from US Treasury secretary Janet Yellen that the government could step in to back all deposits at the country’s smaller lenders, helped assuage nerves on Tuesday.
-The KBW Bank index finished up 5 per cent. The blue-chip S&amp;P 500 index added 1.3 per cent and the tech-heavy Nasdaq Composite climbed 1.6 per cent.
-Oil prices fell, with West Texas Intermediate, the US marker, slipping 0.7 per cent to trade at $69.21 a barrel, breaking a two-day advance of nearly 4 per cent. Brent crude, the international benchmark, lost 0.5 per cent to $74.91.</t>
+Free LunchMartin Sandbu
+Policymakers are bungling their response to failing banks
+By Friday afternoon, after a gathering of the Financial Stability Oversight Council, US regulators and officials, including Yellen and Powell, declared that the banking system remained “sound and resilient” — amid some comfort that deposit flows had stabilised and the crisis was confined to a few institutions.
+One person familiar with the Biden administration’s thinking said on Friday it did not view an expansion of deposit insurance “as necessary”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Les actions européennes ont légèrement baissé ce mercredi matin, car les investisseurs attendent la décision de la Réserve fédérale américaine sur les taux d'intérêt, qu'elle devrait augmenter pour lutter contre l'inflation. Le Stoxx 600 et le Dax allemand ont tous deux baissé de 0,1 %, tandis que le Cac 40 parisien a perdu 0,4 %. Le FTSE 100 de Londres a perdu 0,3 % après de nouvelles données sur l'inflation qui ont renforcé les attentes du marché selon lesquelles la Banque d'Angleterre augmenterait son taux d'intérêt le lendemain. Les actions asiatiques ont progressé, Hong Kong et la Corée du Sud ont vu leurs indices boursiers se renforcer. Les investisseurs se préparent à la décision de la Fed sur les taux d'intérêt plus tard dans la journée. Les marchés à terme indiquent que les traders attendent une augmentation de 0,25 points de pourcentage du taux actuel. Les rendements des titres américains ont connu une légère augmentation dû à une augmentation des anticipations de hausse des taux d'intérêt de la Banque d'Angleterre. Le problème lié à la crise économique sera le principal point d'intérêt de ces réunions.</t>
+          <t>La présidente de la Réserve fédérale américaine, Jay Powell, et la secrétaire du Trésor, Janet Yellen, ont tenté de rassurer les déposants en affirmant que leur argent était en sécurité, mais cela n'a pas empêché une vente massive d'actions bancaires quelques instants plus tard. Les investisseurs étaient confus quant à la mesure dans laquelle le gouvernement était disposé à protéger les dépôts. Lorsqu'on a demandé à Yellen si l'administration Biden envisageait une garantie unilatérale de tous les dépôts bancaires, y compris ceux au-dessus de la limite actuelle de 250 000 $, elle a répondu que les autorités américaines ne le feraient pas. La vente massive qui a suivi les remarques de Yellen a mis en lumière les craintes persistantes concernant le sort des dépôts non assurés dans les petites et régionales banques, deux semaines après l'effondrement de Silicon Valley Bank et de Signature Bank.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Les actions européennes chutent avant la décision de la Fed sur les taux.</t>
+          <t>Powell et Yellen peinent à rassurer les esprits dans la crise bancaire.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UK regulator takes aim at index providers over greenwashing</t>
+          <t>Traders pile into bets on gold price rally</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/content/0ea165df-6e5f-4c2a-b780-17ef5aa123f7</t>
+          <t>/content/f2fb5fe0-9c59-40ca-80d9-f536660e8f7f</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The UK’s financial regulator has warned index providers that they are fuelling greenwashing after identifying “widespread failings” with environment, social and governance benchmarks that guide billions in sustainable investment.
-The Financial Conduct Authority said on Monday that the overall quality of ESG-related disclosures made by index providers was “poor” and repeated its determination to ensure that ESG ratings providers should be formally regulated.
-“One of our observations was that the subjective nature of ESG factors and how ESG data and ratings are incorporated into benchmark methodologies could increase the risk of poor disclosures,” the FCA said, in a strongly worded letter to chief executives of index providers.
-The government is expected to announce a consultation in the near future on whether the FCA remit should be extended to include ESG ratings providers.
-“We have previously said that we support regulation of ESG ratings. We are working closely with government on this,” said Jon Relleen, FCA director of infrastructure and exchanges.
-Demand for strategies that employ ESG metrics has risen rapidly from both institutional and retail investors, increasing regulatory concerns about greenwashing, where financial product providers make exaggerated or misleading environmental claims.
-The limited information given by index providers about ESG metrics and a lack of clarity over how these are applied in the calculation of sustainable investment benchmarks could be contributing to greenwashing, according to the FCA.
-This lack of clarity over the application of ESG metrics was “particularly concerning” when it resulted in little material difference between the constituents of ESG indices and similar non-ESG benchmarks, said the FCA.
-The City regulator also criticised index providers for failing to implement their own ESG methodologies correctly. It found examples of index providers using outdated ESG data and ratings as well as failures to properly apply exclusion criteria to the constituents of ESG benchmarks.
-Lewis Johnston, director of policy at ShareAction, the charity that promotes responsible investment, said: “The FCA is right to zone in on this. We need smarter regulation of the ESG ratings industry to help us tackle the real and significant problem of greenwashing, which undermines not only client and public trust but also the potential of responsible investment to have any meaningful climate and social impact.”
-Latest news on ETFs
-Visit the ETF Hub to find out more and to explore our in-depth data and comparison tools helping you to understand everything from performance to ESG ratings
-The FCA’s demand for an improvement in standards was accompanied by a warning that it intended to do more work to “address potential failings” and that the regulator stood ready to take enforcement action which could include issuing financial penalties.
-Large index providers, including S&amp;P Global, MSCI and FTSE Russell, have invested heavily in ESG teams that provide data and analytics. Some smaller index providers buy ESG data from specialist third-party providers.
-MSCI said that it was “reviewing the FCA’s industry findings, which we will discuss with the FCA as part of our ongoing and regular engagement as an authorised benchmark administrator”.
-S&amp;P Global said it was reviewing the FCA’s letter and would continue to engage with the regulator. “We are committed to market transparency and the quality, independent governance and oversight of our indices,” it said.
-FTSE Russell, the third-largest index provider, said it published “detailed ground rules and benchmark statements for all benchmarks including ESG, which explain the underlying methodologies. FTSE Russell is fully supportive of and committed to transparency in ESG disclosures.”
-The ESG investment backlash begins to have an impact | FT Moral Money</t>
+          <t>Traders are betting on further increases in the price of gold after it touched a 12-month high this week, as investors predict the US Federal Reserve’s cycle of interest rate rises is over and seek safe havens during banking sector turmoil.
+Spot prices for gold this week touched $2,000 per ounce for the first time since the immediate aftermath of Russia’s invasion of Ukraine. Prices slipped back after testing the level several times throughout the week, but trading in options contracts linked to the metal suggest many investors are expecting a more sustained rally in the weeks ahead.
+Financial investors generally make bets on gold prices through futures contracts, exchange traded funds, or options contracts tied to them. Aakash Doshi, head of commodities for North America at Citigroup, said there had been a surge in investor activity across all three channels in recent weeks.
+“The big catalyst has been the stress in the regional banking system in the US . . . [and] it has been pretty much one-directional buying,” he said.
+March is set to be the first month of net inflows into gold ETFs for 10 months, while the volume of bullish options bets tied to the funds has approached record levels.
+Call options give investors the right to buy assets at a set price at a later date. The five-day rolling volume of call options on the SPDR Gold Trust ETF has surged more than fivefold since the start of the month. The ratio of calls to puts — options that are used to make bearish bets or protect against downside risk — has also swung to extreme levels, suggesting a consensus among traders that prices are on the way up.
+There was a similar increase in interest in CME’s gold futures and options tied to them, including deep “out of the money” options, which would only pay out if the gold price hits new all-time highs.
+The banking crisis that began earlier this month with the collapse of Silicon Valley Bank and Signature Bank created both short- and longer-term catalysts for an increase.
+Suki Cooper, precious metals analyst at Standard Chartered, said in the days immediately following the collapse of SVB and Signature there was a massive increase in “tactical” positioning as traders looked for assets considered safe havens in times of crisis.
+In previous crises, this impact has been offset by other investors being forced to sell gold to meet margin calls on other investments. However, Cooper said months of investor outflows meant positioning was light at the start of the latest problems, reducing the amount of further selling.
+At the same time, the bank crisis has led investors to reassess the outlook for interest rates in the US. Rising rates over the past year had reduced the attractiveness of yield-free gold investments, but investors have become increasingly convinced that the Fed’s latest rate hike earlier this week will be its last.
+“If we’re at the end of a rate hiking cycle, there’s much more scope for upside,” Cooper said.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>La Financial Conduct Authority (FCA), régulateur financier du Royaume-Uni, a averti les fournisseurs d'indices qu'ils alimentaient la pratique abusive du "greenwashing" en matière d'environnement, de social et d'éthique dans les investissements durables. La FCA a identifié des "lacunes généralisées" dans les indices liés à l'ESG (environnement, social et gouvernance) qui guident des milliards d'euros d'investissements durables. Elle a déclaré que la qualité globale des divulgations liées à l'ESG effectuées par les fournisseurs d'indices était "médiocre" et a réitéré sa détermination à garantir que les fournisseurs de notation ESG soient réglementés de manière formelle. La FCA a également critiqué les fournisseurs d'indices pour avoir échoué à mettre en œuvre correctement leurs propres méthodologies ESG. La réglementation des agences de notation ESG est actuellement examinée par le gouvernement britannique.</t>
+          <t>Les traders parient sur une hausse continue du prix de l'or après son pic de 12 mois cette semaine. Les investisseurs prédisent que le cycle de hausses de taux d'intérêt de la Réserve fédérale américaine est terminé, et cherchent des refuges sûrs pendant la perturbation du secteur bancaire. Les prix ont dépassé les 2000 dollars pour la première fois depuis l'année dernière, mais ont ensuite glissé plusieurs fois. Les paris d'options sur contrats liés au métal suggèrent que les investisseurs attendent une hausse plus soutenue dans les semaines à venir. Mars est prévu pour être le premier mois d'afflux nets dans les ETF or depuis 10 mois, tandis que le volume des paris haussiers d'options liées aux fonds a atteint des niveaux records.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Le régulateur britannique vise les fournisseurs d'indices pour leur greenwashing.</t>
+          <t>Les traders se précipitent pour parier sur une hausse du prix de l'or.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JPMorgan Asset Management chief warns on commercial real estate risks</t>
+          <t>Russia embraces China’s renminbi in face of western sanctions</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/content/65524cf7-954d-44a1-beb5-b24d29c30945</t>
+          <t>/content/65681143-c6af-4b64-827d-a7ca6171937a</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The chief executive of JPMorgan Asset Management has warned that commercial real estate forms one of the critical areas of risk in global markets after the aggressive monetary tightening by the US central bank.
-“When the Federal Reserve hits the brakes, something goes through the windshield,” George Gatch said at the $2.5tn asset manager’s European Media Summit on Tuesday.
-“We saw that with a bursting of a speculative bubble, of Ark [Invest],” said Gatch, referring to growth investor Cathie Wood, whose flagship fund’s share price dropped by two-thirds last year but has since partially rebounded.
-“We saw it in a huge repricing in fixed income, in [UK pension funds’ liability driven investment strategies],” he added. The failure of California-based lender Silicon Valley Bank earlier this month, and the weekend’s emergency takeover of Credit Suisse, also highlight the stress of rising interest rates, he said.
-All of these episodes have left investors and policymakers wondering “what is the next impact”, said Gatch. “Commercial real estate is an area of concern. We have higher interest rates for property developers, how does that impact the real estate market and lenders in that space?”
-Private market assets are also at risk of shifting lower in price as public markets have already done, he said. “I’m not forecasting doom and gloom but these would be areas I would be concerned about.”
-Commercial property values have started to slide in recent months, as rising borrowing costs have hit investors’ ability to transact.
-Investors are keeping a close eye on property funds such as private equity firm Blackstone’s Blackstone Real Estate Income Trust. Breit, which has become a barometer of the health of the commercial property market, is one of the most high-profile examples of several property funds forced to limit withdrawals as rising interest rates prompt investors to head for the exit.
-Recommended
-The Big Read
-Turning offices into condos: New York after the pandemic
-In a note on Tuesday, Goldman Sachs said the commercial real estate sector was dealing with a “challenging” environment. “The recent stress in the banking sector has fuelled growing concern about spillover effects on the commercial real estate industry. With over half of the $5.6tn of outstanding commercial loans sitting on bank balance sheets, bank lending remains the primary source of funding for the sector. This is particularly the case for small banks which capture the lion’s share of lending.”
-Also on Tuesday, Bank of America said investors in its monthly fund manager survey were more bearish on real estate than they have been since October 2020, having taken cautious positions on the asset class since September. “Concerns over commercial [and] office real estate are driving growing anxiety over the sector.”</t>
+          <t>Russia has adopted the renminbi as one of the main currencies for its international reserves, overseas trade and even some personal banking services as it pivots towards China in the face of western sanctions.
+The shift has made Russia a rare example of a country adopting the renminbi rather than the US dollar or euro as a reserve currency, but poses risks for Moscow given Beijing’s history of abrupt currency devaluations.
+China’s desire for international adoption of the renminbi has gone largely unfulfilled, but Russia has been driven towards the Chinese currency by international sanctions, the freezing of $300bn of its international assets and moves to exclude its main banks from global markets.
+Russia was the fourth-largest economy, excluding Hong Kong, for volumes of renminbi trading in February, according to data from the Swift global payments system. It did not feature in the top 15 before Russia’s full-scale invasion of Ukraine.
+“A year ago, the renminbi was an exotic currency used only by those working with China. Now people use it for all types of foreign transactions, even those having nothing to do with China,” said Natalia Revenko, a founder of HELPYOU, a company that assists Russian clients with opening foreign bank accounts.
+The rise of renminbi trading mirrored Russia’s economic pivot to China, as bilateral trade hit a record of $185bn in 2022. Russian companies pay for most purchases of Chinese goods in renminbi — purchases that increased sharply after the invasion.
+Before the invasion, more than 60 per cent of Russia’s payments for its exports were made in what the country’s authorities now refer to as “toxic currencies”, such as the dollar and euro, with renminbi accounting for less than 1 per cent.
+Now “toxic” currencies have dropped to less than half of export payments, while the renminbi accounts for 16 per cent, according to data from the Central Bank of Russia (CBR).
+Russian president Vladimir Putin this month endorsed the broader international use of the renminbi. He said as he met with Chinese president Xi Jinping that he supported “the use of the yuan in payments between Russia and countries of Asia, Africa, and Latin America”.
+More than 50 Russian banks now offer renminbi-denominated deposits, often under names like “Silk Way” and “Crescent Moon,” attracting ordinary people with interest rates higher than US dollar-denominated accounts.
+Russians are already accustomed to holding savings in dollars or euros after experiencing the abrupt devaluation of the rouble in the 1990s. But Victoria Shergina, a financial adviser with more than 800,000 Instagram followers, said: “When the rouble strengthened last summer, people panicked. ‘Is it true that the US dollar and the US are dead?’ they asked, repeating the state narrative. ‘Do I need to get rid of my savings in US dollars immediately?’”
+The central bank began switching to renminbi even before the full-scale invasion of Ukraine, increasing its share from 13 per cent to more than 17 per cent of its currency reserves in the year to January 2022, when it disclosed details of its currency reserves structure for the last time.
+The figure has likely remained unchanged, given that the central bank did not increase its reserves in 2022. It did not sell gold, which it could have used to buy renminbi, while its euro and dollar holdings were frozen, said Alexandra Prokopenko, a former CBR adviser and now a visiting fellow at German Council of Foreign Relations.
+Those holdings are unusual: IMF figures show that less than 3 per cent of global central banks’ reserves were held in renminbi-denominated assets.
+Now the Russian central bank has no option but to continue this strategy, as its access to most other reserve currencies is restricted, said Iikka Korhonen, head of research at the Bank of Finland Institute for Emerging Economies.
+Natalia Lavrova, chief economist at BCS Global Markets, said the low share of renminbi in global foreign exchange reserves was a result of most commodities being traded in the US dollar. While China has recently been encouraging its trading counterparts to shift to renminbi, she added, the opacity of Chinese financial markets has weighed on the currency’s popularity.
+Russia added the renminbi to the basket of permitted currencies for its National Wealth Fund in 2021 and renminbi assets now account for about 30 per cent of the $147bn fund, according to FT calculations based on data from Russia’s finance ministry.
+Among individuals, the renminbi was used above all for cross-border transfers, said Shergina, since anyone can buy renminbi on Russia’s main exchange, MOEX, and transfer it to other countries.
+By contrast, “the very few banks that still have Swift access set a minimum threshold of about $10,000 for such transactions and charge high commissions for US dollar and euro purchases,” she said. “Some people buy renminbi to top up their accounts in the US brokerages with it — and it works.”
+Xi Jinping, left, and Vladimir Putin toast following talks at the Kremlin on Tuesday © Pavel Byrkin/SPUTNIK/AFP/Getty Images
+The Chinese currency still represents only 2 per cent of personal and corporate deposits, marking its limited reach in retail banking as many Russians still lack faith in the currency as a store of value. However, ordinary Russians are among those accessing renminbi on the MOEX exchange.
+In February, the share of renminbi on MOEX reached almost 40 per cent from a fraction of a percentage point in early 2022, according to CBR data. Late last year the exchange even experienced a shortage of renminbi, which was overlooked by retail investors but apparent to analysts, who noticed yuan-rouble swap rates turning negative.
+“It seemed to be a one-time occurrence, with an unknown player ‘hoovering’ the market to make a huge payment to China,” said Prokopenko.
+Matteo Maggiori, professor of finance at Stanford Graduate School of Business, highlighted the unequal nature of Russia and China’s financial relationship. “Given Russia’s international situation, the dependence on the renminbi has been a forced choice,” he said.
+This dependence posed risks, said Lavrova: “The problem is not the co-operation with China itself, but that Russia has replaced multiple trading partners with only one player.”
+Russia’s problems had been “the greatest gift for China” in the light of its desire to internationalise its currency through foreign trade, Prokopenko said, adding that she did not think Russia would struggle to access renminbi liquidity. In August 2014, four months after annexing Crimea from Ukraine, Russia launched a swap line with the People’s Bank of China, which it can use to deepen liquidity.
+But she said the main risk for the Kremlin would be unpredictable currency shifts by Beijing, which Moscow cannot hedge against because they are so hard to foresee.
+She said: “If Beijing decides to devalue its currency overnight, which it has done before, Russian reserves go down, trade contracts are disrupted — and Moscow can do nothing about it.”</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Le PDG de JPMorgan Asset Management a mis en garde contre les risques du marché immobilier commercial mondial, après le resserrement monétaire agressif de la banque centrale américaine. Les investisseurs et les décideurs se demandent quelles seront les prochaines répercussions après la défaillance de banques comme Silicon Valley Bank et le rachat urgent de Credit Suisse, en raison de la hausse des taux d'intérêt. La valeur des propriétés commerciales a commencé à baisser ces derniers mois, car la hausse des coûts d'emprunt a entravé la capacité des investisseurs à effectuer des transactions. La baisse des prix sur le marché des actifs privés est également à risque, car les marchés publics l'ont déjà fait. Les investisseurs sont particulièrement attentifs aux fonds immobiliers tels que Blackstone Real Estate Income Trust de Blackstone Real Estate. La société Breit, devenue un baromètre de la santé du marché immobilier commercial, est l'un des exemples les plus en vue de plusieurs fonds immobiliers contraints de limiter les retraits. Selon Bank of America, les investisseurs sont de plus en plus pessimistes quant au marché immobilier, en particulier en raison des préoccupations concernant l'immobilier commercial et de bureau, dans le cadre d’un environnement difficile.</t>
+          <t>La Russie a adopté le renminbi comme l'une des principales monnaies de ses réserves internationales, de ses échanges commerciaux étrangers et même de certains services bancaires personnels alors qu'elle se tourne vers la Chine face aux sanctions occidentales. Ce changement a fait de la Russie un exemple rare d'un pays adoptant le renminbi plutôt que le dollar américain ou l'euro en tant que devise de réserve, mais cela présente des risques pour Moscou compte tenu de l'histoire de dévaluations de devises abruptes de la part de Pékin. La Chine a largement échoué à faire adopter le renminbi à l'échelle internationale, mais la Russie a été poussée vers la devise chinoise par les sanctions internationales, le gel de ses actifs internationaux de 300 milliards de dollars et les mesures d'exclusion de ses principales banques des marchés mondiaux.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Le chef de JPMorgan Asset Management met en garde contre les risques de l'immobilier commercial.</t>
+          <t>La Russie adopte le renminbi chinois face aux sanctions occidentales.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>US bank shares rise on government readiness to back smaller lenders</t>
+          <t>Copper price to surge to record high this year, Trafigura forecasts</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/content/42193c10-a12b-4155-b39c-90d0dad433c6</t>
+          <t>/content/c3da84fd-efe2-4487-accb-511a8104ee3e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>First Republic Bank shares rebounded on Tuesday after US Treasury secretary Janet Yellen signalled that a government backstop for smaller banks was at the ready if required.
-The San Francisco-based lender’s shares surged as much as 60 per cent on Tuesday, recouping some of its recent losses.
-First Republic is the hardest hit among the regional banks which have suffered massive outflows of deposits following the collapse of Silicon Valley Bank. Prior to this morning’s move, its shares had fallen more than 90 per cent in March, including a 47 per cent drop on Monday.
-The moves came as Yellen told the American Bankers Association on Tuesday that guarantees offered to all depositors at SVB could be replicated at other institutions if needed.
-While such a guarantee would only apply to First Republic deposits were it to fail and be taken over by the Federal Deposit Insurance Corporation, the comments could help alleviate customer concerns about the safety of their deposits and stem outflows. Before a bank fails, deposits are only guaranteed by the FDIC up to $250,000.
-Shares in other regional lenders were also up in early trading on Tuesday. PacWest Bancorp and Western Alliance were both up about 21 per cent.
-Shares in the four largest US banks by assets — JPMorgan Chase, Citigroup, Bank of America and Wells Fargo — were up between 3 and 4 per cent.
+          <t>Copper prices will surge to a record high this year as a rebound in Chinese demand risks depleting already low stockpiles, the world’s largest private metals trader has forecast.
+Global inventories of the metal used in everything from power cables and electric cars to buildings have dropped rapidly in recent weeks to their lowest seasonal level since 2008, leaving little buffer if demand in China continues to pace ahead.
+The benchmark three-month copper contract is trading at $9,000 a tonne, having gained 30 per cent since falling sharply in the three months after Russia’s invasion of Ukraine when investors fretted that soaring energy prices would dent metals demand.
+Kostas Bintas, co-head of metals and minerals at Trafigura, the Singapore-based trading house, said that copper prices would probably surpass the $10,845 a tonne peak achieved in March 2022 and could even hit $12,000 a tonne.
+“I think it’s very likely in the next 12 months that we will see a new high,” Bintas said at the FT Commodity Global Summit in Lausanne, Switzerland. “What’s the price of something the whole world needs but we don’t have any of?”
+Goldman Sachs expects the world to run out of visible copper inventories by the third quarter of this year if demand in China continues to power ahead as strongly as it did in February.
+Chinese copper demand was up 13 per cent year on year last month, according to the bank, after activity picked up after the lunar new year, which took place earlier this year than last. It forecasts that copper could hit $10,500 a tonne in the near-term, before reaching $15,000 by 2025.
+“The forward outlook is extraordinarily positive,” said Jeffrey Currie, global head of commodities research at Goldman Sachs.
+He added that “like oil in the 2000s, you’ve got to absolutely love copper in the 2020s”, referring to the 5 per cent supply-demand gap that led Brent crude to rally from $20 to almost $150 a barrel versus an expected 15 per cent deficit for copper this decade.
+Copper has been the best-performing industrial metal this year, gaining 6 per cent while others such as zinc and nickel have fallen on broader financial market weakness.
+Despite that, several strategists and traders said that prices of commodities were failing to reflect sufficiently market expectations of supply deficits.
+Guillaume de Dardel, head of energy transition metals at Mercuria, a Swiss-based trader, said that current prices “don’t fully reflect the anticipation of supply and demand shocks in the future” and commodities “price the present more than the future”.
+Copper is crucial to decarbonisation because the replacement of fossil fuels with renewable power requires vast amounts of the metal to distribute electricity longer distances from diffuse wind and solar farms to households and factories that consume it.
+Metals analysts said that demand for copper had accelerated and been pushed higher by clean energy industrial policies in the US and Europe that rely on electrification.
+Mining executives say it is increasingly difficult to boost new supply of copper with declining grades. Mining billionaire Robert Friedland told the Financial Times it took him 28 years to develop the vast Kamoa-Kakula mine in the Democratic Republic of Congo, which is ramping up to supply 650,000 tonnes by the end of next year.
+“We are heading towards a train wreck,” he said. S&amp;P Global estimates that 40mn tonnes of copper will be consumed a year by 2030, up from 25mn tonnes in 2021.
+Depleted inventories can make commodity prices volatile and a sudden price surge can cause problems for producers, traders and consumers in finding enough cash to cover margin requirements and avoiding running into a liquidity crunch.
 Recommended
-Banks in turmoil
-Turmoil shines light on lifeline provided by small US banks
-Wall Street bank chief executives are also evaluating further options for First Republic after 11 of the biggest US banks deposited $30bn with the lender. The executives will discuss if anything more can be done on the sidelines of a pre-planned gathering in Washington on Tuesday, the Financial Times reported on Monday.
-First Republic’s credit rating was downgraded for the second time in a week by S&amp;P Global over the weekend. S&amp;P analysts said the $30bn deposit infusion, which has an initial maturity of 120 days, was not a “longer-term solution” to the bank’s funding issues.</t>
+News in-depthTsingshan Holding Group
+Nickel ‘alchemist’ Xiang Guangda aims to work his magic on batteries
+However, some in the market see reason to expect the copper shortages and price surge to be felt later this decade. BHP, the world’s largest mining company, told the conference that new supply from Peru, Chile and the DRC would keep the market in surplus for the next two to three years.
+Marc Bailey, chief executive of Sucden Financial, a London-based commodity brokerage, agreed, saying that he expected a rebuilding of copper stocks this year as lockdowns lifted in China.
+“It’s the same way that we reopened our economy, which is that we wanted to look after ourselves and feel good, we wanted to go to restaurants, travel, see friends. We didn’t want to buy houses,” he said.
+But others said that copper’s role in decarbonising the economy together with the difficulties in developing new mines meant that prices of the red metal were certain to shoot higher soon.
+“You can think of copper almost like being a house in a casino,” said Nick Popovic, joint head of copper and zinc trading at Glencore, referring to the high likelihood of rising prices. “The house always wins no matter what permutation we look at and the bottlenecks.”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Le cours de l'action de First Republic Bank a rebondi de manière spectaculaire après les commentaires de la secrétaire au Trésor américain, Janet Yellen. Celle-ci a signalé qu'un soutien gouvernemental pour les banques plus petites était prêt en cas de besoin. Les actions de la banque basée à San Francisco ont augmenté de 60% aujourd'hui, récupérant une partie de leurs pertes récentes. D'autres banques régionales ont également vu une augmentation de leur cours en début de séance. Les commentaires de Yellen pourraient contribuer à soulager les inquiétudes des clients de First Republic concernant la sécurité de leurs dépôts et limiter la fuite des dépôts. Les PDG des principales banques américaines discutent également des options supplémentaires pour First Republic lors d'une réunion prévue à Washington ce mardi. La notation de crédit de First Republic a été rétrogradée pour la deuxième fois en une semaine par S&amp;P Global.</t>
+          <t>Le cuivre atteindra un niveau record cette année en raison de la reprise de la demande en Chine, ce qui risque d'épuiser les stocks déjà faibles. Selon Kostas Bintas, co-responsable des métaux et minéraux chez Trafigura, les prix du cuivre pourraient même atteindre 12 000 $ la tonne. Goldman Sachs estime qu'il n'y aura plus de stocks de cuivre visibles d'ici le troisième trimestre de cette année si la demande en Chine reste forte. Le cuivre est crucial pour la décarbonisation car il est nécessaire pour distribuer l'électricité à partir de fermes éoliennes et solaires diffuses vers les ménages et les usines qui la consomment. Les analystes des métaux estiment que la demande de cuivre a été stimulée par les politiques industrielles d'énergie propre aux États-Unis et en Europe qui reposent sur l'électrification. Cependant, les stocks déplétés peuvent rendre les prix volatils et une flambée subite des prix peut causer des problèmes pour les producteurs, les négociants et les consommateurs en matière de couverture des marges et d'éviter les problèmes de liquidité.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Les actions des banques américaines augmentent suite à la disposition du gouvernement à soutenir les petits prêteurs.</t>
+          <t>Le prix du cuivre devrait atteindre un niveau record cette année, selon les prévisions de Trafigura.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>US equities gain as banking fears take back seat to Fed</t>
+          <t xml:space="preserve">Deutsche Bank weighs on bank shares </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/content/cb89507a-7cd7-463a-a34b-b1f7b9e14793</t>
+          <t>/content/a730721b-afaf-4e81-b5aa-dcbbd98f3bd3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US stocks advanced on Tuesday as investors appeared to be assuaged by efforts to reduce the risk of contagion in the financial system and looked towards the Federal Reserve’s next interest rate decision.
-The blue-chip S&amp;P 500 index added 1.3 per cent and the tech-heavy Nasdaq Composite climbed 1.6 per cent, rising for a second day.
-The KBW Nasdaq Bank index gained 5 per cent, while beleaguered California-based lender First Republic climbed 29.6 per cent, having fallen by nearly a half on Monday.
-Banks have steadied after regulators moved to support lenders caught in financial sector tumult following the failures of Silicon Valley Bank and two other US lenders this month. US Treasury secretary Janet Yellen signalled on Tuesday the government would back all deposits at smaller US banks if needed.
-Sam Gunter, head of FX trading at Britannia Global Markets, said: “Over the past few days there has been a continued sentiment of support for the banking sector, including from [European Central Bank president] Christine Lagarde saying they would act on inflation and financial stability, and Janet Yellen showing her support for regional banks.
-“That’s why we’re seeing equity markets push up and safe haven assets like gold and the yen lose ground.”
-Investors are turning their attention to decisions on interest rates from the US and British central banks this week. Turmoil in the global banking sector has eased expectations about the scale of interest rate increases to combat inflation.
-The Fed decision will come after a two-day meeting that started on Tuesday. Futures markets predicted on Wednesday the US central bank would raise rates by 0.25 percentage points from its current level of between 4.50 per cent and 4.75 per cent.
-Gennadiy Goldberg, US rate strategist at TD Securities, said Yellen’s comments about protecting regional US banks have freed up the Fed to focus on cooling inflation by raising interest rates, rather than pausing to calm concerns about banking instability.
-“If there are more announcements from Treasury and the government overall, I do think that could stabilise the market and actually allow the Fed to continue to tighten policy,” he said.
-“If they stop hiking now, it’s going to be pretty tough for them to restart rate hikes . . . By hiking 25 [basis points], it almost maintains the optionality to continue hiking in future meetings.”
-The Bank of England meets on Thursday, but pricing from the swaps markets indicates investors are divided between a 0.25 percentage point increase and no change.
-“The question now is whether banking sector problems are enough to tip the BoE into holding rates,” said analysts at Bank of America. “Greater uncertainty over the economic outlook as well as potentially tighter credit conditions could therefore tip the BoE into holding rates.”
-The yield on the two-year Treasury note, which closely follows interest rate expectations, jumped 0.22 percentage points to 4.17 per cent on Tuesday while the yield on the 10-year note rose 0.11 percentage points to 3.59 per cent. Yields move inversely to price.
-Yields on two-year German Bunds leapt 0.31 percentage points to 2.63 per cent, while the 10-year notes rose 0.2 percentage points to 2.29 per cent.
-European stocks also extended their gains on Tuesday as investors took heart from regulatory moves to contain the risk of contagion in the financial system from weak banks.
-The Stoxx Europe 600 Banks index closed up 3.8 per cent, having gained 1.2 per cent in the previous session.
-Broader indices also advanced, with the region-wide Stoxx 600 rising 1.3 per cent, Germany’s Dax 1.8 per cent, France’s CAC 40 1.4 per cent and London’s FTSE 100 1.8 per cent.
-Credit Suisse and UBS, which announced plans to merge in a Swiss government-brokered deal on Sunday, rose 7.3 per cent and 12.1 per cent, respectively.
-As part of the merger deal, $17bn worth of Credit Suisse additional tier 1 (AT1) bonds, a type of higher-risk bank debt designed to take losses during a crisis, was wiped out, Swiss financial regulator Finma said at the weekend.
-That triggered a sell-off in AT1 bonds at other financial institutions on Monday, as investors worried that bondholders would have to take on bigger losses than shareholders of Credit Suisse, who were allocated UBS stock.
-“It is still very early days. The initial response [to the deal] was not positive but statements from the supervisory arm and policymakers seemed to have been taken pretty well,” said Jack Allen-Reynolds, deputy chief eurozone economist at Capital Economics. “We’re still in a weaker position but there are tentative signs that things aren’t getting worse.”
+          <t>Bank stocks took a hit on Friday, led by Germany’s Deutsche Bank, as policymakers struggled to calm nerves after failures on both sides of the Atlantic.
+Europe’s Stoxx 600 banks index, which comprises the region’s biggest lenders, fell 3.8 per cent, outstripping weakness in broad national indices, led by an 8.5 per cent drop in Deutsche shares. Shares in Commerzbank fell 5.5 per cent as jitters over the wider sector persisted following the collapse of two regional US institutions and a rescue deal for Credit Suisse in recent weeks.
+Bigger US banks were also under pressure, with JPMorgan down 1.5 per cent and Morgan Stanley closing 2.2 per cent lower. Goldman Sachs and Citi lost 0.7 per cent and 0.8 per cent respectively.
+Troubled regional lender First Republic Bank swung between losses and gains before ending the day down 1.4 per cent. However, a better session for peers including Zion took the KBW regional banking index 2.9 per cent higher on the day.
+“Clearly the main question is: What will be the next shoe to drop?” said Kevin Thozet, investment committee member at Carmignac. “What we are seeing is that market participants are trying to test where the next weak link in the banking sector is.”
+Downbeat sentiment in the banking sector and fears about contagion kept gains in check in broader markets. The US’s benchmark S&amp;P 500 ended the day 0.6 per cent higher after more muted moves earlier in the session, while the Nasdaq Composite added 0.3 per cent. Meanwhile, Europe’s overall Stoxx 600 gauge closed 1.4 per cent lower.
+Bank stocks have had a turbulent March as traders fret over the blow to lenders from central banks’ aggressive interest rate rises over the past year.
+“Europe is very tilted towards banks, which have been in the eye of the storm,” said Emmanuel Cau, head of European equity strategy at Barclays. “There are bank-specific issues to worry about like regulation and deposit safety.”
+Deutsche’s slide came after a surge this week in the cost of insuring the lender’s debt against default.
+The price of the bank’s five-year credit default swaps — derivatives that act like insurance and pay out if a company defaults on its payments — climbed from below 150 basis points on Wednesday to 200bp on Friday, according to data from Refinitiv.
+Global authorities have tried to assuage investors’ concerns after the failure of several US regional banks, and last weekend’s hasty takeover of Credit Suisse by its rival UBS.
+“Deutsche Bank has fundamentally modernised and reorganised its business and is a very profitable bank,” Germany’s chancellor Olaf Scholz said on Friday, after being asked if the lender was the “new Credit Suisse”. “There is no reason to be concerned about it.”
+European Central Bank president Christine Lagarde told a eurozone summit in Brussels that the banking sector was “strong” and that the ECB was fully equipped to provide liquidity to the euro area financial system if needed, according to an EU official.
+She insisted there was “no trade-off” between controlling inflation and fostering financial stability.
+US Treasury secretary Janet Yellen on Thursday said regulators were “prepared to take additional actions if warranted” to ensure the safety of bank deposits. But efforts to stem the selling have had only fleeting effects.
+Central banks in the eurozone, US and UK have all pushed ahead with interest rate rises to fight stubbornly high inflation this month, despite the banking sector turmoil, which itself is partly the result of rapidly increasing borrowing costs over the past year. Fed officials on Friday doubled down on their decision to deliver a quarter-point rate rise despite the stress in the banking sector.
+“There’s still a nagging question amongst market participants over whether the turmoil in the banking sector is over or if there will be wider contagion,” said Mobeen Tahir, director of macroeconomic research and tactical solutions at WisdomTree Europe.
+“It is also now evident from central banks that the turmoil is not going to put a hard brake on their monetary policy actions — that’s sending jitters through markets because it might exacerbate or expose new vulnerabilities in the banking sector.”
 Recommended
-First Republic
-Wall Street CEOs try to come up with new plan for First Republic
-In Asia Hong Kong’s Hang Seng index closed up 1.4 per cent and China’s CSI 300 gained 1.1 per cent. South Korea’s Kospi added 0.4 per cent. Japanese markets were closed for the spring equinox holiday.
-Asian banking stocks also gained, with the Hang Seng Finance index adding 1.4 per cent. HSBC and Standard Chartered gained 1.7 per cent and 4 per cent, respectively.
-Spot gold prices fell 2 per cent to trade at $1,939.50 per troy ounce after briefly touching their highest level since March 2022 on Monday.
-Oil prices continued to increase after rising more than 1 per cent on Monday. International benchmark Brent crude, and US equivalent WTI, gained 2.1 and 2.5 per cent, respectively.</t>
+LexDeutsche Bank AG
+Deutsche Bank: sell banks on Friday and go away Premium
+ content
+Dirk Willer, strategist at Citigroup, said it was “too early to tell” whether banking sector stress would have an impact on the wider US economy. But he added the Federal Reserve and the ECB had “become more cautious” about tightening monetary policy. He predicted the US was likely to enter a recession this year, noting that “the banking stress tightens credit”.
+Economists are now anticipating the Fed will pause its rate-raising cycle, keeping rates on hold at its next meeting in May before cutting in September, while anticipating a 0.25 percentage point rise from the ECB meeting and no cuts in 2023.
+Additional reporting by Guy Chazan in Berlin
+Fractured markets: the big threats to the financial system</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les marchés d'actions américains ont augmenté mardi, le S&amp;P 500 a ajouté 1,3 %, le Nasdaq Composite a grimpé de 1,6 % et a enregistré une deuxième journée de hausse. Le secteur bancaire s'est stabilisé après que les régulateurs ont agi pour soutenir les prêteurs pris dans la tourmente du secteur financier à la suite des faillites de Silicon Valley Bank et de deux autres prêteurs américains ce mois-ci. Les investisseurs se tournent maintenant vers les décisions sur les taux d'intérêt de la Réserve fédérale américaine et de la Banque d'Angleterre cette semaine. En Europe, les actions ont également prolongé leurs gains mardi, le Stoxx Europe 600 Banks Index a clôturé en hausse de 3,8 %. Les prix du pétrole ont également continué à augmenter. Les actions bancaires asiatiques ont également augmenté, le Hang Seng Finance Index ayant augmenté de 1,4 %.
-</t>
+          <t>Les actions bancaires ont connu un déclin vendredi dernier, mené par Deutsche Bank en Allemagne, alors que les décideurs ont lutté pour calmer les nerfs après des échecs des deux côtés de l'Atlantique. L'indice bancaire Stoxx 600 en Europe, qui comprend les plus grandes banques de la région, a chuté de 3,8 %, dépassant la faiblesse des indices nationaux, mené par une baisse de 8,5 % des actions de Deutsche. Les actions de Commerzbank ont chuté de 5,5 % alors que les craintes persistaient au sujet du secteur suite à la chute de deux institutions régionales aux États-Unis et à un accord de sauvetage pour Credit Suisse au cours des dernières semaines. Les grandes banques américaines ont également subi des pressions, JPMorgan en baisse de 1,5 % et Morgan Stanley fermant 2,2 % plus bas. Goldman Sachs et Citi ont perdu respectivement 0,7 % et 0,8 %. Le sentiment négatif dans le secteur bancaire et les craintes de contagion ont maintenu les gains en échec sur les marchés plus larges. Les actions des banques ont connu un mois de mars turbulent alors que les traders s'inquiètent des conséquences pour les prêteurs des hausses de taux d'intérêt agressives des banques centrales au cours de l'année écoulée. Les banques centrales de la zone euro, des États-Unis et du Royaume-Uni ont toutes poursuivi les hausses de taux d'intérêt pour lutter contre une inflation obstinément élevée ce mois-ci, malgré la tourmente dans le secteur bancaire, qui est elle-même partiellement due à l'augmentation rapide des coûts d'emprunt au cours de l'année écoulée. Les économistes anticipent désormais que la Fed suspendra son cycle de hausse des taux, maintenant les taux inchangés lors de sa prochaine réunion en mai avant une baisse en septembre, tout en anticipant une hausse de 0,25 point de pourcentage lors de la réunion de la BCE et aucune baisse en 2023.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Les actions américaines augmentent alors que les craintes bancaires cèdent la place à la Fed.</t>
+          <t>Deutsche Bank pèse sur les actions bancaires</t>
         </is>
       </c>
     </row>
